--- a/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
+++ b/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P50"/>
+  <dimension ref="A1:P116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -454,2457 +454,5757 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>1675329000000</v>
+        <v>1675329240000</v>
       </c>
       <c r="B2">
-        <v>10600</v>
+        <v>6933500</v>
       </c>
       <c r="C2">
-        <v>15300</v>
+        <v>5005600</v>
       </c>
       <c r="D2">
-        <v>570300</v>
+        <v>1357800</v>
       </c>
       <c r="E2">
-        <v>443225000</v>
+        <v>121331672000</v>
       </c>
       <c r="F2">
-        <v>444240000</v>
+        <v>86844740000</v>
       </c>
       <c r="G2">
-        <v>7509086000</v>
+        <v>20665766000</v>
       </c>
       <c r="H2">
-        <v>596200</v>
+        <v>13296900</v>
       </c>
       <c r="I2">
-        <v>8396551000</v>
+        <v>228842178000</v>
       </c>
       <c r="J2" t="str">
-        <v>2023-02-02T09:10:00.000Z</v>
+        <v>2023-02-02T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>8396551000</v>
+        <v>228842178000</v>
       </c>
       <c r="L2">
-        <v>596200</v>
+        <v>13296900</v>
       </c>
       <c r="M2">
-        <v>4700</v>
+        <v>-1927900</v>
       </c>
       <c r="N2">
-        <v>1015000</v>
+        <v>-34486932000</v>
       </c>
       <c r="O2">
-        <v>4700</v>
+        <v>-1927900</v>
       </c>
       <c r="P2">
-        <v>1015000</v>
+        <v>-34486932000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>1675329300000</v>
+        <v>1675329360000</v>
       </c>
       <c r="B3">
-        <v>15432300</v>
+        <v>3520400</v>
       </c>
       <c r="C3">
-        <v>14873500</v>
+        <v>5613300</v>
       </c>
       <c r="D3">
-        <v>906500</v>
+        <v>67900</v>
       </c>
       <c r="E3">
-        <v>260632250000</v>
+        <v>58813232000</v>
       </c>
       <c r="F3">
-        <v>253707537000</v>
+        <v>95287611000</v>
       </c>
       <c r="G3">
-        <v>14845920000</v>
+        <v>990171000</v>
       </c>
       <c r="H3">
-        <v>31212300</v>
+        <v>9201600</v>
       </c>
       <c r="I3">
-        <v>529185707000</v>
+        <v>155091014000</v>
       </c>
       <c r="J3" t="str">
-        <v>2023-02-02T09:15:00.000Z</v>
+        <v>2023-02-02T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>537582258000</v>
+        <v>383933192000</v>
       </c>
       <c r="L3">
-        <v>31808500</v>
+        <v>22498500</v>
       </c>
       <c r="M3">
-        <v>-558800</v>
+        <v>2092900</v>
       </c>
       <c r="N3">
-        <v>-6924713000</v>
+        <v>36474379000</v>
       </c>
       <c r="O3">
-        <v>-554100</v>
+        <v>165000</v>
       </c>
       <c r="P3">
-        <v>-6923698000</v>
+        <v>1987447000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>1675329600000</v>
+        <v>1675329480000</v>
       </c>
       <c r="B4">
-        <v>23800700</v>
+        <v>4989000</v>
       </c>
       <c r="C4">
-        <v>6466000</v>
+        <v>4269900</v>
       </c>
       <c r="D4">
-        <v>237300</v>
+        <v>51100</v>
       </c>
       <c r="E4">
-        <v>391919157000</v>
+        <v>80930571000</v>
       </c>
       <c r="F4">
-        <v>110282498000</v>
+        <v>72019426000</v>
       </c>
       <c r="G4">
-        <v>4231447000</v>
+        <v>699069000</v>
       </c>
       <c r="H4">
-        <v>30504000</v>
+        <v>9310000</v>
       </c>
       <c r="I4">
-        <v>506433102000</v>
+        <v>153649066000</v>
       </c>
       <c r="J4" t="str">
-        <v>2023-02-02T09:20:00.000Z</v>
+        <v>2023-02-02T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>1044015360000</v>
+        <v>537582258000</v>
       </c>
       <c r="L4">
-        <v>62312500</v>
+        <v>31808500</v>
       </c>
       <c r="M4">
-        <v>-17334700</v>
+        <v>-719100</v>
       </c>
       <c r="N4">
-        <v>-281636659000</v>
+        <v>-8911145000</v>
       </c>
       <c r="O4">
-        <v>-17888800</v>
+        <v>-554100</v>
       </c>
       <c r="P4">
-        <v>-288560357000</v>
+        <v>-6923698000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>1675329900000</v>
+        <v>1675329600000</v>
       </c>
       <c r="B5">
-        <v>6670400</v>
+        <v>9717100</v>
       </c>
       <c r="C5">
-        <v>9673000</v>
+        <v>2701900</v>
       </c>
       <c r="D5">
-        <v>66800</v>
+        <v>154500</v>
       </c>
       <c r="E5">
-        <v>107536334000</v>
+        <v>159623414000</v>
       </c>
       <c r="F5">
-        <v>165769909000</v>
+        <v>45971907000</v>
       </c>
       <c r="G5">
-        <v>1252408000</v>
+        <v>2733816000</v>
       </c>
       <c r="H5">
-        <v>16410200</v>
+        <v>12573500</v>
       </c>
       <c r="I5">
-        <v>274558651000</v>
+        <v>208329137000</v>
       </c>
       <c r="J5" t="str">
-        <v>2023-02-02T09:25:00.000Z</v>
+        <v>2023-02-02T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>1318574011000</v>
+        <v>745911395000</v>
       </c>
       <c r="L5">
-        <v>78722700</v>
+        <v>44382000</v>
       </c>
       <c r="M5">
-        <v>3002600</v>
+        <v>-7015200</v>
       </c>
       <c r="N5">
-        <v>58233575000</v>
+        <v>-113651507000</v>
       </c>
       <c r="O5">
-        <v>-14886200</v>
+        <v>-7569300</v>
       </c>
       <c r="P5">
-        <v>-230326782000</v>
+        <v>-120575205000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>1675330200000</v>
+        <v>1675329720000</v>
       </c>
       <c r="B6">
-        <v>3922100</v>
+        <v>9450500</v>
       </c>
       <c r="C6">
-        <v>8902500</v>
+        <v>2311500</v>
       </c>
       <c r="D6">
-        <v>53600</v>
+        <v>62300</v>
       </c>
       <c r="E6">
-        <v>62975193000</v>
+        <v>155932725000</v>
       </c>
       <c r="F6">
-        <v>156036833000</v>
+        <v>37934938000</v>
       </c>
       <c r="G6">
-        <v>1215768000</v>
+        <v>1115212000</v>
       </c>
       <c r="H6">
-        <v>12878200</v>
+        <v>11824300</v>
       </c>
       <c r="I6">
-        <v>220227794000</v>
+        <v>194982875000</v>
       </c>
       <c r="J6" t="str">
-        <v>2023-02-02T09:30:00.000Z</v>
+        <v>2023-02-02T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>1538801805000</v>
+        <v>940894270000</v>
       </c>
       <c r="L6">
-        <v>91600900</v>
+        <v>56206300</v>
       </c>
       <c r="M6">
-        <v>4980400</v>
+        <v>-7139000</v>
       </c>
       <c r="N6">
-        <v>93061640000</v>
+        <v>-117997787000</v>
       </c>
       <c r="O6">
-        <v>-9905800</v>
+        <v>-14708300</v>
       </c>
       <c r="P6">
-        <v>-137265142000</v>
+        <v>-238572992000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>1675330500000</v>
+        <v>1675329840000</v>
       </c>
       <c r="B7">
-        <v>7719300</v>
+        <v>7136400</v>
       </c>
       <c r="C7">
-        <v>3692300</v>
+        <v>3676600</v>
       </c>
       <c r="D7">
-        <v>16000</v>
+        <v>49200</v>
       </c>
       <c r="E7">
-        <v>120802823000</v>
+        <v>118841931000</v>
       </c>
       <c r="F7">
-        <v>60421173000</v>
+        <v>68096815000</v>
       </c>
       <c r="G7">
-        <v>408739000</v>
+        <v>932045000</v>
       </c>
       <c r="H7">
-        <v>11427600</v>
+        <v>10862200</v>
       </c>
       <c r="I7">
-        <v>181632735000</v>
+        <v>187870791000</v>
       </c>
       <c r="J7" t="str">
-        <v>2023-02-02T09:35:00.000Z</v>
+        <v>2023-02-02T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1720434540000</v>
+        <v>1128765061000</v>
       </c>
       <c r="L7">
-        <v>103028500</v>
+        <v>67068500</v>
       </c>
       <c r="M7">
-        <v>-4027000</v>
+        <v>-3459800</v>
       </c>
       <c r="N7">
-        <v>-60381650000</v>
+        <v>-50745116000</v>
       </c>
       <c r="O7">
-        <v>-13932800</v>
+        <v>-18168100</v>
       </c>
       <c r="P7">
-        <v>-197646792000</v>
+        <v>-289318108000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>1675330800000</v>
+        <v>1675329960000</v>
       </c>
       <c r="B8">
-        <v>6354200</v>
+        <v>2349900</v>
       </c>
       <c r="C8">
-        <v>3466100</v>
+        <v>4179000</v>
       </c>
       <c r="D8">
-        <v>37800</v>
+        <v>13500</v>
       </c>
       <c r="E8">
-        <v>101657599000</v>
+        <v>37333684000</v>
       </c>
       <c r="F8">
-        <v>59629939000</v>
+        <v>69117229000</v>
       </c>
       <c r="G8">
-        <v>471210000</v>
+        <v>316437000</v>
       </c>
       <c r="H8">
-        <v>9858100</v>
+        <v>6542400</v>
       </c>
       <c r="I8">
-        <v>161758748000</v>
+        <v>106767350000</v>
       </c>
       <c r="J8" t="str">
-        <v>2023-02-02T09:40:00.000Z</v>
+        <v>2023-02-02T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1882193288000</v>
+        <v>1235532411000</v>
       </c>
       <c r="L8">
-        <v>112886600</v>
+        <v>73610900</v>
       </c>
       <c r="M8">
-        <v>-2888100</v>
+        <v>1829100</v>
       </c>
       <c r="N8">
-        <v>-42027660000</v>
+        <v>31783545000</v>
       </c>
       <c r="O8">
-        <v>-16820900</v>
+        <v>-16339000</v>
       </c>
       <c r="P8">
-        <v>-239674452000</v>
+        <v>-257534563000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>1675331100000</v>
+        <v>1675330080000</v>
       </c>
       <c r="B9">
-        <v>3144400</v>
+        <v>1817200</v>
       </c>
       <c r="C9">
-        <v>4504700</v>
+        <v>3270000</v>
       </c>
       <c r="D9">
-        <v>31300</v>
+        <v>24600</v>
       </c>
       <c r="E9">
-        <v>46624810000</v>
+        <v>27723737000</v>
       </c>
       <c r="F9">
-        <v>83259998000</v>
+        <v>54931518000</v>
       </c>
       <c r="G9">
-        <v>404465000</v>
+        <v>386345000</v>
       </c>
       <c r="H9">
-        <v>7680400</v>
+        <v>5111800</v>
       </c>
       <c r="I9">
-        <v>130289273000</v>
+        <v>83041600000</v>
       </c>
       <c r="J9" t="str">
-        <v>2023-02-02T09:45:00.000Z</v>
+        <v>2023-02-02T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>2012482561000</v>
+        <v>1318574011000</v>
       </c>
       <c r="L9">
-        <v>120567000</v>
+        <v>78722700</v>
       </c>
       <c r="M9">
-        <v>1360300</v>
+        <v>1452800</v>
       </c>
       <c r="N9">
-        <v>36635188000</v>
+        <v>27207781000</v>
       </c>
       <c r="O9">
-        <v>-15460600</v>
+        <v>-14886200</v>
       </c>
       <c r="P9">
-        <v>-203039264000</v>
+        <v>-230326782000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>1675331400000</v>
+        <v>1675330200000</v>
       </c>
       <c r="B10">
-        <v>7188900</v>
+        <v>1497600</v>
       </c>
       <c r="C10">
-        <v>2397000</v>
+        <v>4117400</v>
       </c>
       <c r="D10">
-        <v>6500</v>
+        <v>26100</v>
       </c>
       <c r="E10">
-        <v>117095191000</v>
+        <v>22465236000</v>
       </c>
       <c r="F10">
-        <v>39148239000</v>
+        <v>72501835000</v>
       </c>
       <c r="G10">
-        <v>208892000.00000003</v>
+        <v>402488000</v>
       </c>
       <c r="H10">
-        <v>9592400</v>
+        <v>5641100</v>
       </c>
       <c r="I10">
-        <v>156452322000</v>
+        <v>95369559000</v>
       </c>
       <c r="J10" t="str">
-        <v>2023-02-02T09:50:00.000Z</v>
+        <v>2023-02-02T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>2168934883000</v>
+        <v>1413943570000</v>
       </c>
       <c r="L10">
-        <v>130159400</v>
+        <v>84363800</v>
       </c>
       <c r="M10">
-        <v>-4791900</v>
+        <v>2619800</v>
       </c>
       <c r="N10">
-        <v>-77946952000</v>
+        <v>50036599000</v>
       </c>
       <c r="O10">
-        <v>-20252500</v>
+        <v>-12266400</v>
       </c>
       <c r="P10">
-        <v>-280986216000</v>
+        <v>-180290183000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>1675331700000</v>
+        <v>1675330320000</v>
       </c>
       <c r="B11">
-        <v>6378300</v>
+        <v>1408500</v>
       </c>
       <c r="C11">
-        <v>3084800</v>
+        <v>3509100</v>
       </c>
       <c r="D11">
-        <v>61600</v>
+        <v>16300</v>
       </c>
       <c r="E11">
-        <v>88645644000</v>
+        <v>24259466000</v>
       </c>
       <c r="F11">
-        <v>53483929000</v>
+        <v>61637322000</v>
       </c>
       <c r="G11">
-        <v>1220569000</v>
+        <v>451830000</v>
       </c>
       <c r="H11">
-        <v>9524700</v>
+        <v>4933900</v>
       </c>
       <c r="I11">
-        <v>143350142000</v>
+        <v>86348618000</v>
       </c>
       <c r="J11" t="str">
-        <v>2023-02-02T09:55:00.000Z</v>
+        <v>2023-02-02T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>2312285025000</v>
+        <v>1500292188000</v>
       </c>
       <c r="L11">
-        <v>139684100</v>
+        <v>89297700</v>
       </c>
       <c r="M11">
-        <v>-3293500</v>
+        <v>2100600</v>
       </c>
       <c r="N11">
-        <v>-35161715000</v>
+        <v>37377856000</v>
       </c>
       <c r="O11">
-        <v>-23546000</v>
+        <v>-10165800</v>
       </c>
       <c r="P11">
-        <v>-316147931000</v>
+        <v>-142912327000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>1675332000000</v>
+        <v>1675330440000</v>
       </c>
       <c r="B12">
-        <v>4445600</v>
+        <v>1996600</v>
       </c>
       <c r="C12">
-        <v>3103700</v>
+        <v>2285100</v>
       </c>
       <c r="D12">
-        <v>80200</v>
+        <v>18000</v>
       </c>
       <c r="E12">
-        <v>69563793000</v>
+        <v>30024506000</v>
       </c>
       <c r="F12">
-        <v>49150666000</v>
+        <v>40031199000</v>
       </c>
       <c r="G12">
-        <v>1092913000</v>
+        <v>449795000</v>
       </c>
       <c r="H12">
-        <v>7629500</v>
+        <v>4299700</v>
       </c>
       <c r="I12">
-        <v>119807372000</v>
+        <v>70505500000</v>
       </c>
       <c r="J12" t="str">
-        <v>2023-02-02T10:00:00.000Z</v>
+        <v>2023-02-02T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>2432092397000</v>
+        <v>1570797688000</v>
       </c>
       <c r="L12">
-        <v>147313600</v>
+        <v>93597400</v>
       </c>
       <c r="M12">
-        <v>-1341900</v>
+        <v>288500</v>
       </c>
       <c r="N12">
-        <v>-20413127000</v>
+        <v>10006693000</v>
       </c>
       <c r="O12">
-        <v>-24887900</v>
+        <v>-9877300</v>
       </c>
       <c r="P12">
-        <v>-336561058000</v>
+        <v>-132905634000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>1675332300000</v>
+        <v>1675330560000</v>
       </c>
       <c r="B13">
-        <v>5192000</v>
+        <v>2759200</v>
       </c>
       <c r="C13">
-        <v>2803500</v>
+        <v>1481600</v>
       </c>
       <c r="D13">
-        <v>54600</v>
+        <v>6300</v>
       </c>
       <c r="E13">
-        <v>84636459000</v>
+        <v>44591736000</v>
       </c>
       <c r="F13">
-        <v>46079226000</v>
+        <v>23008317000</v>
       </c>
       <c r="G13">
-        <v>631198000</v>
+        <v>234832000</v>
       </c>
       <c r="H13">
-        <v>8050100</v>
+        <v>4247100</v>
       </c>
       <c r="I13">
-        <v>131346883000</v>
+        <v>67834885000</v>
       </c>
       <c r="J13" t="str">
-        <v>2023-02-02T10:05:00.000Z</v>
+        <v>2023-02-02T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>2563439280000</v>
+        <v>1638632573000</v>
       </c>
       <c r="L13">
-        <v>155363700</v>
+        <v>97844500</v>
       </c>
       <c r="M13">
-        <v>-2388500</v>
+        <v>-1277600</v>
       </c>
       <c r="N13">
-        <v>-38557233000</v>
+        <v>-21583419000</v>
       </c>
       <c r="O13">
-        <v>-27276400</v>
+        <v>-11154900</v>
       </c>
       <c r="P13">
-        <v>-375118291000</v>
+        <v>-154489053000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>1675332600000</v>
+        <v>1675330680000</v>
       </c>
       <c r="B14">
-        <v>6243600</v>
+        <v>3979500</v>
       </c>
       <c r="C14">
-        <v>2783900</v>
+        <v>1201600</v>
       </c>
       <c r="D14">
-        <v>193000</v>
+        <v>2900</v>
       </c>
       <c r="E14">
-        <v>104926493000</v>
+        <v>62437072000</v>
       </c>
       <c r="F14">
-        <v>47872121000</v>
+        <v>19279333000</v>
       </c>
       <c r="G14">
-        <v>2235107000</v>
+        <v>85562000</v>
       </c>
       <c r="H14">
-        <v>9220500</v>
+        <v>5184000</v>
       </c>
       <c r="I14">
-        <v>155033721000</v>
+        <v>81801967000</v>
       </c>
       <c r="J14" t="str">
-        <v>2023-02-02T10:10:00.000Z</v>
+        <v>2023-02-02T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>2718473001000</v>
+        <v>1720434540000</v>
       </c>
       <c r="L14">
-        <v>164584200</v>
+        <v>103028500</v>
       </c>
       <c r="M14">
-        <v>-3459700</v>
+        <v>-2777900</v>
       </c>
       <c r="N14">
-        <v>-57054372000</v>
+        <v>-43157739000</v>
       </c>
       <c r="O14">
-        <v>-30736100</v>
+        <v>-13932800</v>
       </c>
       <c r="P14">
-        <v>-432172663000</v>
+        <v>-197646792000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>1675332900000</v>
+        <v>1675330800000</v>
       </c>
       <c r="B15">
-        <v>5582200</v>
+        <v>2745100</v>
       </c>
       <c r="C15">
-        <v>3384600</v>
+        <v>1125200</v>
       </c>
       <c r="D15">
-        <v>32800</v>
+        <v>13200</v>
       </c>
       <c r="E15">
-        <v>87101570000</v>
+        <v>47187782000</v>
       </c>
       <c r="F15">
-        <v>61751198000</v>
+        <v>17469382000</v>
       </c>
       <c r="G15">
-        <v>566131000</v>
+        <v>96333000</v>
       </c>
       <c r="H15">
-        <v>8999600</v>
+        <v>3883500</v>
       </c>
       <c r="I15">
-        <v>149418899000</v>
+        <v>64753497000</v>
       </c>
       <c r="J15" t="str">
-        <v>2023-02-02T10:15:00.000Z</v>
+        <v>2023-02-02T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>2867891900000</v>
+        <v>1785188037000</v>
       </c>
       <c r="L15">
-        <v>173583800</v>
+        <v>106912000</v>
       </c>
       <c r="M15">
-        <v>-2197600</v>
+        <v>-1619900</v>
       </c>
       <c r="N15">
-        <v>-25350372000</v>
+        <v>-29718400000</v>
       </c>
       <c r="O15">
-        <v>-32933700</v>
+        <v>-15552700</v>
       </c>
       <c r="P15">
-        <v>-457523035000</v>
+        <v>-227365192000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>1675333200000</v>
+        <v>1675330920000</v>
       </c>
       <c r="B16">
-        <v>17446800</v>
+        <v>2373100</v>
       </c>
       <c r="C16">
-        <v>2874400</v>
+        <v>1343600</v>
       </c>
       <c r="D16">
-        <v>148200</v>
+        <v>5300</v>
       </c>
       <c r="E16">
-        <v>270455236000</v>
+        <v>36639643000</v>
       </c>
       <c r="F16">
-        <v>49825620000</v>
+        <v>23852672000</v>
       </c>
       <c r="G16">
-        <v>2575405000</v>
+        <v>107265000</v>
       </c>
       <c r="H16">
-        <v>20469400</v>
+        <v>3722000</v>
       </c>
       <c r="I16">
-        <v>322856261000</v>
+        <v>60599580000</v>
       </c>
       <c r="J16" t="str">
-        <v>2023-02-02T10:20:00.000Z</v>
+        <v>2023-02-02T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>3190748161000</v>
+        <v>1845787617000</v>
       </c>
       <c r="L16">
-        <v>194053200</v>
+        <v>110634000</v>
       </c>
       <c r="M16">
-        <v>-14572400</v>
+        <v>-1029500</v>
       </c>
       <c r="N16">
-        <v>-220629616000</v>
+        <v>-12786971000</v>
       </c>
       <c r="O16">
-        <v>-47506100</v>
+        <v>-16582200</v>
       </c>
       <c r="P16">
-        <v>-678152651000</v>
+        <v>-240152163000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>1675333500000</v>
+        <v>1675331040000</v>
       </c>
       <c r="B17">
-        <v>18413900</v>
+        <v>2339100</v>
       </c>
       <c r="C17">
-        <v>4813400</v>
+        <v>1980600</v>
       </c>
       <c r="D17">
-        <v>145700</v>
+        <v>41800</v>
       </c>
       <c r="E17">
-        <v>278946442000</v>
+        <v>34435755000</v>
       </c>
       <c r="F17">
-        <v>78437920000</v>
+        <v>39830270000</v>
       </c>
       <c r="G17">
-        <v>1519024000</v>
+        <v>499780000</v>
       </c>
       <c r="H17">
-        <v>23373000</v>
+        <v>4361500</v>
       </c>
       <c r="I17">
-        <v>358903386000</v>
+        <v>74765805000</v>
       </c>
       <c r="J17" t="str">
-        <v>2023-02-02T10:25:00.000Z</v>
+        <v>2023-02-02T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>3549651547000</v>
+        <v>1920553422000</v>
       </c>
       <c r="L17">
-        <v>217426200</v>
+        <v>114995500</v>
       </c>
       <c r="M17">
-        <v>-13600500</v>
+        <v>-358500</v>
       </c>
       <c r="N17">
-        <v>-200508522000</v>
+        <v>5394515000</v>
       </c>
       <c r="O17">
-        <v>-61106600</v>
+        <v>-16940700</v>
       </c>
       <c r="P17">
-        <v>-878661173000</v>
+        <v>-234757648000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>1675333800000</v>
+        <v>1675331160000</v>
       </c>
       <c r="B18">
-        <v>3748900</v>
+        <v>1112400</v>
       </c>
       <c r="C18">
-        <v>7113800</v>
+        <v>1786500</v>
       </c>
       <c r="D18">
-        <v>74200</v>
+        <v>7400</v>
       </c>
       <c r="E18">
-        <v>62268740000</v>
+        <v>16706221000</v>
       </c>
       <c r="F18">
-        <v>122135904000</v>
+        <v>32454114000</v>
       </c>
       <c r="G18">
-        <v>2060156000</v>
+        <v>158871000</v>
       </c>
       <c r="H18">
-        <v>10936900</v>
+        <v>2906300</v>
       </c>
       <c r="I18">
-        <v>186464800000</v>
+        <v>49319206000</v>
       </c>
       <c r="J18" t="str">
-        <v>2023-02-02T10:30:00.000Z</v>
+        <v>2023-02-02T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>3736116347000</v>
+        <v>1969872628000</v>
       </c>
       <c r="L18">
-        <v>228363100</v>
+        <v>117901800</v>
       </c>
       <c r="M18">
-        <v>3364900</v>
+        <v>674100</v>
       </c>
       <c r="N18">
-        <v>59867164000</v>
+        <v>15747893000</v>
       </c>
       <c r="O18">
-        <v>-57741700</v>
+        <v>-16266600</v>
       </c>
       <c r="P18">
-        <v>-818794009000</v>
+        <v>-219009755000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>1675334100000</v>
+        <v>1675331280000</v>
       </c>
       <c r="B19">
-        <v>1886700</v>
+        <v>928900</v>
       </c>
       <c r="C19">
-        <v>7093400</v>
+        <v>1734900</v>
       </c>
       <c r="D19">
-        <v>10400</v>
+        <v>1400</v>
       </c>
       <c r="E19">
-        <v>30675036000</v>
+        <v>13313008000</v>
       </c>
       <c r="F19">
-        <v>121193324000</v>
+        <v>29283499000</v>
       </c>
       <c r="G19">
-        <v>250353000</v>
+        <v>13426000</v>
       </c>
       <c r="H19">
-        <v>8990500</v>
+        <v>2665200</v>
       </c>
       <c r="I19">
-        <v>152118713000</v>
+        <v>42609933000</v>
       </c>
       <c r="J19" t="str">
-        <v>2023-02-02T10:35:00.000Z</v>
+        <v>2023-02-02T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>3888235060000</v>
+        <v>2012482561000</v>
       </c>
       <c r="L19">
-        <v>237353600</v>
+        <v>120567000</v>
       </c>
       <c r="M19">
-        <v>5206700</v>
+        <v>806000</v>
       </c>
       <c r="N19">
-        <v>90518288000</v>
+        <v>15970491000</v>
       </c>
       <c r="O19">
-        <v>-52535000</v>
+        <v>-15460600</v>
       </c>
       <c r="P19">
-        <v>-728275721000</v>
+        <v>-203039264000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>1675334400000</v>
+        <v>1675331400000</v>
       </c>
       <c r="B20">
-        <v>1958200</v>
+        <v>2277300</v>
       </c>
       <c r="C20">
-        <v>6388200</v>
+        <v>997400</v>
       </c>
       <c r="D20">
-        <v>70100</v>
+        <v>2000</v>
       </c>
       <c r="E20">
-        <v>33340339000</v>
+        <v>37537114000</v>
       </c>
       <c r="F20">
-        <v>113218331000</v>
+        <v>16780944000</v>
       </c>
       <c r="G20">
-        <v>1582313000</v>
+        <v>53834000</v>
       </c>
       <c r="H20">
-        <v>8416500</v>
+        <v>3276700</v>
       </c>
       <c r="I20">
-        <v>148140983000</v>
+        <v>54371892000</v>
       </c>
       <c r="J20" t="str">
-        <v>2023-02-02T10:40:00.000Z</v>
+        <v>2023-02-02T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>4036376043000</v>
+        <v>2066854453000</v>
       </c>
       <c r="L20">
-        <v>245770100</v>
+        <v>123843700</v>
       </c>
       <c r="M20">
-        <v>4430000</v>
+        <v>-1279900</v>
       </c>
       <c r="N20">
-        <v>79877992000</v>
+        <v>-20756170000</v>
       </c>
       <c r="O20">
-        <v>-48105000</v>
+        <v>-16740500</v>
       </c>
       <c r="P20">
-        <v>-648397729000</v>
+        <v>-223795434000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>1675334700000</v>
+        <v>1675331520000</v>
       </c>
       <c r="B21">
-        <v>2043700</v>
+        <v>3720200</v>
       </c>
       <c r="C21">
-        <v>6423400</v>
+        <v>1028600</v>
       </c>
       <c r="D21">
-        <v>102900</v>
+        <v>4100</v>
       </c>
       <c r="E21">
-        <v>34972007000</v>
+        <v>64346796000</v>
       </c>
       <c r="F21">
-        <v>115425104000</v>
+        <v>15627526000</v>
       </c>
       <c r="G21">
-        <v>911641000</v>
+        <v>125898000.00000001</v>
       </c>
       <c r="H21">
-        <v>8570000</v>
+        <v>4752900</v>
       </c>
       <c r="I21">
-        <v>151308752000</v>
+        <v>80100220000</v>
       </c>
       <c r="J21" t="str">
-        <v>2023-02-02T10:45:00.000Z</v>
+        <v>2023-02-02T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>4187684795000</v>
+        <v>2146954673000</v>
       </c>
       <c r="L21">
-        <v>254340100</v>
+        <v>128596600</v>
       </c>
       <c r="M21">
-        <v>4379700</v>
+        <v>-2691600</v>
       </c>
       <c r="N21">
-        <v>80453097000</v>
+        <v>-48719270000</v>
       </c>
       <c r="O21">
-        <v>-43725300</v>
+        <v>-19432100</v>
       </c>
       <c r="P21">
-        <v>-567944632000</v>
+        <v>-272514704000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>1675335000000</v>
+        <v>1675331640000</v>
       </c>
       <c r="B22">
-        <v>2034200</v>
+        <v>2501300</v>
       </c>
       <c r="C22">
-        <v>4357700</v>
+        <v>655400</v>
       </c>
       <c r="D22">
-        <v>35100</v>
+        <v>400</v>
       </c>
       <c r="E22">
-        <v>35442719000</v>
+        <v>33777424000</v>
       </c>
       <c r="F22">
-        <v>83548010000</v>
+        <v>11417694000</v>
       </c>
       <c r="G22">
-        <v>656033000</v>
+        <v>29160000.000000004</v>
       </c>
       <c r="H22">
-        <v>6427000</v>
+        <v>3157100</v>
       </c>
       <c r="I22">
-        <v>119646762000</v>
+        <v>45224278000</v>
       </c>
       <c r="J22" t="str">
-        <v>2023-02-02T10:50:00.000Z</v>
+        <v>2023-02-02T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>4307331557000</v>
+        <v>2192178951000</v>
       </c>
       <c r="L22">
-        <v>260767100</v>
+        <v>131753700</v>
       </c>
       <c r="M22">
-        <v>2323500</v>
+        <v>-1845900</v>
       </c>
       <c r="N22">
-        <v>48105291000</v>
+        <v>-22359730000</v>
       </c>
       <c r="O22">
-        <v>-41401800</v>
+        <v>-21278000</v>
       </c>
       <c r="P22">
-        <v>-519839341000</v>
+        <v>-294874434000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>1675335300000</v>
+        <v>1675331760000</v>
       </c>
       <c r="B23">
-        <v>3600100</v>
+        <v>3006500</v>
       </c>
       <c r="C23">
-        <v>2830800</v>
+        <v>1220600</v>
       </c>
       <c r="D23">
-        <v>77700</v>
+        <v>22200</v>
       </c>
       <c r="E23">
-        <v>56573848000</v>
+        <v>41849814000</v>
       </c>
       <c r="F23">
-        <v>50216044000</v>
+        <v>20043104000</v>
       </c>
       <c r="G23">
-        <v>999627000</v>
+        <v>307794000</v>
       </c>
       <c r="H23">
-        <v>6508600</v>
+        <v>4249300</v>
       </c>
       <c r="I23">
-        <v>107789519000</v>
+        <v>62200712000</v>
       </c>
       <c r="J23" t="str">
-        <v>2023-02-02T10:55:00.000Z</v>
+        <v>2023-02-02T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>4415121076000</v>
+        <v>2254379663000</v>
       </c>
       <c r="L23">
-        <v>267275700</v>
+        <v>136003000</v>
       </c>
       <c r="M23">
-        <v>-769300</v>
+        <v>-1785900</v>
       </c>
       <c r="N23">
-        <v>-6357804000</v>
+        <v>-21806710000</v>
       </c>
       <c r="O23">
-        <v>-42171100</v>
+        <v>-23063900</v>
       </c>
       <c r="P23">
-        <v>-526197145000</v>
+        <v>-316681144000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>1675335600000</v>
+        <v>1675331880000</v>
       </c>
       <c r="B24">
-        <v>3384900</v>
+        <v>2061900</v>
       </c>
       <c r="C24">
-        <v>1596000</v>
+        <v>1579800</v>
       </c>
       <c r="D24">
-        <v>32300</v>
+        <v>39400</v>
       </c>
       <c r="E24">
-        <v>53684559000</v>
+        <v>28229687000</v>
       </c>
       <c r="F24">
-        <v>30759734000</v>
+        <v>28762900000</v>
       </c>
       <c r="G24">
-        <v>592140000</v>
+        <v>912775000</v>
       </c>
       <c r="H24">
-        <v>5013200</v>
+        <v>3681100</v>
       </c>
       <c r="I24">
-        <v>85036433000</v>
+        <v>57905362000</v>
       </c>
       <c r="J24" t="str">
-        <v>2023-02-02T11:00:00.000Z</v>
+        <v>2023-02-02T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>4500157509000</v>
+        <v>2312285025000</v>
       </c>
       <c r="L24">
-        <v>272288900</v>
+        <v>139684100</v>
       </c>
       <c r="M24">
-        <v>-1788900</v>
+        <v>-482100</v>
       </c>
       <c r="N24">
-        <v>-22924825000</v>
+        <v>533213000</v>
       </c>
       <c r="O24">
-        <v>-43960000</v>
+        <v>-23546000</v>
       </c>
       <c r="P24">
-        <v>-549121970000</v>
+        <v>-316147931000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>1675335900000</v>
+        <v>1675332000000</v>
       </c>
       <c r="B25">
-        <v>2746100</v>
+        <v>1073900</v>
       </c>
       <c r="C25">
-        <v>1676800</v>
+        <v>1296000</v>
       </c>
       <c r="D25">
-        <v>2700</v>
+        <v>2600</v>
       </c>
       <c r="E25">
-        <v>44929161000</v>
+        <v>19649256000</v>
       </c>
       <c r="F25">
-        <v>32186479000</v>
+        <v>20811603000</v>
       </c>
       <c r="G25">
-        <v>68332000</v>
+        <v>32471000</v>
       </c>
       <c r="H25">
-        <v>4425600</v>
+        <v>2372500</v>
       </c>
       <c r="I25">
-        <v>77183972000</v>
+        <v>40493330000</v>
       </c>
       <c r="J25" t="str">
-        <v>2023-02-02T11:05:00.000Z</v>
+        <v>2023-02-02T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>4577341481000</v>
+        <v>2352778355000</v>
       </c>
       <c r="L25">
-        <v>276714500</v>
+        <v>142056600</v>
       </c>
       <c r="M25">
-        <v>-1069300</v>
+        <v>222100</v>
       </c>
       <c r="N25">
-        <v>-12742682000</v>
+        <v>1162347000</v>
       </c>
       <c r="O25">
-        <v>-45029300</v>
+        <v>-23323900</v>
       </c>
       <c r="P25">
-        <v>-561864652000</v>
+        <v>-314985584000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>1675336200000</v>
+        <v>1675332120000</v>
       </c>
       <c r="B26">
-        <v>1699000</v>
+        <v>2066200</v>
       </c>
       <c r="C26">
-        <v>2529700</v>
+        <v>1244500</v>
       </c>
       <c r="D26">
-        <v>9600</v>
+        <v>75400</v>
       </c>
       <c r="E26">
-        <v>29598784000</v>
+        <v>32290452000</v>
       </c>
       <c r="F26">
-        <v>54088287000</v>
+        <v>19623892000</v>
       </c>
       <c r="G26">
-        <v>201395000</v>
+        <v>1031626000</v>
       </c>
       <c r="H26">
-        <v>4238300</v>
+        <v>3386100</v>
       </c>
       <c r="I26">
-        <v>83888466000</v>
+        <v>52945970000</v>
       </c>
       <c r="J26" t="str">
-        <v>2023-02-02T11:10:00.000Z</v>
+        <v>2023-02-02T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>4661229947000</v>
+        <v>2405724325000</v>
       </c>
       <c r="L26">
-        <v>280952800</v>
+        <v>145442700</v>
       </c>
       <c r="M26">
-        <v>830700</v>
+        <v>-821700</v>
       </c>
       <c r="N26">
-        <v>24489503000</v>
+        <v>-12666560000</v>
       </c>
       <c r="O26">
-        <v>-44198600</v>
+        <v>-24145600</v>
       </c>
       <c r="P26">
-        <v>-537375149000</v>
+        <v>-327652144000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>1675336500000</v>
+        <v>1675332240000</v>
       </c>
       <c r="B27">
-        <v>1330400</v>
+        <v>2229200</v>
       </c>
       <c r="C27">
-        <v>4313500</v>
+        <v>1004500</v>
       </c>
       <c r="D27">
-        <v>56800</v>
+        <v>6100</v>
       </c>
       <c r="E27">
-        <v>23884045000</v>
+        <v>33249269000</v>
       </c>
       <c r="F27">
-        <v>94870662000</v>
+        <v>15414627000</v>
       </c>
       <c r="G27">
-        <v>951558000</v>
+        <v>141734000</v>
       </c>
       <c r="H27">
-        <v>5700700</v>
+        <v>3239800</v>
       </c>
       <c r="I27">
-        <v>119706265000</v>
+        <v>48805630000</v>
       </c>
       <c r="J27" t="str">
-        <v>2023-02-02T11:15:00.000Z</v>
+        <v>2023-02-02T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>4780936212000</v>
+        <v>2454529955000</v>
       </c>
       <c r="L27">
-        <v>286653500</v>
+        <v>148682500</v>
       </c>
       <c r="M27">
-        <v>2983100</v>
+        <v>-1224700</v>
       </c>
       <c r="N27">
-        <v>70986617000</v>
+        <v>-17834642000</v>
       </c>
       <c r="O27">
-        <v>-41215500</v>
+        <v>-25370300</v>
       </c>
       <c r="P27">
-        <v>-466388532000</v>
+        <v>-345486786000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>1675336800000</v>
+        <v>1675332360000</v>
       </c>
       <c r="B28">
-        <v>1122300</v>
+        <v>1704400</v>
       </c>
       <c r="C28">
-        <v>2531200</v>
+        <v>1069200</v>
       </c>
       <c r="D28">
-        <v>9100</v>
+        <v>48200</v>
       </c>
       <c r="E28">
-        <v>20020748000</v>
+        <v>28223265000</v>
       </c>
       <c r="F28">
-        <v>47969649000</v>
+        <v>17295424000</v>
       </c>
       <c r="G28">
-        <v>131030000</v>
+        <v>473380000</v>
       </c>
       <c r="H28">
-        <v>3662600</v>
+        <v>2821800</v>
       </c>
       <c r="I28">
-        <v>68121427000</v>
+        <v>45992069000</v>
       </c>
       <c r="J28" t="str">
-        <v>2023-02-02T11:20:00.000Z</v>
+        <v>2023-02-02T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>4849057639000</v>
+        <v>2500522024000</v>
       </c>
       <c r="L28">
-        <v>290316100</v>
+        <v>151504300</v>
       </c>
       <c r="M28">
-        <v>1408900</v>
+        <v>-635200</v>
       </c>
       <c r="N28">
-        <v>27948901000</v>
+        <v>-10927841000</v>
       </c>
       <c r="O28">
-        <v>-39806600</v>
+        <v>-26005500</v>
       </c>
       <c r="P28">
-        <v>-438439631000</v>
+        <v>-356414627000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>1675337100000</v>
+        <v>1675332480000</v>
       </c>
       <c r="B29">
-        <v>2755400</v>
+        <v>2563900</v>
       </c>
       <c r="C29">
-        <v>2130200</v>
+        <v>1293000</v>
       </c>
       <c r="D29">
-        <v>22300</v>
+        <v>2500</v>
       </c>
       <c r="E29">
-        <v>44671432000</v>
+        <v>40788010000</v>
       </c>
       <c r="F29">
-        <v>38631344000</v>
+        <v>22084346000</v>
       </c>
       <c r="G29">
-        <v>669152000</v>
+        <v>44900000</v>
       </c>
       <c r="H29">
-        <v>4907900</v>
+        <v>3859400</v>
       </c>
       <c r="I29">
-        <v>83971928000</v>
+        <v>62917256000</v>
       </c>
       <c r="J29" t="str">
-        <v>2023-02-02T11:25:00.000Z</v>
+        <v>2023-02-02T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>4933029567000</v>
+        <v>2563439280000</v>
       </c>
       <c r="L29">
-        <v>295224000</v>
+        <v>155363700</v>
       </c>
       <c r="M29">
-        <v>-625200</v>
+        <v>-1270900</v>
       </c>
       <c r="N29">
-        <v>-6040088000</v>
+        <v>-18703664000</v>
       </c>
       <c r="O29">
-        <v>-40431800</v>
+        <v>-27276400</v>
       </c>
       <c r="P29">
-        <v>-444479719000</v>
+        <v>-375118291000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>1675342800000</v>
+        <v>1675332600000</v>
       </c>
       <c r="B30">
-        <v>7727100</v>
+        <v>3283000</v>
       </c>
       <c r="C30">
-        <v>4200200</v>
+        <v>979700</v>
       </c>
       <c r="D30">
-        <v>368700</v>
+        <v>89000</v>
       </c>
       <c r="E30">
-        <v>133977362000</v>
+        <v>51005600000</v>
       </c>
       <c r="F30">
-        <v>83936409000</v>
+        <v>16223996000</v>
       </c>
       <c r="G30">
-        <v>4880375000</v>
+        <v>823865000</v>
       </c>
       <c r="H30">
-        <v>12296000</v>
+        <v>4351700</v>
       </c>
       <c r="I30">
-        <v>222794146000</v>
+        <v>68053461000</v>
       </c>
       <c r="J30" t="str">
-        <v>2023-02-02T13:00:00.000Z</v>
+        <v>2023-02-02T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>5155823713000</v>
+        <v>2631492741000</v>
       </c>
       <c r="L30">
-        <v>307520000</v>
+        <v>159715400</v>
       </c>
       <c r="M30">
-        <v>-3526900</v>
+        <v>-2303300</v>
       </c>
       <c r="N30">
-        <v>-50040953000</v>
+        <v>-34781604000</v>
       </c>
       <c r="O30">
-        <v>-43958700</v>
+        <v>-29579700</v>
       </c>
       <c r="P30">
-        <v>-494520672000</v>
+        <v>-409899895000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>1675343100000</v>
+        <v>1675332720000</v>
       </c>
       <c r="B31">
-        <v>6660000</v>
+        <v>2076300</v>
       </c>
       <c r="C31">
-        <v>3130000</v>
+        <v>1231400</v>
       </c>
       <c r="D31">
-        <v>44300</v>
+        <v>95300</v>
       </c>
       <c r="E31">
-        <v>104064314000</v>
+        <v>33336457000</v>
       </c>
       <c r="F31">
-        <v>64897222000</v>
+        <v>21854901000</v>
       </c>
       <c r="G31">
-        <v>1008416000</v>
+        <v>1382261000</v>
       </c>
       <c r="H31">
-        <v>9834300</v>
+        <v>3403000</v>
       </c>
       <c r="I31">
-        <v>169969952000</v>
+        <v>56573619000</v>
       </c>
       <c r="J31" t="str">
-        <v>2023-02-02T13:05:00.000Z</v>
+        <v>2023-02-02T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>5325793665000</v>
+        <v>2688066360000</v>
       </c>
       <c r="L31">
-        <v>317354300</v>
+        <v>163118400</v>
       </c>
       <c r="M31">
-        <v>-3530000</v>
+        <v>-844900</v>
       </c>
       <c r="N31">
-        <v>-39167092000</v>
+        <v>-11481556000</v>
       </c>
       <c r="O31">
-        <v>-47488700</v>
+        <v>-30424600</v>
       </c>
       <c r="P31">
-        <v>-533687764000</v>
+        <v>-421381451000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>1675343400000</v>
+        <v>1675332840000</v>
       </c>
       <c r="B32">
-        <v>5410100</v>
+        <v>2092000</v>
       </c>
       <c r="C32">
-        <v>3599700</v>
+        <v>1046700</v>
       </c>
       <c r="D32">
-        <v>71900</v>
+        <v>22900</v>
       </c>
       <c r="E32">
-        <v>96570005000</v>
+        <v>42019348000</v>
       </c>
       <c r="F32">
-        <v>69910564000</v>
+        <v>20461341000</v>
       </c>
       <c r="G32">
-        <v>1629844000</v>
+        <v>175690000</v>
       </c>
       <c r="H32">
-        <v>9081700</v>
+        <v>3161600</v>
       </c>
       <c r="I32">
-        <v>168110413000</v>
+        <v>62656379000</v>
       </c>
       <c r="J32" t="str">
-        <v>2023-02-02T13:10:00.000Z</v>
+        <v>2023-02-02T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>5493904078000</v>
+        <v>2750722739000</v>
       </c>
       <c r="L32">
-        <v>326436000</v>
+        <v>166280000</v>
       </c>
       <c r="M32">
-        <v>-1810400</v>
+        <v>-1045300</v>
       </c>
       <c r="N32">
-        <v>-26659441000</v>
+        <v>-21558007000</v>
       </c>
       <c r="O32">
-        <v>-49299100</v>
+        <v>-31469900</v>
       </c>
       <c r="P32">
-        <v>-560347205000</v>
+        <v>-442939458000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>1675343700000</v>
+        <v>1675332960000</v>
       </c>
       <c r="B33">
-        <v>15283900</v>
+        <v>2318500</v>
       </c>
       <c r="C33">
-        <v>2599200</v>
+        <v>1638400</v>
       </c>
       <c r="D33">
-        <v>49600</v>
+        <v>15100</v>
       </c>
       <c r="E33">
-        <v>253142188000</v>
+        <v>34188747000</v>
       </c>
       <c r="F33">
-        <v>45721218000</v>
+        <v>27978011000</v>
       </c>
       <c r="G33">
-        <v>864476000</v>
+        <v>324544000</v>
       </c>
       <c r="H33">
-        <v>17932700</v>
+        <v>3972000</v>
       </c>
       <c r="I33">
-        <v>299727882000</v>
+        <v>62491302000</v>
       </c>
       <c r="J33" t="str">
-        <v>2023-02-02T13:15:00.000Z</v>
+        <v>2023-02-02T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>5793631960000</v>
+        <v>2813214041000</v>
       </c>
       <c r="L33">
-        <v>344368700</v>
+        <v>170252000</v>
       </c>
       <c r="M33">
-        <v>-12684700</v>
+        <v>-680100</v>
       </c>
       <c r="N33">
-        <v>-207420970000</v>
+        <v>-6210736000</v>
       </c>
       <c r="O33">
-        <v>-61983800</v>
+        <v>-32150000</v>
       </c>
       <c r="P33">
-        <v>-767768175000</v>
+        <v>-449150194000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>1675344000000</v>
+        <v>1675333080000</v>
       </c>
       <c r="B34">
-        <v>4795400</v>
+        <v>2056000</v>
       </c>
       <c r="C34">
-        <v>5124000</v>
+        <v>1272300</v>
       </c>
       <c r="D34">
-        <v>123700</v>
+        <v>3500</v>
       </c>
       <c r="E34">
-        <v>76624348000</v>
+        <v>31477911000</v>
       </c>
       <c r="F34">
-        <v>89516202000</v>
+        <v>23105070000</v>
       </c>
       <c r="G34">
-        <v>2052506000</v>
+        <v>94878000</v>
       </c>
       <c r="H34">
-        <v>10043100</v>
+        <v>3331800</v>
       </c>
       <c r="I34">
-        <v>168193056000</v>
+        <v>54677859000</v>
       </c>
       <c r="J34" t="str">
-        <v>2023-02-02T13:20:00.000Z</v>
+        <v>2023-02-02T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>5961825016000</v>
+        <v>2867891900000</v>
       </c>
       <c r="L34">
-        <v>354411800</v>
+        <v>173583800</v>
       </c>
       <c r="M34">
-        <v>328600</v>
+        <v>-783700</v>
       </c>
       <c r="N34">
-        <v>12891854000</v>
+        <v>-8372841000</v>
       </c>
       <c r="O34">
-        <v>-61655200</v>
+        <v>-32933700</v>
       </c>
       <c r="P34">
-        <v>-754876321000</v>
+        <v>-457523035000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>1675344300000</v>
+        <v>1675333200000</v>
       </c>
       <c r="B35">
-        <v>3012500</v>
+        <v>4210100</v>
       </c>
       <c r="C35">
-        <v>4020200</v>
+        <v>941800</v>
       </c>
       <c r="D35">
-        <v>44800</v>
+        <v>30900</v>
       </c>
       <c r="E35">
-        <v>59630375000</v>
+        <v>63652627000</v>
       </c>
       <c r="F35">
-        <v>77153471000</v>
+        <v>17682962000</v>
       </c>
       <c r="G35">
-        <v>812330000</v>
+        <v>321950000</v>
       </c>
       <c r="H35">
-        <v>7077500</v>
+        <v>5182800</v>
       </c>
       <c r="I35">
-        <v>137596176000</v>
+        <v>81657539000</v>
       </c>
       <c r="J35" t="str">
-        <v>2023-02-02T13:25:00.000Z</v>
+        <v>2023-02-02T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>6099421192000</v>
+        <v>2949549439000</v>
       </c>
       <c r="L35">
-        <v>361489300</v>
+        <v>178766600</v>
       </c>
       <c r="M35">
-        <v>1007700</v>
+        <v>-3268300</v>
       </c>
       <c r="N35">
-        <v>17523096000</v>
+        <v>-45969665000</v>
       </c>
       <c r="O35">
-        <v>-60647500</v>
+        <v>-36202000</v>
       </c>
       <c r="P35">
-        <v>-737353225000</v>
+        <v>-503492700000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>1675344600000</v>
+        <v>1675333320000</v>
       </c>
       <c r="B36">
-        <v>2634300</v>
+        <v>7520200</v>
       </c>
       <c r="C36">
-        <v>8422400</v>
+        <v>870200</v>
       </c>
       <c r="D36">
-        <v>32900</v>
+        <v>55300</v>
       </c>
       <c r="E36">
-        <v>44351109000</v>
+        <v>122935834000</v>
       </c>
       <c r="F36">
-        <v>166784405000</v>
+        <v>13543749000</v>
       </c>
       <c r="G36">
-        <v>787972000</v>
+        <v>988701000</v>
       </c>
       <c r="H36">
-        <v>11089600</v>
+        <v>8445700</v>
       </c>
       <c r="I36">
-        <v>211923486000</v>
+        <v>137468284000</v>
       </c>
       <c r="J36" t="str">
-        <v>2023-02-02T13:30:00.000Z</v>
+        <v>2023-02-02T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>6311344678000</v>
+        <v>3087017723000</v>
       </c>
       <c r="L36">
-        <v>372578900</v>
+        <v>187212300</v>
       </c>
       <c r="M36">
-        <v>5788100</v>
+        <v>-6650000</v>
       </c>
       <c r="N36">
-        <v>122433296000</v>
+        <v>-109392085000</v>
       </c>
       <c r="O36">
-        <v>-54859400</v>
+        <v>-42852000</v>
       </c>
       <c r="P36">
-        <v>-614919929000</v>
+        <v>-612884785000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>1675344900000</v>
+        <v>1675333440000</v>
       </c>
       <c r="B37">
-        <v>4878300</v>
+        <v>10564100</v>
       </c>
       <c r="C37">
-        <v>5235300</v>
+        <v>1685100</v>
       </c>
       <c r="D37">
-        <v>80900</v>
+        <v>70700</v>
       </c>
       <c r="E37">
-        <v>81007116000</v>
+        <v>151657665000</v>
       </c>
       <c r="F37">
-        <v>104090465000</v>
+        <v>27975623000</v>
       </c>
       <c r="G37">
-        <v>719101000</v>
+        <v>1383683000</v>
       </c>
       <c r="H37">
-        <v>10194500</v>
+        <v>12319900</v>
       </c>
       <c r="I37">
-        <v>185816682000</v>
+        <v>181016971000</v>
       </c>
       <c r="J37" t="str">
-        <v>2023-02-02T13:35:00.000Z</v>
+        <v>2023-02-02T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>6497161360000</v>
+        <v>3268034694000</v>
       </c>
       <c r="L37">
-        <v>382773400</v>
+        <v>199532200</v>
       </c>
       <c r="M37">
-        <v>357000</v>
+        <v>-8879000</v>
       </c>
       <c r="N37">
-        <v>23083349000</v>
+        <v>-123682042000</v>
       </c>
       <c r="O37">
-        <v>-54502400</v>
+        <v>-51731000</v>
       </c>
       <c r="P37">
-        <v>-591836580000</v>
+        <v>-736566827000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>1675345200000</v>
+        <v>1675333560000</v>
       </c>
       <c r="B38">
-        <v>10052200</v>
+        <v>9029000</v>
       </c>
       <c r="C38">
-        <v>2950000</v>
+        <v>1569100</v>
       </c>
       <c r="D38">
-        <v>50700</v>
+        <v>85400</v>
       </c>
       <c r="E38">
-        <v>181360722000</v>
+        <v>141039546000</v>
       </c>
       <c r="F38">
-        <v>56540501000</v>
+        <v>23367218000</v>
       </c>
       <c r="G38">
-        <v>990163000</v>
+        <v>704877000</v>
       </c>
       <c r="H38">
-        <v>13052900</v>
+        <v>10683500</v>
       </c>
       <c r="I38">
-        <v>238891386000</v>
+        <v>165111641000</v>
       </c>
       <c r="J38" t="str">
-        <v>2023-02-02T13:40:00.000Z</v>
+        <v>2023-02-02T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>6736052746000</v>
+        <v>3433146335000</v>
       </c>
       <c r="L38">
-        <v>395826300</v>
+        <v>210215700</v>
       </c>
       <c r="M38">
-        <v>-7102200</v>
+        <v>-7459900</v>
       </c>
       <c r="N38">
-        <v>-124820221000</v>
+        <v>-117672328000</v>
       </c>
       <c r="O38">
-        <v>-61604600</v>
+        <v>-59190900</v>
       </c>
       <c r="P38">
-        <v>-716656801000</v>
+        <v>-854239155000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>1675345500000</v>
+        <v>1675333680000</v>
       </c>
       <c r="B39">
-        <v>6979900</v>
+        <v>4537300</v>
       </c>
       <c r="C39">
-        <v>4215200</v>
+        <v>2621600</v>
       </c>
       <c r="D39">
-        <v>61400</v>
+        <v>51600</v>
       </c>
       <c r="E39">
-        <v>119387771000</v>
+        <v>70116006000</v>
       </c>
       <c r="F39">
-        <v>83708061000</v>
+        <v>45693988000</v>
       </c>
       <c r="G39">
-        <v>638583000</v>
+        <v>695218000</v>
       </c>
       <c r="H39">
-        <v>11256500</v>
+        <v>7210500</v>
       </c>
       <c r="I39">
-        <v>203734415000</v>
+        <v>116505212000</v>
       </c>
       <c r="J39" t="str">
-        <v>2023-02-02T13:45:00.000Z</v>
+        <v>2023-02-02T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>6939787161000</v>
+        <v>3549651547000</v>
       </c>
       <c r="L39">
-        <v>407082800</v>
+        <v>217426200</v>
       </c>
       <c r="M39">
-        <v>-2764700</v>
+        <v>-1915700</v>
       </c>
       <c r="N39">
-        <v>-35679710000</v>
+        <v>-24422018000</v>
       </c>
       <c r="O39">
-        <v>-64369300</v>
+        <v>-61106600</v>
       </c>
       <c r="P39">
-        <v>-752336511000</v>
+        <v>-878661173000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>1675345800000</v>
+        <v>1675333800000</v>
       </c>
       <c r="B40">
-        <v>2585100</v>
+        <v>1824700</v>
       </c>
       <c r="C40">
-        <v>10532300</v>
+        <v>2490700</v>
       </c>
       <c r="D40">
-        <v>31100</v>
+        <v>33400</v>
       </c>
       <c r="E40">
-        <v>48025152000</v>
+        <v>29660083000</v>
       </c>
       <c r="F40">
-        <v>219718374000</v>
+        <v>41748703000</v>
       </c>
       <c r="G40">
-        <v>638316000</v>
+        <v>1474768000</v>
       </c>
       <c r="H40">
-        <v>13148500</v>
+        <v>4348800</v>
       </c>
       <c r="I40">
-        <v>268381842000</v>
+        <v>72883554000</v>
       </c>
       <c r="J40" t="str">
-        <v>2023-02-02T13:50:00.000Z</v>
+        <v>2023-02-02T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>7208169003000</v>
+        <v>3622535101000</v>
       </c>
       <c r="L40">
-        <v>420231300</v>
+        <v>221775000</v>
       </c>
       <c r="M40">
-        <v>7947200</v>
+        <v>666000</v>
       </c>
       <c r="N40">
-        <v>171693222000</v>
+        <v>12088620000</v>
       </c>
       <c r="O40">
-        <v>-56422100</v>
+        <v>-60440600</v>
       </c>
       <c r="P40">
-        <v>-580643289000</v>
+        <v>-866572553000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>1675346100000</v>
+        <v>1675333920000</v>
       </c>
       <c r="B41">
-        <v>6318200</v>
+        <v>1278100</v>
       </c>
       <c r="C41">
-        <v>13876500</v>
+        <v>3042900</v>
       </c>
       <c r="D41">
-        <v>76600</v>
+        <v>40100</v>
       </c>
       <c r="E41">
-        <v>121641543000</v>
+        <v>21606101000</v>
       </c>
       <c r="F41">
-        <v>243590990000</v>
+        <v>52859906000</v>
       </c>
       <c r="G41">
-        <v>2381074000</v>
+        <v>577460000</v>
       </c>
       <c r="H41">
-        <v>20271300</v>
+        <v>4361100</v>
       </c>
       <c r="I41">
-        <v>367613607000</v>
+        <v>75043467000</v>
       </c>
       <c r="J41" t="str">
-        <v>2023-02-02T13:55:00.000Z</v>
+        <v>2023-02-02T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>7575782610000</v>
+        <v>3697578568000</v>
       </c>
       <c r="L41">
-        <v>440502600</v>
+        <v>226136100</v>
       </c>
       <c r="M41">
-        <v>7558300</v>
+        <v>1764800</v>
       </c>
       <c r="N41">
-        <v>121949447000</v>
+        <v>31253805000</v>
       </c>
       <c r="O41">
-        <v>-48863800</v>
+        <v>-58675800</v>
       </c>
       <c r="P41">
-        <v>-458693842000</v>
+        <v>-835318748000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>1675346400000</v>
+        <v>1675334040000</v>
       </c>
       <c r="B42">
-        <v>5888700</v>
+        <v>954700</v>
       </c>
       <c r="C42">
-        <v>4299700</v>
+        <v>3144500</v>
       </c>
       <c r="D42">
-        <v>106300</v>
+        <v>1300</v>
       </c>
       <c r="E42">
-        <v>106117838000</v>
+        <v>16649372000</v>
       </c>
       <c r="F42">
-        <v>85086900000</v>
+        <v>52283260000</v>
       </c>
       <c r="G42">
-        <v>1387273000</v>
+        <v>41168000</v>
       </c>
       <c r="H42">
-        <v>10294700</v>
+        <v>4100500</v>
       </c>
       <c r="I42">
-        <v>192592011000</v>
+        <v>68973800000</v>
       </c>
       <c r="J42" t="str">
-        <v>2023-02-02T14:00:00.000Z</v>
+        <v>2023-02-02T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>7768374621000</v>
+        <v>3766552368000</v>
       </c>
       <c r="L42">
-        <v>450797300</v>
+        <v>230236600</v>
       </c>
       <c r="M42">
-        <v>-1589000</v>
+        <v>2189800</v>
       </c>
       <c r="N42">
-        <v>-21030938000</v>
+        <v>35633888000</v>
       </c>
       <c r="O42">
-        <v>-50452800</v>
+        <v>-56486000</v>
       </c>
       <c r="P42">
-        <v>-479724780000</v>
+        <v>-799684860000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>1675346700000</v>
+        <v>1675334160000</v>
       </c>
       <c r="B43">
-        <v>7249300</v>
+        <v>767800</v>
       </c>
       <c r="C43">
-        <v>4077200</v>
+        <v>2423500</v>
       </c>
       <c r="D43">
-        <v>152300</v>
+        <v>1100</v>
       </c>
       <c r="E43">
-        <v>152298686000</v>
+        <v>13019626000</v>
       </c>
       <c r="F43">
-        <v>82654795000</v>
+        <v>38888139000</v>
       </c>
       <c r="G43">
-        <v>2716981000</v>
+        <v>31545000</v>
       </c>
       <c r="H43">
-        <v>11478800</v>
+        <v>3192400</v>
       </c>
       <c r="I43">
-        <v>237670462000</v>
+        <v>51939310000</v>
       </c>
       <c r="J43" t="str">
-        <v>2023-02-02T14:05:00.000Z</v>
+        <v>2023-02-02T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>8006045083000</v>
+        <v>3818491678000</v>
       </c>
       <c r="L43">
-        <v>462276100</v>
+        <v>233429000</v>
       </c>
       <c r="M43">
-        <v>-3172100</v>
+        <v>1655700</v>
       </c>
       <c r="N43">
-        <v>-69643891000</v>
+        <v>25868513000</v>
       </c>
       <c r="O43">
-        <v>-53624900</v>
+        <v>-54830300</v>
       </c>
       <c r="P43">
-        <v>-549368671000</v>
+        <v>-773816347000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>1675347000000</v>
+        <v>1675334280000</v>
       </c>
       <c r="B44">
-        <v>8697600</v>
+        <v>810300</v>
       </c>
       <c r="C44">
-        <v>2858000</v>
+        <v>3105600</v>
       </c>
       <c r="D44">
-        <v>81500</v>
+        <v>8700</v>
       </c>
       <c r="E44">
-        <v>151485693000</v>
+        <v>12008594000</v>
       </c>
       <c r="F44">
-        <v>50376599000</v>
+        <v>57549220000</v>
       </c>
       <c r="G44">
-        <v>1089182000</v>
+        <v>185568000</v>
       </c>
       <c r="H44">
-        <v>11637100</v>
+        <v>3924600</v>
       </c>
       <c r="I44">
-        <v>202951474000</v>
+        <v>69743382000</v>
       </c>
       <c r="J44" t="str">
-        <v>2023-02-02T14:10:00.000Z</v>
+        <v>2023-02-02T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>8208996557000</v>
+        <v>3888235060000</v>
       </c>
       <c r="L44">
-        <v>473913200</v>
+        <v>237353600</v>
       </c>
       <c r="M44">
-        <v>-5839600</v>
+        <v>2295300</v>
       </c>
       <c r="N44">
-        <v>-101109094000</v>
+        <v>45540626000</v>
       </c>
       <c r="O44">
-        <v>-59464500</v>
+        <v>-52535000</v>
       </c>
       <c r="P44">
-        <v>-650477765000</v>
+        <v>-728275721000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>1675347300000</v>
+        <v>1675334400000</v>
       </c>
       <c r="B45">
-        <v>27128000</v>
+        <v>1025700</v>
       </c>
       <c r="C45">
-        <v>5380900</v>
+        <v>3246100</v>
       </c>
       <c r="D45">
-        <v>349600</v>
+        <v>56700</v>
       </c>
       <c r="E45">
-        <v>438403543000</v>
+        <v>17603645000</v>
       </c>
       <c r="F45">
-        <v>100973387000</v>
+        <v>54984657000</v>
       </c>
       <c r="G45">
-        <v>4986651000</v>
+        <v>1185768000</v>
       </c>
       <c r="H45">
-        <v>32858500</v>
+        <v>4328500</v>
       </c>
       <c r="I45">
-        <v>544363581000</v>
+        <v>73774070000</v>
       </c>
       <c r="J45" t="str">
-        <v>2023-02-02T14:15:00.000Z</v>
+        <v>2023-02-02T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>8753360138000</v>
+        <v>3962009130000</v>
       </c>
       <c r="L45">
-        <v>506771700</v>
+        <v>241682100</v>
       </c>
       <c r="M45">
-        <v>-21747100</v>
+        <v>2220400</v>
       </c>
       <c r="N45">
-        <v>-337430156000</v>
+        <v>37381012000</v>
       </c>
       <c r="O45">
-        <v>-81211600</v>
+        <v>-50314600</v>
       </c>
       <c r="P45">
-        <v>-987907921000</v>
+        <v>-690894709000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>1675347600000</v>
+        <v>1675334520000</v>
       </c>
       <c r="B46">
-        <v>5113900</v>
+        <v>600500</v>
       </c>
       <c r="C46">
-        <v>10152600</v>
+        <v>2191000</v>
       </c>
       <c r="D46">
-        <v>59600</v>
+        <v>13000</v>
       </c>
       <c r="E46">
-        <v>78753735000</v>
+        <v>10421306000</v>
       </c>
       <c r="F46">
-        <v>183027592000</v>
+        <v>38013550000</v>
       </c>
       <c r="G46">
-        <v>2069830000</v>
+        <v>372505000</v>
       </c>
       <c r="H46">
-        <v>15326100</v>
+        <v>2804500</v>
       </c>
       <c r="I46">
-        <v>263851157000</v>
+        <v>48807361000</v>
       </c>
       <c r="J46" t="str">
-        <v>2023-02-02T14:20:00.000Z</v>
+        <v>2023-02-02T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>9017211295000</v>
+        <v>4010816491000</v>
       </c>
       <c r="L46">
-        <v>522097800</v>
+        <v>244486600</v>
       </c>
       <c r="M46">
-        <v>5038700</v>
+        <v>1590500</v>
       </c>
       <c r="N46">
-        <v>104273857000</v>
+        <v>27592244000</v>
       </c>
       <c r="O46">
-        <v>-76172900</v>
+        <v>-48724100</v>
       </c>
       <c r="P46">
-        <v>-883634064000</v>
+        <v>-663302465000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>1675347900000</v>
+        <v>1675334640000</v>
       </c>
       <c r="B47">
-        <v>9386500</v>
+        <v>599200</v>
       </c>
       <c r="C47">
-        <v>6088600</v>
+        <v>3254200</v>
       </c>
       <c r="D47">
-        <v>90500</v>
+        <v>17200</v>
       </c>
       <c r="E47">
-        <v>154021752000</v>
+        <v>9563396000</v>
       </c>
       <c r="F47">
-        <v>103124798000</v>
+        <v>66203597000</v>
       </c>
       <c r="G47">
-        <v>1663823000</v>
+        <v>288605000</v>
       </c>
       <c r="H47">
-        <v>15565600</v>
+        <v>3870600</v>
       </c>
       <c r="I47">
-        <v>258810373000</v>
+        <v>76055598000</v>
       </c>
       <c r="J47" t="str">
-        <v>2023-02-02T14:25:00.000Z</v>
+        <v>2023-02-02T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>9276021668000</v>
+        <v>4086872089000</v>
       </c>
       <c r="L47">
-        <v>537663400</v>
+        <v>248357200</v>
       </c>
       <c r="M47">
-        <v>-3297900</v>
+        <v>2655000</v>
       </c>
       <c r="N47">
-        <v>-50896954000</v>
+        <v>56640201000</v>
       </c>
       <c r="O47">
-        <v>-79470800</v>
+        <v>-46069100</v>
       </c>
       <c r="P47">
-        <v>-934531018000</v>
+        <v>-606662264000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>1675348200000</v>
+        <v>1675334760000</v>
       </c>
       <c r="B48">
-        <v>1600</v>
+        <v>902200</v>
       </c>
       <c r="C48">
-        <v>4500</v>
+        <v>2446900</v>
       </c>
       <c r="D48">
-        <v>0</v>
+        <v>34200</v>
       </c>
       <c r="E48">
-        <v>36760000</v>
+        <v>16296077000</v>
       </c>
       <c r="F48">
-        <v>62750000</v>
+        <v>41092676000</v>
       </c>
       <c r="G48">
-        <v>0</v>
+        <v>363960000</v>
       </c>
       <c r="H48">
-        <v>6100</v>
+        <v>3383300</v>
       </c>
       <c r="I48">
-        <v>99510000</v>
+        <v>57752713000</v>
       </c>
       <c r="J48" t="str">
-        <v>2023-02-02T14:30:00.000Z</v>
+        <v>2023-02-02T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>9276121178000</v>
+        <v>4144624802000</v>
       </c>
       <c r="L48">
-        <v>537669500</v>
+        <v>251740500</v>
       </c>
       <c r="M48">
-        <v>2900</v>
+        <v>1544700</v>
       </c>
       <c r="N48">
-        <v>25990000</v>
+        <v>24796599000</v>
       </c>
       <c r="O48">
-        <v>-79467900</v>
+        <v>-44524400</v>
       </c>
       <c r="P48">
-        <v>-934505028000</v>
+        <v>-581865665000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>1675348800000</v>
+        <v>1675334880000</v>
       </c>
       <c r="B49">
-        <v>165500</v>
+        <v>874300</v>
       </c>
       <c r="C49">
-        <v>97900</v>
+        <v>1673400</v>
       </c>
       <c r="D49">
-        <v>1741700</v>
+        <v>51900</v>
       </c>
       <c r="E49">
-        <v>2059720000</v>
+        <v>14427922000</v>
       </c>
       <c r="F49">
-        <v>533097000</v>
+        <v>28348955000</v>
       </c>
       <c r="G49">
-        <v>24037489000</v>
+        <v>283116000</v>
       </c>
       <c r="H49">
-        <v>2005100</v>
+        <v>2599600</v>
       </c>
       <c r="I49">
-        <v>26630306000</v>
+        <v>43059993000</v>
       </c>
       <c r="J49" t="str">
-        <v>2023-02-02T14:40:00.000Z</v>
+        <v>2023-02-02T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>9302751484000</v>
+        <v>4187684795000</v>
       </c>
       <c r="L49">
-        <v>539674600</v>
+        <v>254340100</v>
       </c>
       <c r="M49">
-        <v>-67600</v>
+        <v>799100</v>
       </c>
       <c r="N49">
-        <v>-1526623000</v>
+        <v>13921033000</v>
       </c>
       <c r="O49">
-        <v>-79535500</v>
+        <v>-43725300</v>
       </c>
       <c r="P49">
-        <v>-936031651000</v>
+        <v>-567944632000</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>1675349100000</v>
+        <v>1675335000000</v>
       </c>
       <c r="B50">
-        <v>687400</v>
+        <v>825200</v>
       </c>
       <c r="C50">
-        <v>823700</v>
+        <v>1121400</v>
       </c>
       <c r="D50">
-        <v>23890300</v>
+        <v>5300</v>
       </c>
       <c r="E50">
-        <v>10965455000</v>
+        <v>13880206000</v>
       </c>
       <c r="F50">
-        <v>15386396000</v>
+        <v>20158842000</v>
       </c>
       <c r="G50">
-        <v>529926308000</v>
+        <v>95915000</v>
       </c>
       <c r="H50">
-        <v>25401400</v>
+        <v>1951900</v>
       </c>
       <c r="I50">
-        <v>556278159000</v>
+        <v>34134963000</v>
       </c>
       <c r="J50" t="str">
-        <v>2023-02-02T14:45:00.000Z</v>
+        <v>2023-02-02T10:50:00.000Z</v>
       </c>
       <c r="K50">
+        <v>4221819758000</v>
+      </c>
+      <c r="L50">
+        <v>256292000</v>
+      </c>
+      <c r="M50">
+        <v>296200</v>
+      </c>
+      <c r="N50">
+        <v>6278636000</v>
+      </c>
+      <c r="O50">
+        <v>-43429100</v>
+      </c>
+      <c r="P50">
+        <v>-561665996000</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51">
+        <v>1675335120000</v>
+      </c>
+      <c r="B51">
+        <v>898600</v>
+      </c>
+      <c r="C51">
+        <v>2295500</v>
+      </c>
+      <c r="D51">
+        <v>3700</v>
+      </c>
+      <c r="E51">
+        <v>14398611000</v>
+      </c>
+      <c r="F51">
+        <v>47476936000</v>
+      </c>
+      <c r="G51">
+        <v>100033000</v>
+      </c>
+      <c r="H51">
+        <v>3197800</v>
+      </c>
+      <c r="I51">
+        <v>61975580000</v>
+      </c>
+      <c r="J51" t="str">
+        <v>2023-02-02T10:52:00.000Z</v>
+      </c>
+      <c r="K51">
+        <v>4283795338000</v>
+      </c>
+      <c r="L51">
+        <v>259489800</v>
+      </c>
+      <c r="M51">
+        <v>1396900</v>
+      </c>
+      <c r="N51">
+        <v>33078325000</v>
+      </c>
+      <c r="O51">
+        <v>-42032200</v>
+      </c>
+      <c r="P51">
+        <v>-528587671000</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52">
+        <v>1675335240000</v>
+      </c>
+      <c r="B52">
+        <v>875500</v>
+      </c>
+      <c r="C52">
+        <v>1766800</v>
+      </c>
+      <c r="D52">
+        <v>57000</v>
+      </c>
+      <c r="E52">
+        <v>15516219000</v>
+      </c>
+      <c r="F52">
+        <v>28755644000</v>
+      </c>
+      <c r="G52">
+        <v>822750000</v>
+      </c>
+      <c r="H52">
+        <v>2699300</v>
+      </c>
+      <c r="I52">
+        <v>45094613000</v>
+      </c>
+      <c r="J52" t="str">
+        <v>2023-02-02T10:54:00.000Z</v>
+      </c>
+      <c r="K52">
+        <v>4328889951000</v>
+      </c>
+      <c r="L52">
+        <v>262189100</v>
+      </c>
+      <c r="M52">
+        <v>891300</v>
+      </c>
+      <c r="N52">
+        <v>13239425000</v>
+      </c>
+      <c r="O52">
+        <v>-41140900</v>
+      </c>
+      <c r="P52">
+        <v>-515348246000</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53">
+        <v>1675335360000</v>
+      </c>
+      <c r="B53">
+        <v>1113300</v>
+      </c>
+      <c r="C53">
+        <v>1063100</v>
+      </c>
+      <c r="D53">
+        <v>20500</v>
+      </c>
+      <c r="E53">
+        <v>15381796000</v>
+      </c>
+      <c r="F53">
+        <v>21367511000</v>
+      </c>
+      <c r="G53">
+        <v>193750000</v>
+      </c>
+      <c r="H53">
+        <v>2196900</v>
+      </c>
+      <c r="I53">
+        <v>36943057000</v>
+      </c>
+      <c r="J53" t="str">
+        <v>2023-02-02T10:56:00.000Z</v>
+      </c>
+      <c r="K53">
+        <v>4365833008000</v>
+      </c>
+      <c r="L53">
+        <v>264386000</v>
+      </c>
+      <c r="M53">
+        <v>-50200</v>
+      </c>
+      <c r="N53">
+        <v>5985715000</v>
+      </c>
+      <c r="O53">
+        <v>-41191100</v>
+      </c>
+      <c r="P53">
+        <v>-509362531000</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54">
+        <v>1675335480000</v>
+      </c>
+      <c r="B54">
+        <v>1921700</v>
+      </c>
+      <c r="C54">
+        <v>941700</v>
+      </c>
+      <c r="D54">
+        <v>26300</v>
+      </c>
+      <c r="E54">
+        <v>32839735000</v>
+      </c>
+      <c r="F54">
+        <v>16005121000</v>
+      </c>
+      <c r="G54">
+        <v>443212000</v>
+      </c>
+      <c r="H54">
+        <v>2889700</v>
+      </c>
+      <c r="I54">
+        <v>49288068000</v>
+      </c>
+      <c r="J54" t="str">
+        <v>2023-02-02T10:58:00.000Z</v>
+      </c>
+      <c r="K54">
+        <v>4415121076000</v>
+      </c>
+      <c r="L54">
+        <v>267275700</v>
+      </c>
+      <c r="M54">
+        <v>-980000</v>
+      </c>
+      <c r="N54">
+        <v>-16834614000</v>
+      </c>
+      <c r="O54">
+        <v>-42171100</v>
+      </c>
+      <c r="P54">
+        <v>-526197145000</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55">
+        <v>1675335600000</v>
+      </c>
+      <c r="B55">
+        <v>1059800</v>
+      </c>
+      <c r="C55">
+        <v>774200</v>
+      </c>
+      <c r="D55">
+        <v>3200</v>
+      </c>
+      <c r="E55">
+        <v>17688673000</v>
+      </c>
+      <c r="F55">
+        <v>15779883000</v>
+      </c>
+      <c r="G55">
+        <v>80190000</v>
+      </c>
+      <c r="H55">
+        <v>1837200</v>
+      </c>
+      <c r="I55">
+        <v>33548746000</v>
+      </c>
+      <c r="J55" t="str">
+        <v>2023-02-02T11:00:00.000Z</v>
+      </c>
+      <c r="K55">
+        <v>4448669822000</v>
+      </c>
+      <c r="L55">
+        <v>269112900</v>
+      </c>
+      <c r="M55">
+        <v>-285600</v>
+      </c>
+      <c r="N55">
+        <v>-1908790000</v>
+      </c>
+      <c r="O55">
+        <v>-42456700</v>
+      </c>
+      <c r="P55">
+        <v>-528105935000</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56">
+        <v>1675335720000</v>
+      </c>
+      <c r="B56">
+        <v>1095600</v>
+      </c>
+      <c r="C56">
+        <v>633900</v>
+      </c>
+      <c r="D56">
+        <v>21600</v>
+      </c>
+      <c r="E56">
+        <v>18635409000</v>
+      </c>
+      <c r="F56">
+        <v>10977927000</v>
+      </c>
+      <c r="G56">
+        <v>352200000</v>
+      </c>
+      <c r="H56">
+        <v>1751100</v>
+      </c>
+      <c r="I56">
+        <v>29965536000</v>
+      </c>
+      <c r="J56" t="str">
+        <v>2023-02-02T11:02:00.000Z</v>
+      </c>
+      <c r="K56">
+        <v>4478635358000</v>
+      </c>
+      <c r="L56">
+        <v>270864000</v>
+      </c>
+      <c r="M56">
+        <v>-461700</v>
+      </c>
+      <c r="N56">
+        <v>-7657482000</v>
+      </c>
+      <c r="O56">
+        <v>-42918400</v>
+      </c>
+      <c r="P56">
+        <v>-535763417000</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57">
+        <v>1675335840000</v>
+      </c>
+      <c r="B57">
+        <v>1908800</v>
+      </c>
+      <c r="C57">
+        <v>574000</v>
+      </c>
+      <c r="D57">
+        <v>9200</v>
+      </c>
+      <c r="E57">
+        <v>29308459000</v>
+      </c>
+      <c r="F57">
+        <v>13959013000</v>
+      </c>
+      <c r="G57">
+        <v>199437000</v>
+      </c>
+      <c r="H57">
+        <v>2492000</v>
+      </c>
+      <c r="I57">
+        <v>43466909000</v>
+      </c>
+      <c r="J57" t="str">
+        <v>2023-02-02T11:04:00.000Z</v>
+      </c>
+      <c r="K57">
+        <v>4522102267000</v>
+      </c>
+      <c r="L57">
+        <v>273356000</v>
+      </c>
+      <c r="M57">
+        <v>-1334800</v>
+      </c>
+      <c r="N57">
+        <v>-15349446000</v>
+      </c>
+      <c r="O57">
+        <v>-44253200</v>
+      </c>
+      <c r="P57">
+        <v>-551112863000</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58">
+        <v>1675335960000</v>
+      </c>
+      <c r="B58">
+        <v>1120000</v>
+      </c>
+      <c r="C58">
+        <v>743600</v>
+      </c>
+      <c r="D58">
+        <v>800</v>
+      </c>
+      <c r="E58">
+        <v>17364228000</v>
+      </c>
+      <c r="F58">
+        <v>11583387000</v>
+      </c>
+      <c r="G58">
+        <v>19985000</v>
+      </c>
+      <c r="H58">
+        <v>1864400</v>
+      </c>
+      <c r="I58">
+        <v>28967600000</v>
+      </c>
+      <c r="J58" t="str">
+        <v>2023-02-02T11:06:00.000Z</v>
+      </c>
+      <c r="K58">
+        <v>4551069867000</v>
+      </c>
+      <c r="L58">
+        <v>275220400</v>
+      </c>
+      <c r="M58">
+        <v>-376400</v>
+      </c>
+      <c r="N58">
+        <v>-5780841000</v>
+      </c>
+      <c r="O58">
+        <v>-44629600</v>
+      </c>
+      <c r="P58">
+        <v>-556893704000</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59">
+        <v>1675336080000</v>
+      </c>
+      <c r="B59">
+        <v>946800</v>
+      </c>
+      <c r="C59">
+        <v>547100</v>
+      </c>
+      <c r="D59">
+        <v>200</v>
+      </c>
+      <c r="E59">
+        <v>15616951000</v>
+      </c>
+      <c r="F59">
+        <v>10646003000</v>
+      </c>
+      <c r="G59">
+        <v>8660000</v>
+      </c>
+      <c r="H59">
+        <v>1494100</v>
+      </c>
+      <c r="I59">
+        <v>26271614000</v>
+      </c>
+      <c r="J59" t="str">
+        <v>2023-02-02T11:08:00.000Z</v>
+      </c>
+      <c r="K59">
+        <v>4577341481000</v>
+      </c>
+      <c r="L59">
+        <v>276714500</v>
+      </c>
+      <c r="M59">
+        <v>-399700</v>
+      </c>
+      <c r="N59">
+        <v>-4970948000</v>
+      </c>
+      <c r="O59">
+        <v>-45029300</v>
+      </c>
+      <c r="P59">
+        <v>-561864652000</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60">
+        <v>1675336200000</v>
+      </c>
+      <c r="B60">
+        <v>631900</v>
+      </c>
+      <c r="C60">
+        <v>906300</v>
+      </c>
+      <c r="D60">
+        <v>0</v>
+      </c>
+      <c r="E60">
+        <v>12096509000</v>
+      </c>
+      <c r="F60">
+        <v>20688502000</v>
+      </c>
+      <c r="G60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>1538200</v>
+      </c>
+      <c r="I60">
+        <v>32785011000</v>
+      </c>
+      <c r="J60" t="str">
+        <v>2023-02-02T11:10:00.000Z</v>
+      </c>
+      <c r="K60">
+        <v>4610126492000</v>
+      </c>
+      <c r="L60">
+        <v>278252700</v>
+      </c>
+      <c r="M60">
+        <v>274400</v>
+      </c>
+      <c r="N60">
+        <v>8591993000</v>
+      </c>
+      <c r="O60">
+        <v>-44754900</v>
+      </c>
+      <c r="P60">
+        <v>-553272659000</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61">
+        <v>1675336320000</v>
+      </c>
+      <c r="B61">
+        <v>698800</v>
+      </c>
+      <c r="C61">
+        <v>676100</v>
+      </c>
+      <c r="D61">
+        <v>4700</v>
+      </c>
+      <c r="E61">
+        <v>11774273000</v>
+      </c>
+      <c r="F61">
+        <v>9807346000</v>
+      </c>
+      <c r="G61">
+        <v>70420000</v>
+      </c>
+      <c r="H61">
+        <v>1379600</v>
+      </c>
+      <c r="I61">
+        <v>21652039000</v>
+      </c>
+      <c r="J61" t="str">
+        <v>2023-02-02T11:12:00.000Z</v>
+      </c>
+      <c r="K61">
+        <v>4631778531000</v>
+      </c>
+      <c r="L61">
+        <v>279632300</v>
+      </c>
+      <c r="M61">
+        <v>-22700</v>
+      </c>
+      <c r="N61">
+        <v>-1966927000</v>
+      </c>
+      <c r="O61">
+        <v>-44777600</v>
+      </c>
+      <c r="P61">
+        <v>-555239586000</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62">
+        <v>1675336440000</v>
+      </c>
+      <c r="B62">
+        <v>640800</v>
+      </c>
+      <c r="C62">
+        <v>2260500</v>
+      </c>
+      <c r="D62">
+        <v>5900</v>
+      </c>
+      <c r="E62">
+        <v>11641895000</v>
+      </c>
+      <c r="F62">
+        <v>57923420000</v>
+      </c>
+      <c r="G62">
+        <v>157605000</v>
+      </c>
+      <c r="H62">
+        <v>2907200</v>
+      </c>
+      <c r="I62">
+        <v>69722920000</v>
+      </c>
+      <c r="J62" t="str">
+        <v>2023-02-02T11:14:00.000Z</v>
+      </c>
+      <c r="K62">
+        <v>4701501451000</v>
+      </c>
+      <c r="L62">
+        <v>282539500</v>
+      </c>
+      <c r="M62">
+        <v>1619700</v>
+      </c>
+      <c r="N62">
+        <v>46281525000</v>
+      </c>
+      <c r="O62">
+        <v>-43157900</v>
+      </c>
+      <c r="P62">
+        <v>-508958061000</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63">
+        <v>1675336560000</v>
+      </c>
+      <c r="B63">
+        <v>474100</v>
+      </c>
+      <c r="C63">
+        <v>1423100</v>
+      </c>
+      <c r="D63">
+        <v>13700</v>
+      </c>
+      <c r="E63">
+        <v>8167234000</v>
+      </c>
+      <c r="F63">
+        <v>29214981000</v>
+      </c>
+      <c r="G63">
+        <v>359874000</v>
+      </c>
+      <c r="H63">
+        <v>1910900</v>
+      </c>
+      <c r="I63">
+        <v>37742089000</v>
+      </c>
+      <c r="J63" t="str">
+        <v>2023-02-02T11:16:00.000Z</v>
+      </c>
+      <c r="K63">
+        <v>4739243540000</v>
+      </c>
+      <c r="L63">
+        <v>284450400</v>
+      </c>
+      <c r="M63">
+        <v>949000</v>
+      </c>
+      <c r="N63">
+        <v>21047747000</v>
+      </c>
+      <c r="O63">
+        <v>-42208900</v>
+      </c>
+      <c r="P63">
+        <v>-487910314000</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64">
+        <v>1675336680000</v>
+      </c>
+      <c r="B64">
+        <v>583800</v>
+      </c>
+      <c r="C64">
+        <v>1577200</v>
+      </c>
+      <c r="D64">
+        <v>42100</v>
+      </c>
+      <c r="E64">
+        <v>9802918000</v>
+      </c>
+      <c r="F64">
+        <v>31324700000</v>
+      </c>
+      <c r="G64">
+        <v>565054000</v>
+      </c>
+      <c r="H64">
+        <v>2203100</v>
+      </c>
+      <c r="I64">
+        <v>41692672000</v>
+      </c>
+      <c r="J64" t="str">
+        <v>2023-02-02T11:18:00.000Z</v>
+      </c>
+      <c r="K64">
+        <v>4780936212000</v>
+      </c>
+      <c r="L64">
+        <v>286653500</v>
+      </c>
+      <c r="M64">
+        <v>993400</v>
+      </c>
+      <c r="N64">
+        <v>21521782000</v>
+      </c>
+      <c r="O64">
+        <v>-41215500</v>
+      </c>
+      <c r="P64">
+        <v>-466388532000</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65">
+        <v>1675336800000</v>
+      </c>
+      <c r="B65">
+        <v>574800</v>
+      </c>
+      <c r="C65">
+        <v>963200</v>
+      </c>
+      <c r="D65">
+        <v>6300</v>
+      </c>
+      <c r="E65">
+        <v>9769226000</v>
+      </c>
+      <c r="F65">
+        <v>19437439000</v>
+      </c>
+      <c r="G65">
+        <v>101885000</v>
+      </c>
+      <c r="H65">
+        <v>1544300</v>
+      </c>
+      <c r="I65">
+        <v>29308550000</v>
+      </c>
+      <c r="J65" t="str">
+        <v>2023-02-02T11:20:00.000Z</v>
+      </c>
+      <c r="K65">
+        <v>4810244762000</v>
+      </c>
+      <c r="L65">
+        <v>288197800</v>
+      </c>
+      <c r="M65">
+        <v>388400</v>
+      </c>
+      <c r="N65">
+        <v>9668213000</v>
+      </c>
+      <c r="O65">
+        <v>-40827100</v>
+      </c>
+      <c r="P65">
+        <v>-456720319000</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66">
+        <v>1675336920000</v>
+      </c>
+      <c r="B66">
+        <v>328900</v>
+      </c>
+      <c r="C66">
+        <v>1130100</v>
+      </c>
+      <c r="D66">
+        <v>1800</v>
+      </c>
+      <c r="E66">
+        <v>6506945000</v>
+      </c>
+      <c r="F66">
+        <v>21035846000</v>
+      </c>
+      <c r="G66">
+        <v>21435000</v>
+      </c>
+      <c r="H66">
+        <v>1460800</v>
+      </c>
+      <c r="I66">
+        <v>27564226000</v>
+      </c>
+      <c r="J66" t="str">
+        <v>2023-02-02T11:22:00.000Z</v>
+      </c>
+      <c r="K66">
+        <v>4837808988000</v>
+      </c>
+      <c r="L66">
+        <v>289658600</v>
+      </c>
+      <c r="M66">
+        <v>801200</v>
+      </c>
+      <c r="N66">
+        <v>14528901000</v>
+      </c>
+      <c r="O66">
+        <v>-40025900</v>
+      </c>
+      <c r="P66">
+        <v>-442191418000</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67">
+        <v>1675337040000</v>
+      </c>
+      <c r="B67">
+        <v>480700</v>
+      </c>
+      <c r="C67">
+        <v>956900</v>
+      </c>
+      <c r="D67">
+        <v>10500</v>
+      </c>
+      <c r="E67">
+        <v>7901637000</v>
+      </c>
+      <c r="F67">
+        <v>17909680000</v>
+      </c>
+      <c r="G67">
+        <v>231615000</v>
+      </c>
+      <c r="H67">
+        <v>1448100</v>
+      </c>
+      <c r="I67">
+        <v>26042932000</v>
+      </c>
+      <c r="J67" t="str">
+        <v>2023-02-02T11:24:00.000Z</v>
+      </c>
+      <c r="K67">
+        <v>4863851920000</v>
+      </c>
+      <c r="L67">
+        <v>291106700</v>
+      </c>
+      <c r="M67">
+        <v>476200</v>
+      </c>
+      <c r="N67">
+        <v>10008043000</v>
+      </c>
+      <c r="O67">
+        <v>-39549700</v>
+      </c>
+      <c r="P67">
+        <v>-432183375000</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68">
+        <v>1675337160000</v>
+      </c>
+      <c r="B68">
+        <v>1016000</v>
+      </c>
+      <c r="C68">
+        <v>1039900</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+      <c r="E68">
+        <v>16666711000</v>
+      </c>
+      <c r="F68">
+        <v>16294063000</v>
+      </c>
+      <c r="G68">
+        <v>0</v>
+      </c>
+      <c r="H68">
+        <v>2055900</v>
+      </c>
+      <c r="I68">
+        <v>32960774000</v>
+      </c>
+      <c r="J68" t="str">
+        <v>2023-02-02T11:26:00.000Z</v>
+      </c>
+      <c r="K68">
+        <v>4896812694000</v>
+      </c>
+      <c r="L68">
+        <v>293162600</v>
+      </c>
+      <c r="M68">
+        <v>23900</v>
+      </c>
+      <c r="N68">
+        <v>-372648000</v>
+      </c>
+      <c r="O68">
+        <v>-39525800</v>
+      </c>
+      <c r="P68">
+        <v>-432556023000</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69">
+        <v>1675337280000</v>
+      </c>
+      <c r="B69">
+        <v>1477300</v>
+      </c>
+      <c r="C69">
+        <v>571300</v>
+      </c>
+      <c r="D69">
+        <v>12800</v>
+      </c>
+      <c r="E69">
+        <v>23847661000</v>
+      </c>
+      <c r="F69">
+        <v>11923965000</v>
+      </c>
+      <c r="G69">
+        <v>445247000</v>
+      </c>
+      <c r="H69">
+        <v>2061400</v>
+      </c>
+      <c r="I69">
+        <v>36216873000</v>
+      </c>
+      <c r="J69" t="str">
+        <v>2023-02-02T11:28:00.000Z</v>
+      </c>
+      <c r="K69">
+        <v>4933029567000</v>
+      </c>
+      <c r="L69">
+        <v>295224000</v>
+      </c>
+      <c r="M69">
+        <v>-906000</v>
+      </c>
+      <c r="N69">
+        <v>-11923696000</v>
+      </c>
+      <c r="O69">
+        <v>-40431800</v>
+      </c>
+      <c r="P69">
+        <v>-444479719000</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70">
+        <v>1675342800000</v>
+      </c>
+      <c r="B70">
+        <v>4405900</v>
+      </c>
+      <c r="C70">
+        <v>2525700</v>
+      </c>
+      <c r="D70">
+        <v>314900</v>
+      </c>
+      <c r="E70">
+        <v>79559529000</v>
+      </c>
+      <c r="F70">
+        <v>46734685000</v>
+      </c>
+      <c r="G70">
+        <v>3981471000</v>
+      </c>
+      <c r="H70">
+        <v>7246500</v>
+      </c>
+      <c r="I70">
+        <v>130275685000</v>
+      </c>
+      <c r="J70" t="str">
+        <v>2023-02-02T13:00:00.000Z</v>
+      </c>
+      <c r="K70">
+        <v>5063305252000</v>
+      </c>
+      <c r="L70">
+        <v>302470500</v>
+      </c>
+      <c r="M70">
+        <v>-1880200</v>
+      </c>
+      <c r="N70">
+        <v>-32824844000</v>
+      </c>
+      <c r="O70">
+        <v>-42312000</v>
+      </c>
+      <c r="P70">
+        <v>-477304563000</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71">
+        <v>1675342920000</v>
+      </c>
+      <c r="B71">
+        <v>2268700</v>
+      </c>
+      <c r="C71">
+        <v>1112300</v>
+      </c>
+      <c r="D71">
+        <v>50300</v>
+      </c>
+      <c r="E71">
+        <v>37169763000</v>
+      </c>
+      <c r="F71">
+        <v>26450429000</v>
+      </c>
+      <c r="G71">
+        <v>866236000</v>
+      </c>
+      <c r="H71">
+        <v>3431300</v>
+      </c>
+      <c r="I71">
+        <v>64486428000</v>
+      </c>
+      <c r="J71" t="str">
+        <v>2023-02-02T13:02:00.000Z</v>
+      </c>
+      <c r="K71">
+        <v>5127791680000</v>
+      </c>
+      <c r="L71">
+        <v>305901800</v>
+      </c>
+      <c r="M71">
+        <v>-1156400</v>
+      </c>
+      <c r="N71">
+        <v>-10719334000</v>
+      </c>
+      <c r="O71">
+        <v>-43468400</v>
+      </c>
+      <c r="P71">
+        <v>-488023897000</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72">
+        <v>1675343040000</v>
+      </c>
+      <c r="B72">
+        <v>2325200</v>
+      </c>
+      <c r="C72">
+        <v>1196900</v>
+      </c>
+      <c r="D72">
+        <v>4100</v>
+      </c>
+      <c r="E72">
+        <v>37091332000</v>
+      </c>
+      <c r="F72">
+        <v>20870976000</v>
+      </c>
+      <c r="G72">
+        <v>43153000</v>
+      </c>
+      <c r="H72">
+        <v>3526200</v>
+      </c>
+      <c r="I72">
+        <v>58005461000</v>
+      </c>
+      <c r="J72" t="str">
+        <v>2023-02-02T13:04:00.000Z</v>
+      </c>
+      <c r="K72">
+        <v>5185797141000</v>
+      </c>
+      <c r="L72">
+        <v>309428000</v>
+      </c>
+      <c r="M72">
+        <v>-1128300</v>
+      </c>
+      <c r="N72">
+        <v>-16220356000</v>
+      </c>
+      <c r="O72">
+        <v>-44596700</v>
+      </c>
+      <c r="P72">
+        <v>-504244253000</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73">
+        <v>1675343160000</v>
+      </c>
+      <c r="B73">
+        <v>2895400</v>
+      </c>
+      <c r="C73">
+        <v>1244800</v>
+      </c>
+      <c r="D73">
+        <v>17800</v>
+      </c>
+      <c r="E73">
+        <v>45735601000</v>
+      </c>
+      <c r="F73">
+        <v>28898768000</v>
+      </c>
+      <c r="G73">
+        <v>536188000</v>
+      </c>
+      <c r="H73">
+        <v>4158000</v>
+      </c>
+      <c r="I73">
+        <v>75170557000</v>
+      </c>
+      <c r="J73" t="str">
+        <v>2023-02-02T13:06:00.000Z</v>
+      </c>
+      <c r="K73">
+        <v>5260967698000</v>
+      </c>
+      <c r="L73">
+        <v>313586000</v>
+      </c>
+      <c r="M73">
+        <v>-1650600</v>
+      </c>
+      <c r="N73">
+        <v>-16836833000</v>
+      </c>
+      <c r="O73">
+        <v>-46247300</v>
+      </c>
+      <c r="P73">
+        <v>-521081086000</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74">
+        <v>1675343280000</v>
+      </c>
+      <c r="B74">
+        <v>2491900</v>
+      </c>
+      <c r="C74">
+        <v>1250500</v>
+      </c>
+      <c r="D74">
+        <v>25900</v>
+      </c>
+      <c r="E74">
+        <v>38485451000</v>
+      </c>
+      <c r="F74">
+        <v>25878773000</v>
+      </c>
+      <c r="G74">
+        <v>461743000</v>
+      </c>
+      <c r="H74">
+        <v>3768300</v>
+      </c>
+      <c r="I74">
+        <v>64825967000</v>
+      </c>
+      <c r="J74" t="str">
+        <v>2023-02-02T13:08:00.000Z</v>
+      </c>
+      <c r="K74">
+        <v>5325793665000</v>
+      </c>
+      <c r="L74">
+        <v>317354300</v>
+      </c>
+      <c r="M74">
+        <v>-1241400</v>
+      </c>
+      <c r="N74">
+        <v>-12606678000</v>
+      </c>
+      <c r="O74">
+        <v>-47488700</v>
+      </c>
+      <c r="P74">
+        <v>-533687764000</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75">
+        <v>1675343400000</v>
+      </c>
+      <c r="B75">
+        <v>1705900</v>
+      </c>
+      <c r="C75">
+        <v>1802400</v>
+      </c>
+      <c r="D75">
+        <v>12800</v>
+      </c>
+      <c r="E75">
+        <v>25942845000</v>
+      </c>
+      <c r="F75">
+        <v>35523101000</v>
+      </c>
+      <c r="G75">
+        <v>280230000</v>
+      </c>
+      <c r="H75">
+        <v>3521100</v>
+      </c>
+      <c r="I75">
+        <v>61746176000</v>
+      </c>
+      <c r="J75" t="str">
+        <v>2023-02-02T13:10:00.000Z</v>
+      </c>
+      <c r="K75">
+        <v>5387539841000</v>
+      </c>
+      <c r="L75">
+        <v>320875400</v>
+      </c>
+      <c r="M75">
+        <v>96500</v>
+      </c>
+      <c r="N75">
+        <v>9580256000</v>
+      </c>
+      <c r="O75">
+        <v>-47392200</v>
+      </c>
+      <c r="P75">
+        <v>-524107508000</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>1675343520000</v>
+      </c>
+      <c r="B76">
+        <v>2177300</v>
+      </c>
+      <c r="C76">
+        <v>1208200</v>
+      </c>
+      <c r="D76">
+        <v>13000</v>
+      </c>
+      <c r="E76">
+        <v>39436637000</v>
+      </c>
+      <c r="F76">
+        <v>26754153000</v>
+      </c>
+      <c r="G76">
+        <v>820187000</v>
+      </c>
+      <c r="H76">
+        <v>3398500</v>
+      </c>
+      <c r="I76">
+        <v>67010977000</v>
+      </c>
+      <c r="J76" t="str">
+        <v>2023-02-02T13:12:00.000Z</v>
+      </c>
+      <c r="K76">
+        <v>5454550818000</v>
+      </c>
+      <c r="L76">
+        <v>324273900</v>
+      </c>
+      <c r="M76">
+        <v>-969100</v>
+      </c>
+      <c r="N76">
+        <v>-12682484000</v>
+      </c>
+      <c r="O76">
+        <v>-48361300</v>
+      </c>
+      <c r="P76">
+        <v>-536789992000</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
+        <v>1675343640000</v>
+      </c>
+      <c r="B77">
+        <v>3736500</v>
+      </c>
+      <c r="C77">
+        <v>1019600</v>
+      </c>
+      <c r="D77">
+        <v>64500</v>
+      </c>
+      <c r="E77">
+        <v>66459895000</v>
+      </c>
+      <c r="F77">
+        <v>15253788000</v>
+      </c>
+      <c r="G77">
+        <v>805702000</v>
+      </c>
+      <c r="H77">
+        <v>4820600</v>
+      </c>
+      <c r="I77">
+        <v>82519385000</v>
+      </c>
+      <c r="J77" t="str">
+        <v>2023-02-02T13:14:00.000Z</v>
+      </c>
+      <c r="K77">
+        <v>5537070203000</v>
+      </c>
+      <c r="L77">
+        <v>329094500</v>
+      </c>
+      <c r="M77">
+        <v>-2716900</v>
+      </c>
+      <c r="N77">
+        <v>-51206107000</v>
+      </c>
+      <c r="O77">
+        <v>-51078200</v>
+      </c>
+      <c r="P77">
+        <v>-587996099000</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78">
+        <v>1675343760000</v>
+      </c>
+      <c r="B78">
+        <v>5598500</v>
+      </c>
+      <c r="C78">
+        <v>880500</v>
+      </c>
+      <c r="D78">
+        <v>7500</v>
+      </c>
+      <c r="E78">
+        <v>94992993000</v>
+      </c>
+      <c r="F78">
+        <v>15781003000</v>
+      </c>
+      <c r="G78">
+        <v>146789000</v>
+      </c>
+      <c r="H78">
+        <v>6486500</v>
+      </c>
+      <c r="I78">
+        <v>110920785000</v>
+      </c>
+      <c r="J78" t="str">
+        <v>2023-02-02T13:16:00.000Z</v>
+      </c>
+      <c r="K78">
+        <v>5647990988000</v>
+      </c>
+      <c r="L78">
+        <v>335581000</v>
+      </c>
+      <c r="M78">
+        <v>-4718000</v>
+      </c>
+      <c r="N78">
+        <v>-79211990000</v>
+      </c>
+      <c r="O78">
+        <v>-55796200</v>
+      </c>
+      <c r="P78">
+        <v>-667208089000</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79">
+        <v>1675343880000</v>
+      </c>
+      <c r="B79">
+        <v>7475800</v>
+      </c>
+      <c r="C79">
+        <v>1288200</v>
+      </c>
+      <c r="D79">
+        <v>23700</v>
+      </c>
+      <c r="E79">
+        <v>122879823000</v>
+      </c>
+      <c r="F79">
+        <v>22319737000</v>
+      </c>
+      <c r="G79">
+        <v>441412000</v>
+      </c>
+      <c r="H79">
+        <v>8787700</v>
+      </c>
+      <c r="I79">
+        <v>145640972000</v>
+      </c>
+      <c r="J79" t="str">
+        <v>2023-02-02T13:18:00.000Z</v>
+      </c>
+      <c r="K79">
+        <v>5793631960000</v>
+      </c>
+      <c r="L79">
+        <v>344368700</v>
+      </c>
+      <c r="M79">
+        <v>-6187600</v>
+      </c>
+      <c r="N79">
+        <v>-100560086000</v>
+      </c>
+      <c r="O79">
+        <v>-61983800</v>
+      </c>
+      <c r="P79">
+        <v>-767768175000</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80">
+        <v>1675344000000</v>
+      </c>
+      <c r="B80">
+        <v>2515100</v>
+      </c>
+      <c r="C80">
+        <v>2905300</v>
+      </c>
+      <c r="D80">
+        <v>114200</v>
+      </c>
+      <c r="E80">
+        <v>37937322000</v>
+      </c>
+      <c r="F80">
+        <v>54195856000</v>
+      </c>
+      <c r="G80">
+        <v>1803582000</v>
+      </c>
+      <c r="H80">
+        <v>5534600</v>
+      </c>
+      <c r="I80">
+        <v>93936760000</v>
+      </c>
+      <c r="J80" t="str">
+        <v>2023-02-02T13:20:00.000Z</v>
+      </c>
+      <c r="K80">
+        <v>5887568720000</v>
+      </c>
+      <c r="L80">
+        <v>349903300</v>
+      </c>
+      <c r="M80">
+        <v>390200</v>
+      </c>
+      <c r="N80">
+        <v>16258534000</v>
+      </c>
+      <c r="O80">
+        <v>-61593600</v>
+      </c>
+      <c r="P80">
+        <v>-751509641000</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81">
+        <v>1675344120000</v>
+      </c>
+      <c r="B81">
+        <v>1608900</v>
+      </c>
+      <c r="C81">
+        <v>1636800</v>
+      </c>
+      <c r="D81">
+        <v>8400</v>
+      </c>
+      <c r="E81">
+        <v>26855249000</v>
+      </c>
+      <c r="F81">
+        <v>25867418000</v>
+      </c>
+      <c r="G81">
+        <v>197609000</v>
+      </c>
+      <c r="H81">
+        <v>3254100</v>
+      </c>
+      <c r="I81">
+        <v>52920276000</v>
+      </c>
+      <c r="J81" t="str">
+        <v>2023-02-02T13:22:00.000Z</v>
+      </c>
+      <c r="K81">
+        <v>5940488996000</v>
+      </c>
+      <c r="L81">
+        <v>353157400</v>
+      </c>
+      <c r="M81">
+        <v>27900</v>
+      </c>
+      <c r="N81">
+        <v>-987831000</v>
+      </c>
+      <c r="O81">
+        <v>-61565700</v>
+      </c>
+      <c r="P81">
+        <v>-752497472000</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82">
+        <v>1675344240000</v>
+      </c>
+      <c r="B82">
+        <v>1410800</v>
+      </c>
+      <c r="C82">
+        <v>1204100</v>
+      </c>
+      <c r="D82">
+        <v>1400</v>
+      </c>
+      <c r="E82">
+        <v>26285137000</v>
+      </c>
+      <c r="F82">
+        <v>19502756000</v>
+      </c>
+      <c r="G82">
+        <v>65145000</v>
+      </c>
+      <c r="H82">
+        <v>2616300</v>
+      </c>
+      <c r="I82">
+        <v>45853038000</v>
+      </c>
+      <c r="J82" t="str">
+        <v>2023-02-02T13:24:00.000Z</v>
+      </c>
+      <c r="K82">
+        <v>5986342034000</v>
+      </c>
+      <c r="L82">
+        <v>355773700</v>
+      </c>
+      <c r="M82">
+        <v>-206700</v>
+      </c>
+      <c r="N82">
+        <v>-6782381000</v>
+      </c>
+      <c r="O82">
+        <v>-61772400</v>
+      </c>
+      <c r="P82">
+        <v>-759279853000</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83">
+        <v>1675344360000</v>
+      </c>
+      <c r="B83">
+        <v>1347500</v>
+      </c>
+      <c r="C83">
+        <v>1927200</v>
+      </c>
+      <c r="D83">
+        <v>40100</v>
+      </c>
+      <c r="E83">
+        <v>25852922000</v>
+      </c>
+      <c r="F83">
+        <v>39462168000</v>
+      </c>
+      <c r="G83">
+        <v>636620000</v>
+      </c>
+      <c r="H83">
+        <v>3314800</v>
+      </c>
+      <c r="I83">
+        <v>65951710000</v>
+      </c>
+      <c r="J83" t="str">
+        <v>2023-02-02T13:26:00.000Z</v>
+      </c>
+      <c r="K83">
+        <v>6052293744000</v>
+      </c>
+      <c r="L83">
+        <v>359088500</v>
+      </c>
+      <c r="M83">
+        <v>579700</v>
+      </c>
+      <c r="N83">
+        <v>13609246000</v>
+      </c>
+      <c r="O83">
+        <v>-61192700</v>
+      </c>
+      <c r="P83">
+        <v>-745670607000</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84">
+        <v>1675344480000</v>
+      </c>
+      <c r="B84">
+        <v>925600</v>
+      </c>
+      <c r="C84">
+        <v>1470800</v>
+      </c>
+      <c r="D84">
+        <v>4400</v>
+      </c>
+      <c r="E84">
+        <v>19324093000</v>
+      </c>
+      <c r="F84">
+        <v>27641475000</v>
+      </c>
+      <c r="G84">
+        <v>161880000</v>
+      </c>
+      <c r="H84">
+        <v>2400800</v>
+      </c>
+      <c r="I84">
+        <v>47127448000</v>
+      </c>
+      <c r="J84" t="str">
+        <v>2023-02-02T13:28:00.000Z</v>
+      </c>
+      <c r="K84">
+        <v>6099421192000</v>
+      </c>
+      <c r="L84">
+        <v>361489300</v>
+      </c>
+      <c r="M84">
+        <v>545200</v>
+      </c>
+      <c r="N84">
+        <v>8317382000</v>
+      </c>
+      <c r="O84">
+        <v>-60647500</v>
+      </c>
+      <c r="P84">
+        <v>-737353225000</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85">
+        <v>1675344600000</v>
+      </c>
+      <c r="B85">
+        <v>1126400</v>
+      </c>
+      <c r="C85">
+        <v>2431100</v>
+      </c>
+      <c r="D85">
+        <v>16400</v>
+      </c>
+      <c r="E85">
+        <v>18424597000</v>
+      </c>
+      <c r="F85">
+        <v>49426250000</v>
+      </c>
+      <c r="G85">
+        <v>446581000</v>
+      </c>
+      <c r="H85">
+        <v>3573900</v>
+      </c>
+      <c r="I85">
+        <v>68297428000</v>
+      </c>
+      <c r="J85" t="str">
+        <v>2023-02-02T13:30:00.000Z</v>
+      </c>
+      <c r="K85">
+        <v>6167718620000</v>
+      </c>
+      <c r="L85">
+        <v>365063200</v>
+      </c>
+      <c r="M85">
+        <v>1304700</v>
+      </c>
+      <c r="N85">
+        <v>31001653000</v>
+      </c>
+      <c r="O85">
+        <v>-59342800</v>
+      </c>
+      <c r="P85">
+        <v>-706351572000</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86">
+        <v>1675344720000</v>
+      </c>
+      <c r="B86">
+        <v>1186600</v>
+      </c>
+      <c r="C86">
+        <v>3571200</v>
+      </c>
+      <c r="D86">
+        <v>13600</v>
+      </c>
+      <c r="E86">
+        <v>19201689000</v>
+      </c>
+      <c r="F86">
+        <v>72184058000</v>
+      </c>
+      <c r="G86">
+        <v>311562000</v>
+      </c>
+      <c r="H86">
+        <v>4771400</v>
+      </c>
+      <c r="I86">
+        <v>91697309000</v>
+      </c>
+      <c r="J86" t="str">
+        <v>2023-02-02T13:32:00.000Z</v>
+      </c>
+      <c r="K86">
+        <v>6259415929000</v>
+      </c>
+      <c r="L86">
+        <v>369834600</v>
+      </c>
+      <c r="M86">
+        <v>2384600</v>
+      </c>
+      <c r="N86">
+        <v>52982369000</v>
+      </c>
+      <c r="O86">
+        <v>-56958200</v>
+      </c>
+      <c r="P86">
+        <v>-653369203000</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87">
+        <v>1675344840000</v>
+      </c>
+      <c r="B87">
+        <v>738500</v>
+      </c>
+      <c r="C87">
+        <v>3919600</v>
+      </c>
+      <c r="D87">
+        <v>4000</v>
+      </c>
+      <c r="E87">
+        <v>15028854000</v>
+      </c>
+      <c r="F87">
+        <v>72308663000</v>
+      </c>
+      <c r="G87">
+        <v>40064000</v>
+      </c>
+      <c r="H87">
+        <v>4662100</v>
+      </c>
+      <c r="I87">
+        <v>87377581000</v>
+      </c>
+      <c r="J87" t="str">
+        <v>2023-02-02T13:34:00.000Z</v>
+      </c>
+      <c r="K87">
+        <v>6346793510000</v>
+      </c>
+      <c r="L87">
+        <v>374496700</v>
+      </c>
+      <c r="M87">
+        <v>3181100</v>
+      </c>
+      <c r="N87">
+        <v>57279809000</v>
+      </c>
+      <c r="O87">
+        <v>-53777100</v>
+      </c>
+      <c r="P87">
+        <v>-596089394000</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88">
+        <v>1675344960000</v>
+      </c>
+      <c r="B88">
+        <v>2201200</v>
+      </c>
+      <c r="C88">
+        <v>1827900</v>
+      </c>
+      <c r="D88">
+        <v>9800</v>
+      </c>
+      <c r="E88">
+        <v>36994629000</v>
+      </c>
+      <c r="F88">
+        <v>33573127000</v>
+      </c>
+      <c r="G88">
+        <v>71605000</v>
+      </c>
+      <c r="H88">
+        <v>4038900</v>
+      </c>
+      <c r="I88">
+        <v>70639361000</v>
+      </c>
+      <c r="J88" t="str">
+        <v>2023-02-02T13:36:00.000Z</v>
+      </c>
+      <c r="K88">
+        <v>6417432871000</v>
+      </c>
+      <c r="L88">
+        <v>378535600</v>
+      </c>
+      <c r="M88">
+        <v>-373300</v>
+      </c>
+      <c r="N88">
+        <v>-3421502000</v>
+      </c>
+      <c r="O88">
+        <v>-54150400</v>
+      </c>
+      <c r="P88">
+        <v>-599510896000</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89">
+        <v>1675345080000</v>
+      </c>
+      <c r="B89">
+        <v>2259900</v>
+      </c>
+      <c r="C89">
+        <v>1907900</v>
+      </c>
+      <c r="D89">
+        <v>70000</v>
+      </c>
+      <c r="E89">
+        <v>35708456000</v>
+      </c>
+      <c r="F89">
+        <v>43382772000</v>
+      </c>
+      <c r="G89">
+        <v>637261000</v>
+      </c>
+      <c r="H89">
+        <v>4237800</v>
+      </c>
+      <c r="I89">
+        <v>79728489000</v>
+      </c>
+      <c r="J89" t="str">
+        <v>2023-02-02T13:38:00.000Z</v>
+      </c>
+      <c r="K89">
+        <v>6497161360000</v>
+      </c>
+      <c r="L89">
+        <v>382773400</v>
+      </c>
+      <c r="M89">
+        <v>-352000</v>
+      </c>
+      <c r="N89">
+        <v>7674316000</v>
+      </c>
+      <c r="O89">
+        <v>-54502400</v>
+      </c>
+      <c r="P89">
+        <v>-591836580000</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90">
+        <v>1675345200000</v>
+      </c>
+      <c r="B90">
+        <v>2116500</v>
+      </c>
+      <c r="C90">
+        <v>1221900</v>
+      </c>
+      <c r="D90">
+        <v>13500</v>
+      </c>
+      <c r="E90">
+        <v>35254828000</v>
+      </c>
+      <c r="F90">
+        <v>23357166000</v>
+      </c>
+      <c r="G90">
+        <v>271460000</v>
+      </c>
+      <c r="H90">
+        <v>3351900</v>
+      </c>
+      <c r="I90">
+        <v>58883454000</v>
+      </c>
+      <c r="J90" t="str">
+        <v>2023-02-02T13:40:00.000Z</v>
+      </c>
+      <c r="K90">
+        <v>6556044814000</v>
+      </c>
+      <c r="L90">
+        <v>386125300</v>
+      </c>
+      <c r="M90">
+        <v>-894600</v>
+      </c>
+      <c r="N90">
+        <v>-11897662000</v>
+      </c>
+      <c r="O90">
+        <v>-55397000</v>
+      </c>
+      <c r="P90">
+        <v>-603734242000</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91">
+        <v>1675345320000</v>
+      </c>
+      <c r="B91">
+        <v>5274200</v>
+      </c>
+      <c r="C91">
+        <v>963500</v>
+      </c>
+      <c r="D91">
+        <v>24000</v>
+      </c>
+      <c r="E91">
+        <v>101452517000</v>
+      </c>
+      <c r="F91">
+        <v>18292169000</v>
+      </c>
+      <c r="G91">
+        <v>411747000</v>
+      </c>
+      <c r="H91">
+        <v>6261700</v>
+      </c>
+      <c r="I91">
+        <v>120156433000</v>
+      </c>
+      <c r="J91" t="str">
+        <v>2023-02-02T13:42:00.000Z</v>
+      </c>
+      <c r="K91">
+        <v>6676201247000</v>
+      </c>
+      <c r="L91">
+        <v>392387000</v>
+      </c>
+      <c r="M91">
+        <v>-4310700</v>
+      </c>
+      <c r="N91">
+        <v>-83160348000</v>
+      </c>
+      <c r="O91">
+        <v>-59707700</v>
+      </c>
+      <c r="P91">
+        <v>-686894590000</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92">
+        <v>1675345440000</v>
+      </c>
+      <c r="B92">
+        <v>4908900</v>
+      </c>
+      <c r="C92">
+        <v>1231200</v>
+      </c>
+      <c r="D92">
+        <v>44400</v>
+      </c>
+      <c r="E92">
+        <v>83834722000</v>
+      </c>
+      <c r="F92">
+        <v>23567796000</v>
+      </c>
+      <c r="G92">
+        <v>592822000</v>
+      </c>
+      <c r="H92">
+        <v>6184500</v>
+      </c>
+      <c r="I92">
+        <v>107995340000</v>
+      </c>
+      <c r="J92" t="str">
+        <v>2023-02-02T13:44:00.000Z</v>
+      </c>
+      <c r="K92">
+        <v>6784196587000</v>
+      </c>
+      <c r="L92">
+        <v>398571500</v>
+      </c>
+      <c r="M92">
+        <v>-3677700</v>
+      </c>
+      <c r="N92">
+        <v>-60266926000</v>
+      </c>
+      <c r="O92">
+        <v>-63385400</v>
+      </c>
+      <c r="P92">
+        <v>-747161516000</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93">
+        <v>1675345560000</v>
+      </c>
+      <c r="B93">
+        <v>3395000</v>
+      </c>
+      <c r="C93">
+        <v>1511800</v>
+      </c>
+      <c r="D93">
+        <v>4800</v>
+      </c>
+      <c r="E93">
+        <v>58862689000</v>
+      </c>
+      <c r="F93">
+        <v>32583895000</v>
+      </c>
+      <c r="G93">
+        <v>89034000</v>
+      </c>
+      <c r="H93">
+        <v>4911600</v>
+      </c>
+      <c r="I93">
+        <v>91535618000</v>
+      </c>
+      <c r="J93" t="str">
+        <v>2023-02-02T13:46:00.000Z</v>
+      </c>
+      <c r="K93">
+        <v>6875732205000</v>
+      </c>
+      <c r="L93">
+        <v>403483100</v>
+      </c>
+      <c r="M93">
+        <v>-1883200</v>
+      </c>
+      <c r="N93">
+        <v>-26278794000</v>
+      </c>
+      <c r="O93">
+        <v>-65268600</v>
+      </c>
+      <c r="P93">
+        <v>-773440310000</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94">
+        <v>1675345680000</v>
+      </c>
+      <c r="B94">
+        <v>1337500</v>
+      </c>
+      <c r="C94">
+        <v>2236800</v>
+      </c>
+      <c r="D94">
+        <v>25400</v>
+      </c>
+      <c r="E94">
+        <v>21343737000</v>
+      </c>
+      <c r="F94">
+        <v>42447536000</v>
+      </c>
+      <c r="G94">
+        <v>263683000</v>
+      </c>
+      <c r="H94">
+        <v>3599700</v>
+      </c>
+      <c r="I94">
+        <v>64054956000</v>
+      </c>
+      <c r="J94" t="str">
+        <v>2023-02-02T13:48:00.000Z</v>
+      </c>
+      <c r="K94">
+        <v>6939787161000</v>
+      </c>
+      <c r="L94">
+        <v>407082800</v>
+      </c>
+      <c r="M94">
+        <v>899300</v>
+      </c>
+      <c r="N94">
+        <v>21103799000</v>
+      </c>
+      <c r="O94">
+        <v>-64369300</v>
+      </c>
+      <c r="P94">
+        <v>-752336511000</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95">
+        <v>1675345800000</v>
+      </c>
+      <c r="B95">
+        <v>984800</v>
+      </c>
+      <c r="C95">
+        <v>1472900</v>
+      </c>
+      <c r="D95">
+        <v>11600</v>
+      </c>
+      <c r="E95">
+        <v>18650099000</v>
+      </c>
+      <c r="F95">
+        <v>30844290000</v>
+      </c>
+      <c r="G95">
+        <v>109861000</v>
+      </c>
+      <c r="H95">
+        <v>2469300</v>
+      </c>
+      <c r="I95">
+        <v>49604250000</v>
+      </c>
+      <c r="J95" t="str">
+        <v>2023-02-02T13:50:00.000Z</v>
+      </c>
+      <c r="K95">
+        <v>6989391411000</v>
+      </c>
+      <c r="L95">
+        <v>409552100</v>
+      </c>
+      <c r="M95">
+        <v>488100</v>
+      </c>
+      <c r="N95">
+        <v>12194191000</v>
+      </c>
+      <c r="O95">
+        <v>-63881200</v>
+      </c>
+      <c r="P95">
+        <v>-740142320000</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96">
+        <v>1675345920000</v>
+      </c>
+      <c r="B96">
+        <v>1130600</v>
+      </c>
+      <c r="C96">
+        <v>4700900</v>
+      </c>
+      <c r="D96">
+        <v>3600</v>
+      </c>
+      <c r="E96">
+        <v>18913169000</v>
+      </c>
+      <c r="F96">
+        <v>95788877000</v>
+      </c>
+      <c r="G96">
+        <v>155759000</v>
+      </c>
+      <c r="H96">
+        <v>5835100</v>
+      </c>
+      <c r="I96">
+        <v>114857805000</v>
+      </c>
+      <c r="J96" t="str">
+        <v>2023-02-02T13:52:00.000Z</v>
+      </c>
+      <c r="K96">
+        <v>7104249216000</v>
+      </c>
+      <c r="L96">
+        <v>415387200</v>
+      </c>
+      <c r="M96">
+        <v>3570300</v>
+      </c>
+      <c r="N96">
+        <v>76875708000</v>
+      </c>
+      <c r="O96">
+        <v>-60310900</v>
+      </c>
+      <c r="P96">
+        <v>-663266612000</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97">
+        <v>1675346040000</v>
+      </c>
+      <c r="B97">
+        <v>969700</v>
+      </c>
+      <c r="C97">
+        <v>8009300</v>
+      </c>
+      <c r="D97">
+        <v>44100</v>
+      </c>
+      <c r="E97">
+        <v>21407752000</v>
+      </c>
+      <c r="F97">
+        <v>160418993000</v>
+      </c>
+      <c r="G97">
+        <v>1571606000</v>
+      </c>
+      <c r="H97">
+        <v>9023100</v>
+      </c>
+      <c r="I97">
+        <v>183398351000</v>
+      </c>
+      <c r="J97" t="str">
+        <v>2023-02-02T13:54:00.000Z</v>
+      </c>
+      <c r="K97">
+        <v>7287647567000</v>
+      </c>
+      <c r="L97">
+        <v>424410300</v>
+      </c>
+      <c r="M97">
+        <v>7039600</v>
+      </c>
+      <c r="N97">
+        <v>139011241000</v>
+      </c>
+      <c r="O97">
+        <v>-53271300</v>
+      </c>
+      <c r="P97">
+        <v>-524255371000</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98">
+        <v>1675346160000</v>
+      </c>
+      <c r="B98">
+        <v>1788300</v>
+      </c>
+      <c r="C98">
+        <v>7019000</v>
+      </c>
+      <c r="D98">
+        <v>27700</v>
+      </c>
+      <c r="E98">
+        <v>40312835000</v>
+      </c>
+      <c r="F98">
+        <v>122078179000</v>
+      </c>
+      <c r="G98">
+        <v>680473000</v>
+      </c>
+      <c r="H98">
+        <v>8835000</v>
+      </c>
+      <c r="I98">
+        <v>163071487000</v>
+      </c>
+      <c r="J98" t="str">
+        <v>2023-02-02T13:56:00.000Z</v>
+      </c>
+      <c r="K98">
+        <v>7450719054000</v>
+      </c>
+      <c r="L98">
+        <v>433245300</v>
+      </c>
+      <c r="M98">
+        <v>5230700</v>
+      </c>
+      <c r="N98">
+        <v>81765344000</v>
+      </c>
+      <c r="O98">
+        <v>-48040600</v>
+      </c>
+      <c r="P98">
+        <v>-442490027000</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99">
+        <v>1675346280000</v>
+      </c>
+      <c r="B99">
+        <v>4029900</v>
+      </c>
+      <c r="C99">
+        <v>3206700</v>
+      </c>
+      <c r="D99">
+        <v>20700</v>
+      </c>
+      <c r="E99">
+        <v>70382840000</v>
+      </c>
+      <c r="F99">
+        <v>54179025000</v>
+      </c>
+      <c r="G99">
+        <v>501691000</v>
+      </c>
+      <c r="H99">
+        <v>7257300</v>
+      </c>
+      <c r="I99">
+        <v>125063556000</v>
+      </c>
+      <c r="J99" t="str">
+        <v>2023-02-02T13:58:00.000Z</v>
+      </c>
+      <c r="K99">
+        <v>7575782610000</v>
+      </c>
+      <c r="L99">
+        <v>440502600</v>
+      </c>
+      <c r="M99">
+        <v>-823200</v>
+      </c>
+      <c r="N99">
+        <v>-16203815000</v>
+      </c>
+      <c r="O99">
+        <v>-48863800</v>
+      </c>
+      <c r="P99">
+        <v>-458693842000</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100">
+        <v>1675346400000</v>
+      </c>
+      <c r="B100">
+        <v>3004100</v>
+      </c>
+      <c r="C100">
+        <v>1540100</v>
+      </c>
+      <c r="D100">
+        <v>87400</v>
+      </c>
+      <c r="E100">
+        <v>52566269000</v>
+      </c>
+      <c r="F100">
+        <v>33061340000</v>
+      </c>
+      <c r="G100">
+        <v>726248000</v>
+      </c>
+      <c r="H100">
+        <v>4631600</v>
+      </c>
+      <c r="I100">
+        <v>86353857000</v>
+      </c>
+      <c r="J100" t="str">
+        <v>2023-02-02T14:00:00.000Z</v>
+      </c>
+      <c r="K100">
+        <v>7662136467000</v>
+      </c>
+      <c r="L100">
+        <v>445134200</v>
+      </c>
+      <c r="M100">
+        <v>-1464000</v>
+      </c>
+      <c r="N100">
+        <v>-19504929000</v>
+      </c>
+      <c r="O100">
+        <v>-50327800</v>
+      </c>
+      <c r="P100">
+        <v>-478198771000</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101">
+        <v>1675346520000</v>
+      </c>
+      <c r="B101">
+        <v>1705700</v>
+      </c>
+      <c r="C101">
+        <v>2032200</v>
+      </c>
+      <c r="D101">
+        <v>16900</v>
+      </c>
+      <c r="E101">
+        <v>31802627000</v>
+      </c>
+      <c r="F101">
+        <v>39407315000</v>
+      </c>
+      <c r="G101">
+        <v>640925000</v>
+      </c>
+      <c r="H101">
+        <v>3754800</v>
+      </c>
+      <c r="I101">
+        <v>71850867000</v>
+      </c>
+      <c r="J101" t="str">
+        <v>2023-02-02T14:02:00.000Z</v>
+      </c>
+      <c r="K101">
+        <v>7733987334000</v>
+      </c>
+      <c r="L101">
+        <v>448889000</v>
+      </c>
+      <c r="M101">
+        <v>326500</v>
+      </c>
+      <c r="N101">
+        <v>7604688000</v>
+      </c>
+      <c r="O101">
+        <v>-50001300</v>
+      </c>
+      <c r="P101">
+        <v>-470594083000</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102">
+        <v>1675346640000</v>
+      </c>
+      <c r="B102">
+        <v>2926600</v>
+      </c>
+      <c r="C102">
+        <v>1210100</v>
+      </c>
+      <c r="D102">
+        <v>7300</v>
+      </c>
+      <c r="E102">
+        <v>76168024000</v>
+      </c>
+      <c r="F102">
+        <v>22017105000</v>
+      </c>
+      <c r="G102">
+        <v>282805000</v>
+      </c>
+      <c r="H102">
+        <v>4144000</v>
+      </c>
+      <c r="I102">
+        <v>98467934000</v>
+      </c>
+      <c r="J102" t="str">
+        <v>2023-02-02T14:04:00.000Z</v>
+      </c>
+      <c r="K102">
+        <v>7832455268000</v>
+      </c>
+      <c r="L102">
+        <v>453033000</v>
+      </c>
+      <c r="M102">
+        <v>-1716500</v>
+      </c>
+      <c r="N102">
+        <v>-54150919000</v>
+      </c>
+      <c r="O102">
+        <v>-51717800</v>
+      </c>
+      <c r="P102">
+        <v>-524745002000</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103">
+        <v>1675346760000</v>
+      </c>
+      <c r="B103">
+        <v>4317400</v>
+      </c>
+      <c r="C103">
+        <v>1391300</v>
+      </c>
+      <c r="D103">
+        <v>134000</v>
+      </c>
+      <c r="E103">
+        <v>75883583000</v>
+      </c>
+      <c r="F103">
+        <v>31405056000</v>
+      </c>
+      <c r="G103">
+        <v>2339351000</v>
+      </c>
+      <c r="H103">
+        <v>5842700</v>
+      </c>
+      <c r="I103">
+        <v>109627990000</v>
+      </c>
+      <c r="J103" t="str">
+        <v>2023-02-02T14:06:00.000Z</v>
+      </c>
+      <c r="K103">
+        <v>7942083258000</v>
+      </c>
+      <c r="L103">
+        <v>458875700</v>
+      </c>
+      <c r="M103">
+        <v>-2926100</v>
+      </c>
+      <c r="N103">
+        <v>-44478527000</v>
+      </c>
+      <c r="O103">
+        <v>-54643900</v>
+      </c>
+      <c r="P103">
+        <v>-569223529000</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104">
+        <v>1675346880000</v>
+      </c>
+      <c r="B104">
+        <v>1184200</v>
+      </c>
+      <c r="C104">
+        <v>2203200</v>
+      </c>
+      <c r="D104">
+        <v>13000</v>
+      </c>
+      <c r="E104">
+        <v>21996021000</v>
+      </c>
+      <c r="F104">
+        <v>41850879000</v>
+      </c>
+      <c r="G104">
+        <v>114925000</v>
+      </c>
+      <c r="H104">
+        <v>3400400</v>
+      </c>
+      <c r="I104">
+        <v>63961825000</v>
+      </c>
+      <c r="J104" t="str">
+        <v>2023-02-02T14:08:00.000Z</v>
+      </c>
+      <c r="K104">
+        <v>8006045083000</v>
+      </c>
+      <c r="L104">
+        <v>462276100</v>
+      </c>
+      <c r="M104">
+        <v>1019000</v>
+      </c>
+      <c r="N104">
+        <v>19854858000</v>
+      </c>
+      <c r="O104">
+        <v>-53624900</v>
+      </c>
+      <c r="P104">
+        <v>-549368671000</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105">
+        <v>1675347000000</v>
+      </c>
+      <c r="B105">
+        <v>2316700</v>
+      </c>
+      <c r="C105">
+        <v>1050000</v>
+      </c>
+      <c r="D105">
+        <v>22100</v>
+      </c>
+      <c r="E105">
+        <v>47744913000</v>
+      </c>
+      <c r="F105">
+        <v>20101931000</v>
+      </c>
+      <c r="G105">
+        <v>226934000</v>
+      </c>
+      <c r="H105">
+        <v>3388800</v>
+      </c>
+      <c r="I105">
+        <v>68073778000</v>
+      </c>
+      <c r="J105" t="str">
+        <v>2023-02-02T14:10:00.000Z</v>
+      </c>
+      <c r="K105">
+        <v>8074118861000</v>
+      </c>
+      <c r="L105">
+        <v>465664900</v>
+      </c>
+      <c r="M105">
+        <v>-1266700</v>
+      </c>
+      <c r="N105">
+        <v>-27642982000</v>
+      </c>
+      <c r="O105">
+        <v>-54891600</v>
+      </c>
+      <c r="P105">
+        <v>-577011653000</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106">
+        <v>1675347120000</v>
+      </c>
+      <c r="B106">
+        <v>4018800</v>
+      </c>
+      <c r="C106">
+        <v>1153600</v>
+      </c>
+      <c r="D106">
+        <v>54400</v>
+      </c>
+      <c r="E106">
+        <v>68275917000</v>
+      </c>
+      <c r="F106">
+        <v>18213790000</v>
+      </c>
+      <c r="G106">
+        <v>735498000</v>
+      </c>
+      <c r="H106">
+        <v>5226800</v>
+      </c>
+      <c r="I106">
+        <v>87225205000</v>
+      </c>
+      <c r="J106" t="str">
+        <v>2023-02-02T14:12:00.000Z</v>
+      </c>
+      <c r="K106">
+        <v>8161344066000</v>
+      </c>
+      <c r="L106">
+        <v>470891700</v>
+      </c>
+      <c r="M106">
+        <v>-2865200</v>
+      </c>
+      <c r="N106">
+        <v>-50062127000</v>
+      </c>
+      <c r="O106">
+        <v>-57756800</v>
+      </c>
+      <c r="P106">
+        <v>-627073780000</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107">
+        <v>1675347240000</v>
+      </c>
+      <c r="B107">
+        <v>4660600</v>
+      </c>
+      <c r="C107">
+        <v>1053900</v>
+      </c>
+      <c r="D107">
+        <v>18500</v>
+      </c>
+      <c r="E107">
+        <v>78943377000</v>
+      </c>
+      <c r="F107">
+        <v>19599884000</v>
+      </c>
+      <c r="G107">
+        <v>411564000</v>
+      </c>
+      <c r="H107">
+        <v>5733000</v>
+      </c>
+      <c r="I107">
+        <v>98954825000</v>
+      </c>
+      <c r="J107" t="str">
+        <v>2023-02-02T14:14:00.000Z</v>
+      </c>
+      <c r="K107">
+        <v>8260298891000</v>
+      </c>
+      <c r="L107">
+        <v>476624700</v>
+      </c>
+      <c r="M107">
+        <v>-3606700</v>
+      </c>
+      <c r="N107">
+        <v>-59343493000</v>
+      </c>
+      <c r="O107">
+        <v>-61363500</v>
+      </c>
+      <c r="P107">
+        <v>-686417273000</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108">
+        <v>1675347360000</v>
+      </c>
+      <c r="B108">
+        <v>15891200</v>
+      </c>
+      <c r="C108">
+        <v>1692200</v>
+      </c>
+      <c r="D108">
+        <v>170400</v>
+      </c>
+      <c r="E108">
+        <v>263332602000</v>
+      </c>
+      <c r="F108">
+        <v>32881639000</v>
+      </c>
+      <c r="G108">
+        <v>2352181000</v>
+      </c>
+      <c r="H108">
+        <v>17753800</v>
+      </c>
+      <c r="I108">
+        <v>298566422000</v>
+      </c>
+      <c r="J108" t="str">
+        <v>2023-02-02T14:16:00.000Z</v>
+      </c>
+      <c r="K108">
+        <v>8558865313000</v>
+      </c>
+      <c r="L108">
+        <v>494378500</v>
+      </c>
+      <c r="M108">
+        <v>-14199000</v>
+      </c>
+      <c r="N108">
+        <v>-230450963000</v>
+      </c>
+      <c r="O108">
+        <v>-75562500</v>
+      </c>
+      <c r="P108">
+        <v>-916868236000</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109">
+        <v>1675347480000</v>
+      </c>
+      <c r="B109">
+        <v>8938300</v>
+      </c>
+      <c r="C109">
+        <v>3289200</v>
+      </c>
+      <c r="D109">
+        <v>165700</v>
+      </c>
+      <c r="E109">
+        <v>131592427000</v>
+      </c>
+      <c r="F109">
+        <v>60552742000</v>
+      </c>
+      <c r="G109">
+        <v>2349656000</v>
+      </c>
+      <c r="H109">
+        <v>12393200</v>
+      </c>
+      <c r="I109">
+        <v>194494825000</v>
+      </c>
+      <c r="J109" t="str">
+        <v>2023-02-02T14:18:00.000Z</v>
+      </c>
+      <c r="K109">
+        <v>8753360138000</v>
+      </c>
+      <c r="L109">
+        <v>506771700</v>
+      </c>
+      <c r="M109">
+        <v>-5649100</v>
+      </c>
+      <c r="N109">
+        <v>-71039685000</v>
+      </c>
+      <c r="O109">
+        <v>-81211600</v>
+      </c>
+      <c r="P109">
+        <v>-987907921000</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110">
+        <v>1675347600000</v>
+      </c>
+      <c r="B110">
+        <v>2908600</v>
+      </c>
+      <c r="C110">
+        <v>4441600</v>
+      </c>
+      <c r="D110">
+        <v>24400</v>
+      </c>
+      <c r="E110">
+        <v>43403492000</v>
+      </c>
+      <c r="F110">
+        <v>77681265000</v>
+      </c>
+      <c r="G110">
+        <v>1060055000</v>
+      </c>
+      <c r="H110">
+        <v>7374600</v>
+      </c>
+      <c r="I110">
+        <v>122144812000</v>
+      </c>
+      <c r="J110" t="str">
+        <v>2023-02-02T14:20:00.000Z</v>
+      </c>
+      <c r="K110">
+        <v>8875504950000</v>
+      </c>
+      <c r="L110">
+        <v>514146300</v>
+      </c>
+      <c r="M110">
+        <v>1533000</v>
+      </c>
+      <c r="N110">
+        <v>34277773000</v>
+      </c>
+      <c r="O110">
+        <v>-79678600</v>
+      </c>
+      <c r="P110">
+        <v>-953630148000</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111">
+        <v>1675347720000</v>
+      </c>
+      <c r="B111">
+        <v>1547900</v>
+      </c>
+      <c r="C111">
+        <v>4408600</v>
+      </c>
+      <c r="D111">
+        <v>15300</v>
+      </c>
+      <c r="E111">
+        <v>24594045000</v>
+      </c>
+      <c r="F111">
+        <v>82450013000</v>
+      </c>
+      <c r="G111">
+        <v>505165000</v>
+      </c>
+      <c r="H111">
+        <v>5971800</v>
+      </c>
+      <c r="I111">
+        <v>107549223000</v>
+      </c>
+      <c r="J111" t="str">
+        <v>2023-02-02T14:22:00.000Z</v>
+      </c>
+      <c r="K111">
+        <v>8983054173000</v>
+      </c>
+      <c r="L111">
+        <v>520118100</v>
+      </c>
+      <c r="M111">
+        <v>2860700</v>
+      </c>
+      <c r="N111">
+        <v>57855968000</v>
+      </c>
+      <c r="O111">
+        <v>-76817900</v>
+      </c>
+      <c r="P111">
+        <v>-895774180000</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112">
+        <v>1675347840000</v>
+      </c>
+      <c r="B112">
+        <v>2843400</v>
+      </c>
+      <c r="C112">
+        <v>2308300</v>
+      </c>
+      <c r="D112">
+        <v>55900</v>
+      </c>
+      <c r="E112">
+        <v>49392905000</v>
+      </c>
+      <c r="F112">
+        <v>41131996000</v>
+      </c>
+      <c r="G112">
+        <v>1313870000</v>
+      </c>
+      <c r="H112">
+        <v>5207600</v>
+      </c>
+      <c r="I112">
+        <v>91838771000</v>
+      </c>
+      <c r="J112" t="str">
+        <v>2023-02-02T14:24:00.000Z</v>
+      </c>
+      <c r="K112">
+        <v>9074892944000</v>
+      </c>
+      <c r="L112">
+        <v>525325700</v>
+      </c>
+      <c r="M112">
+        <v>-535100</v>
+      </c>
+      <c r="N112">
+        <v>-8260909000</v>
+      </c>
+      <c r="O112">
+        <v>-77353000</v>
+      </c>
+      <c r="P112">
+        <v>-904035089000</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113">
+        <v>1675347960000</v>
+      </c>
+      <c r="B113">
+        <v>3271000</v>
+      </c>
+      <c r="C113">
+        <v>1705600</v>
+      </c>
+      <c r="D113">
+        <v>1500</v>
+      </c>
+      <c r="E113">
+        <v>52070650000</v>
+      </c>
+      <c r="F113">
+        <v>30823659000</v>
+      </c>
+      <c r="G113">
+        <v>29022000</v>
+      </c>
+      <c r="H113">
+        <v>4978100</v>
+      </c>
+      <c r="I113">
+        <v>82923331000</v>
+      </c>
+      <c r="J113" t="str">
+        <v>2023-02-02T14:26:00.000Z</v>
+      </c>
+      <c r="K113">
+        <v>9157816275000</v>
+      </c>
+      <c r="L113">
+        <v>530303800</v>
+      </c>
+      <c r="M113">
+        <v>-1565400</v>
+      </c>
+      <c r="N113">
+        <v>-21246991000</v>
+      </c>
+      <c r="O113">
+        <v>-78918400</v>
+      </c>
+      <c r="P113">
+        <v>-925282080000</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114">
+        <v>1675348080000</v>
+      </c>
+      <c r="B114">
+        <v>3929500</v>
+      </c>
+      <c r="C114">
+        <v>3377100</v>
+      </c>
+      <c r="D114">
+        <v>53000</v>
+      </c>
+      <c r="E114">
+        <v>63314395000</v>
+      </c>
+      <c r="F114">
+        <v>54065457000</v>
+      </c>
+      <c r="G114">
+        <v>825541000</v>
+      </c>
+      <c r="H114">
+        <v>7359600</v>
+      </c>
+      <c r="I114">
+        <v>118205393000</v>
+      </c>
+      <c r="J114" t="str">
+        <v>2023-02-02T14:28:00.000Z</v>
+      </c>
+      <c r="K114">
+        <v>9276021668000</v>
+      </c>
+      <c r="L114">
+        <v>537663400</v>
+      </c>
+      <c r="M114">
+        <v>-552400</v>
+      </c>
+      <c r="N114">
+        <v>-9248938000</v>
+      </c>
+      <c r="O114">
+        <v>-79470800</v>
+      </c>
+      <c r="P114">
+        <v>-934531018000</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115">
+        <v>1675348200000</v>
+      </c>
+      <c r="B115">
+        <v>1600</v>
+      </c>
+      <c r="C115">
+        <v>4500</v>
+      </c>
+      <c r="D115">
+        <v>0</v>
+      </c>
+      <c r="E115">
+        <v>36760000</v>
+      </c>
+      <c r="F115">
+        <v>62750000</v>
+      </c>
+      <c r="G115">
+        <v>0</v>
+      </c>
+      <c r="H115">
+        <v>6100</v>
+      </c>
+      <c r="I115">
+        <v>99510000</v>
+      </c>
+      <c r="J115" t="str">
+        <v>2023-02-02T14:30:00.000Z</v>
+      </c>
+      <c r="K115">
+        <v>9276121178000</v>
+      </c>
+      <c r="L115">
+        <v>537669500</v>
+      </c>
+      <c r="M115">
+        <v>2900</v>
+      </c>
+      <c r="N115">
+        <v>25990000</v>
+      </c>
+      <c r="O115">
+        <v>-79467900</v>
+      </c>
+      <c r="P115">
+        <v>-934505028000</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116">
+        <v>1675349040000</v>
+      </c>
+      <c r="B116">
+        <v>852900</v>
+      </c>
+      <c r="C116">
+        <v>921600</v>
+      </c>
+      <c r="D116">
+        <v>25632000</v>
+      </c>
+      <c r="E116">
+        <v>13025175000</v>
+      </c>
+      <c r="F116">
+        <v>15919493000</v>
+      </c>
+      <c r="G116">
+        <v>553963797000</v>
+      </c>
+      <c r="H116">
+        <v>27406500</v>
+      </c>
+      <c r="I116">
+        <v>582908465000</v>
+      </c>
+      <c r="J116" t="str">
+        <v>2023-02-02T14:44:00.000Z</v>
+      </c>
+      <c r="K116">
         <v>9859029643000</v>
       </c>
-      <c r="L50">
+      <c r="L116">
         <v>565076000</v>
       </c>
-      <c r="M50">
-        <v>136300</v>
-      </c>
-      <c r="N50">
-        <v>4420941000</v>
-      </c>
-      <c r="O50">
+      <c r="M116">
+        <v>68700</v>
+      </c>
+      <c r="N116">
+        <v>2894318000</v>
+      </c>
+      <c r="O116">
         <v>-79399200</v>
       </c>
-      <c r="P50">
+      <c r="P116">
         <v>-931610710000</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P50"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
   </ignoredErrors>
 </worksheet>
 </file>
--- a/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
+++ b/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
@@ -466,25 +466,25 @@
         <v>1357800</v>
       </c>
       <c r="E2">
-        <v>121331672000</v>
+        <v>108073543400</v>
       </c>
       <c r="F2">
-        <v>86844740000</v>
+        <v>80029162400</v>
       </c>
       <c r="G2">
-        <v>20665766000</v>
+        <v>17696738000</v>
       </c>
       <c r="H2">
         <v>13296900</v>
       </c>
       <c r="I2">
-        <v>228842178000</v>
+        <v>205799443800</v>
       </c>
       <c r="J2" t="str">
         <v>2023-02-02T09:14:00.000Z</v>
       </c>
       <c r="K2">
-        <v>228842178000</v>
+        <v>205799443800</v>
       </c>
       <c r="L2">
         <v>13296900</v>
@@ -493,13 +493,13 @@
         <v>-1927900</v>
       </c>
       <c r="N2">
-        <v>-34486932000</v>
+        <v>-28044381000</v>
       </c>
       <c r="O2">
         <v>-1927900</v>
       </c>
       <c r="P2">
-        <v>-34486932000</v>
+        <v>-28044381000</v>
       </c>
     </row>
     <row r="3">
@@ -516,25 +516,25 @@
         <v>67900</v>
       </c>
       <c r="E3">
-        <v>58813232000</v>
+        <v>53930419700</v>
       </c>
       <c r="F3">
-        <v>95287611000</v>
+        <v>85370737800</v>
       </c>
       <c r="G3">
-        <v>990171000</v>
+        <v>987174000</v>
       </c>
       <c r="H3">
         <v>9201600</v>
       </c>
       <c r="I3">
-        <v>155091014000</v>
+        <v>140288331500</v>
       </c>
       <c r="J3" t="str">
         <v>2023-02-02T09:16:00.000Z</v>
       </c>
       <c r="K3">
-        <v>383933192000</v>
+        <v>346087775300</v>
       </c>
       <c r="L3">
         <v>22498500</v>
@@ -543,13 +543,13 @@
         <v>2092900</v>
       </c>
       <c r="N3">
-        <v>36474379000</v>
+        <v>31440318100</v>
       </c>
       <c r="O3">
         <v>165000</v>
       </c>
       <c r="P3">
-        <v>1987447000</v>
+        <v>3395937100</v>
       </c>
     </row>
     <row r="4">
@@ -566,25 +566,25 @@
         <v>51100</v>
       </c>
       <c r="E4">
-        <v>80930571000</v>
+        <v>66712303500</v>
       </c>
       <c r="F4">
-        <v>72019426000</v>
+        <v>67945703800</v>
       </c>
       <c r="G4">
-        <v>699069000</v>
+        <v>692875200</v>
       </c>
       <c r="H4">
         <v>9310000</v>
       </c>
       <c r="I4">
-        <v>153649066000</v>
+        <v>135350882500</v>
       </c>
       <c r="J4" t="str">
         <v>2023-02-02T09:18:00.000Z</v>
       </c>
       <c r="K4">
-        <v>537582258000</v>
+        <v>481438657800</v>
       </c>
       <c r="L4">
         <v>31808500</v>
@@ -593,13 +593,13 @@
         <v>-719100</v>
       </c>
       <c r="N4">
-        <v>-8911145000</v>
+        <v>1233400300</v>
       </c>
       <c r="O4">
         <v>-554100</v>
       </c>
       <c r="P4">
-        <v>-6923698000</v>
+        <v>4629337400</v>
       </c>
     </row>
     <row r="5">
@@ -616,25 +616,25 @@
         <v>154500</v>
       </c>
       <c r="E5">
-        <v>159623414000</v>
+        <v>142451303300</v>
       </c>
       <c r="F5">
-        <v>45971907000</v>
+        <v>43086795000</v>
       </c>
       <c r="G5">
-        <v>2733816000</v>
+        <v>2655494400</v>
       </c>
       <c r="H5">
         <v>12573500</v>
       </c>
       <c r="I5">
-        <v>208329137000</v>
+        <v>188193592700</v>
       </c>
       <c r="J5" t="str">
         <v>2023-02-02T09:20:00.000Z</v>
       </c>
       <c r="K5">
-        <v>745911395000</v>
+        <v>669632250500</v>
       </c>
       <c r="L5">
         <v>44382000</v>
@@ -643,13 +643,13 @@
         <v>-7015200</v>
       </c>
       <c r="N5">
-        <v>-113651507000</v>
+        <v>-99364508300</v>
       </c>
       <c r="O5">
         <v>-7569300</v>
       </c>
       <c r="P5">
-        <v>-120575205000</v>
+        <v>-94735170900</v>
       </c>
     </row>
     <row r="6">
@@ -666,25 +666,25 @@
         <v>62300</v>
       </c>
       <c r="E6">
-        <v>155932725000</v>
+        <v>141280591800</v>
       </c>
       <c r="F6">
-        <v>37934938000</v>
+        <v>34374601900</v>
       </c>
       <c r="G6">
-        <v>1115212000</v>
+        <v>1067060200</v>
       </c>
       <c r="H6">
         <v>11824300</v>
       </c>
       <c r="I6">
-        <v>194982875000</v>
+        <v>176722253900</v>
       </c>
       <c r="J6" t="str">
         <v>2023-02-02T09:22:00.000Z</v>
       </c>
       <c r="K6">
-        <v>940894270000</v>
+        <v>846354504400</v>
       </c>
       <c r="L6">
         <v>56206300</v>
@@ -693,13 +693,13 @@
         <v>-7139000</v>
       </c>
       <c r="N6">
-        <v>-117997787000</v>
+        <v>-106905989900</v>
       </c>
       <c r="O6">
         <v>-14708300</v>
       </c>
       <c r="P6">
-        <v>-238572992000</v>
+        <v>-201641160800</v>
       </c>
     </row>
     <row r="7">
@@ -716,25 +716,25 @@
         <v>49200</v>
       </c>
       <c r="E7">
-        <v>118841931000</v>
+        <v>113138440200</v>
       </c>
       <c r="F7">
-        <v>68096815000</v>
+        <v>63966149800</v>
       </c>
       <c r="G7">
-        <v>932045000</v>
+        <v>855521600</v>
       </c>
       <c r="H7">
         <v>10862200</v>
       </c>
       <c r="I7">
-        <v>187870791000</v>
+        <v>177960111600</v>
       </c>
       <c r="J7" t="str">
         <v>2023-02-02T09:24:00.000Z</v>
       </c>
       <c r="K7">
-        <v>1128765061000</v>
+        <v>1024314616000</v>
       </c>
       <c r="L7">
         <v>67068500</v>
@@ -743,13 +743,13 @@
         <v>-3459800</v>
       </c>
       <c r="N7">
-        <v>-50745116000</v>
+        <v>-49172290400</v>
       </c>
       <c r="O7">
         <v>-18168100</v>
       </c>
       <c r="P7">
-        <v>-289318108000</v>
+        <v>-250813451200</v>
       </c>
     </row>
     <row r="8">
@@ -766,25 +766,25 @@
         <v>13500</v>
       </c>
       <c r="E8">
-        <v>37333684000</v>
+        <v>35704614700</v>
       </c>
       <c r="F8">
-        <v>69117229000</v>
+        <v>65388061900</v>
       </c>
       <c r="G8">
-        <v>316437000</v>
+        <v>272680800</v>
       </c>
       <c r="H8">
         <v>6542400</v>
       </c>
       <c r="I8">
-        <v>106767350000</v>
+        <v>101365357400</v>
       </c>
       <c r="J8" t="str">
         <v>2023-02-02T09:26:00.000Z</v>
       </c>
       <c r="K8">
-        <v>1235532411000</v>
+        <v>1125679973400</v>
       </c>
       <c r="L8">
         <v>73610900</v>
@@ -793,13 +793,13 @@
         <v>1829100</v>
       </c>
       <c r="N8">
-        <v>31783545000</v>
+        <v>29683447200</v>
       </c>
       <c r="O8">
         <v>-16339000</v>
       </c>
       <c r="P8">
-        <v>-257534563000</v>
+        <v>-221130004000</v>
       </c>
     </row>
     <row r="9">
@@ -816,10 +816,10 @@
         <v>24600</v>
       </c>
       <c r="E9">
-        <v>27723737000</v>
+        <v>26808153500</v>
       </c>
       <c r="F9">
-        <v>54931518000</v>
+        <v>52163888400</v>
       </c>
       <c r="G9">
         <v>386345000</v>
@@ -828,13 +828,13 @@
         <v>5111800</v>
       </c>
       <c r="I9">
-        <v>83041600000</v>
+        <v>79358386900</v>
       </c>
       <c r="J9" t="str">
         <v>2023-02-02T09:28:00.000Z</v>
       </c>
       <c r="K9">
-        <v>1318574011000</v>
+        <v>1205038360300</v>
       </c>
       <c r="L9">
         <v>78722700</v>
@@ -843,13 +843,13 @@
         <v>1452800</v>
       </c>
       <c r="N9">
-        <v>27207781000</v>
+        <v>25355734900</v>
       </c>
       <c r="O9">
         <v>-14886200</v>
       </c>
       <c r="P9">
-        <v>-230326782000</v>
+        <v>-195774269100</v>
       </c>
     </row>
     <row r="10">
@@ -866,10 +866,10 @@
         <v>26100</v>
       </c>
       <c r="E10">
-        <v>22465236000</v>
+        <v>21663638400</v>
       </c>
       <c r="F10">
-        <v>72501835000</v>
+        <v>68223917200</v>
       </c>
       <c r="G10">
         <v>402488000</v>
@@ -878,13 +878,13 @@
         <v>5641100</v>
       </c>
       <c r="I10">
-        <v>95369559000</v>
+        <v>90290043600</v>
       </c>
       <c r="J10" t="str">
         <v>2023-02-02T09:30:00.000Z</v>
       </c>
       <c r="K10">
-        <v>1413943570000</v>
+        <v>1295328403900</v>
       </c>
       <c r="L10">
         <v>84363800</v>
@@ -893,13 +893,13 @@
         <v>2619800</v>
       </c>
       <c r="N10">
-        <v>50036599000</v>
+        <v>46560278800</v>
       </c>
       <c r="O10">
         <v>-12266400</v>
       </c>
       <c r="P10">
-        <v>-180290183000</v>
+        <v>-149213990300</v>
       </c>
     </row>
     <row r="11">
@@ -916,25 +916,25 @@
         <v>16300</v>
       </c>
       <c r="E11">
-        <v>24259466000</v>
+        <v>23030995700</v>
       </c>
       <c r="F11">
-        <v>61637322000</v>
+        <v>55451014500</v>
       </c>
       <c r="G11">
-        <v>451830000</v>
+        <v>443138700</v>
       </c>
       <c r="H11">
         <v>4933900</v>
       </c>
       <c r="I11">
-        <v>86348618000</v>
+        <v>78925148900</v>
       </c>
       <c r="J11" t="str">
         <v>2023-02-02T09:32:00.000Z</v>
       </c>
       <c r="K11">
-        <v>1500292188000</v>
+        <v>1374253552800</v>
       </c>
       <c r="L11">
         <v>89297700</v>
@@ -943,13 +943,13 @@
         <v>2100600</v>
       </c>
       <c r="N11">
-        <v>37377856000</v>
+        <v>32420018800</v>
       </c>
       <c r="O11">
         <v>-10165800</v>
       </c>
       <c r="P11">
-        <v>-142912327000</v>
+        <v>-116793971500</v>
       </c>
     </row>
     <row r="12">
@@ -966,25 +966,25 @@
         <v>18000</v>
       </c>
       <c r="E12">
-        <v>30024506000</v>
+        <v>27455377700</v>
       </c>
       <c r="F12">
-        <v>40031199000</v>
+        <v>33337099800</v>
       </c>
       <c r="G12">
-        <v>449795000</v>
+        <v>419825000</v>
       </c>
       <c r="H12">
         <v>4299700</v>
       </c>
       <c r="I12">
-        <v>70505500000</v>
+        <v>61212302500</v>
       </c>
       <c r="J12" t="str">
         <v>2023-02-02T09:34:00.000Z</v>
       </c>
       <c r="K12">
-        <v>1570797688000</v>
+        <v>1435465855300</v>
       </c>
       <c r="L12">
         <v>93597400</v>
@@ -993,13 +993,13 @@
         <v>288500</v>
       </c>
       <c r="N12">
-        <v>10006693000</v>
+        <v>5881722100</v>
       </c>
       <c r="O12">
         <v>-9877300</v>
       </c>
       <c r="P12">
-        <v>-132905634000</v>
+        <v>-110912249400</v>
       </c>
     </row>
     <row r="13">
@@ -1016,10 +1016,10 @@
         <v>6300</v>
       </c>
       <c r="E13">
-        <v>44591736000</v>
+        <v>42227103000</v>
       </c>
       <c r="F13">
-        <v>23008317000</v>
+        <v>20959667700</v>
       </c>
       <c r="G13">
         <v>234832000</v>
@@ -1028,13 +1028,13 @@
         <v>4247100</v>
       </c>
       <c r="I13">
-        <v>67834885000</v>
+        <v>63421602700</v>
       </c>
       <c r="J13" t="str">
         <v>2023-02-02T09:36:00.000Z</v>
       </c>
       <c r="K13">
-        <v>1638632573000</v>
+        <v>1498887458000</v>
       </c>
       <c r="L13">
         <v>97844500</v>
@@ -1043,13 +1043,13 @@
         <v>-1277600</v>
       </c>
       <c r="N13">
-        <v>-21583419000</v>
+        <v>-21267435300</v>
       </c>
       <c r="O13">
         <v>-11154900</v>
       </c>
       <c r="P13">
-        <v>-154489053000</v>
+        <v>-132179684700</v>
       </c>
     </row>
     <row r="14">
@@ -1066,10 +1066,10 @@
         <v>2900</v>
       </c>
       <c r="E14">
-        <v>62437072000</v>
+        <v>58296217000</v>
       </c>
       <c r="F14">
-        <v>19279333000</v>
+        <v>17728984900</v>
       </c>
       <c r="G14">
         <v>85562000</v>
@@ -1078,13 +1078,13 @@
         <v>5184000</v>
       </c>
       <c r="I14">
-        <v>81801967000</v>
+        <v>76110763900</v>
       </c>
       <c r="J14" t="str">
         <v>2023-02-02T09:38:00.000Z</v>
       </c>
       <c r="K14">
-        <v>1720434540000</v>
+        <v>1574998221900</v>
       </c>
       <c r="L14">
         <v>103028500</v>
@@ -1093,13 +1093,13 @@
         <v>-2777900</v>
       </c>
       <c r="N14">
-        <v>-43157739000</v>
+        <v>-40567232100</v>
       </c>
       <c r="O14">
         <v>-13932800</v>
       </c>
       <c r="P14">
-        <v>-197646792000</v>
+        <v>-172746916800</v>
       </c>
     </row>
     <row r="15">
@@ -1116,10 +1116,10 @@
         <v>13200</v>
       </c>
       <c r="E15">
-        <v>47187782000</v>
+        <v>41941133900</v>
       </c>
       <c r="F15">
-        <v>17469382000</v>
+        <v>16451201200</v>
       </c>
       <c r="G15">
         <v>96333000</v>
@@ -1128,13 +1128,13 @@
         <v>3883500</v>
       </c>
       <c r="I15">
-        <v>64753497000</v>
+        <v>58488668100</v>
       </c>
       <c r="J15" t="str">
         <v>2023-02-02T09:40:00.000Z</v>
       </c>
       <c r="K15">
-        <v>1785188037000</v>
+        <v>1633486890000</v>
       </c>
       <c r="L15">
         <v>106912000</v>
@@ -1143,13 +1143,13 @@
         <v>-1619900</v>
       </c>
       <c r="N15">
-        <v>-29718400000</v>
+        <v>-25489932700</v>
       </c>
       <c r="O15">
         <v>-15552700</v>
       </c>
       <c r="P15">
-        <v>-227365192000</v>
+        <v>-198236849500</v>
       </c>
     </row>
     <row r="16">
@@ -1166,10 +1166,10 @@
         <v>5300</v>
       </c>
       <c r="E16">
-        <v>36639643000</v>
+        <v>33082803400</v>
       </c>
       <c r="F16">
-        <v>23852672000</v>
+        <v>22013313200</v>
       </c>
       <c r="G16">
         <v>107265000</v>
@@ -1178,13 +1178,13 @@
         <v>3722000</v>
       </c>
       <c r="I16">
-        <v>60599580000</v>
+        <v>55203381600</v>
       </c>
       <c r="J16" t="str">
         <v>2023-02-02T09:42:00.000Z</v>
       </c>
       <c r="K16">
-        <v>1845787617000</v>
+        <v>1688690271600</v>
       </c>
       <c r="L16">
         <v>110634000</v>
@@ -1193,13 +1193,13 @@
         <v>-1029500</v>
       </c>
       <c r="N16">
-        <v>-12786971000</v>
+        <v>-11069490200</v>
       </c>
       <c r="O16">
         <v>-16582200</v>
       </c>
       <c r="P16">
-        <v>-240152163000</v>
+        <v>-209306339700</v>
       </c>
     </row>
     <row r="17">
@@ -1216,10 +1216,10 @@
         <v>41800</v>
       </c>
       <c r="E17">
-        <v>34435755000</v>
+        <v>32957834400</v>
       </c>
       <c r="F17">
-        <v>39830270000</v>
+        <v>37618583900</v>
       </c>
       <c r="G17">
         <v>499780000</v>
@@ -1228,13 +1228,13 @@
         <v>4361500</v>
       </c>
       <c r="I17">
-        <v>74765805000</v>
+        <v>71076198300</v>
       </c>
       <c r="J17" t="str">
         <v>2023-02-02T09:44:00.000Z</v>
       </c>
       <c r="K17">
-        <v>1920553422000</v>
+        <v>1759766469900</v>
       </c>
       <c r="L17">
         <v>114995500</v>
@@ -1243,13 +1243,13 @@
         <v>-358500</v>
       </c>
       <c r="N17">
-        <v>5394515000</v>
+        <v>4660749500</v>
       </c>
       <c r="O17">
         <v>-16940700</v>
       </c>
       <c r="P17">
-        <v>-234757648000</v>
+        <v>-204645590200</v>
       </c>
     </row>
     <row r="18">
@@ -1266,25 +1266,25 @@
         <v>7400</v>
       </c>
       <c r="E18">
-        <v>16706221000</v>
+        <v>16193234500</v>
       </c>
       <c r="F18">
-        <v>32454114000</v>
+        <v>30126943500</v>
       </c>
       <c r="G18">
-        <v>158871000</v>
+        <v>135794100</v>
       </c>
       <c r="H18">
         <v>2906300</v>
       </c>
       <c r="I18">
-        <v>49319206000</v>
+        <v>46455972100</v>
       </c>
       <c r="J18" t="str">
         <v>2023-02-02T09:46:00.000Z</v>
       </c>
       <c r="K18">
-        <v>1969872628000</v>
+        <v>1806222442000</v>
       </c>
       <c r="L18">
         <v>117901800</v>
@@ -1293,13 +1293,13 @@
         <v>674100</v>
       </c>
       <c r="N18">
-        <v>15747893000</v>
+        <v>13933709000</v>
       </c>
       <c r="O18">
         <v>-16266600</v>
       </c>
       <c r="P18">
-        <v>-219009755000</v>
+        <v>-190711881200</v>
       </c>
     </row>
     <row r="19">
@@ -1316,10 +1316,10 @@
         <v>1400</v>
       </c>
       <c r="E19">
-        <v>13313008000</v>
+        <v>12322399600</v>
       </c>
       <c r="F19">
-        <v>29283499000</v>
+        <v>28201482100</v>
       </c>
       <c r="G19">
         <v>13426000</v>
@@ -1328,13 +1328,13 @@
         <v>2665200</v>
       </c>
       <c r="I19">
-        <v>42609933000</v>
+        <v>40537307700</v>
       </c>
       <c r="J19" t="str">
         <v>2023-02-02T09:48:00.000Z</v>
       </c>
       <c r="K19">
-        <v>2012482561000</v>
+        <v>1846759749700</v>
       </c>
       <c r="L19">
         <v>120567000</v>
@@ -1343,13 +1343,13 @@
         <v>806000</v>
       </c>
       <c r="N19">
-        <v>15970491000</v>
+        <v>15879082500</v>
       </c>
       <c r="O19">
         <v>-15460600</v>
       </c>
       <c r="P19">
-        <v>-203039264000</v>
+        <v>-174832798700</v>
       </c>
     </row>
     <row r="20">
@@ -1366,10 +1366,10 @@
         <v>2000</v>
       </c>
       <c r="E20">
-        <v>37537114000</v>
+        <v>34809644200</v>
       </c>
       <c r="F20">
-        <v>16780944000</v>
+        <v>15664761300</v>
       </c>
       <c r="G20">
         <v>53834000</v>
@@ -1378,13 +1378,13 @@
         <v>3276700</v>
       </c>
       <c r="I20">
-        <v>54371892000</v>
+        <v>50528239500</v>
       </c>
       <c r="J20" t="str">
         <v>2023-02-02T09:50:00.000Z</v>
       </c>
       <c r="K20">
-        <v>2066854453000</v>
+        <v>1897287989200</v>
       </c>
       <c r="L20">
         <v>123843700</v>
@@ -1393,13 +1393,13 @@
         <v>-1279900</v>
       </c>
       <c r="N20">
-        <v>-20756170000</v>
+        <v>-19144882900</v>
       </c>
       <c r="O20">
         <v>-16740500</v>
       </c>
       <c r="P20">
-        <v>-223795434000</v>
+        <v>-193977681600</v>
       </c>
     </row>
     <row r="21">
@@ -1416,25 +1416,25 @@
         <v>4100</v>
       </c>
       <c r="E21">
-        <v>64346796000</v>
+        <v>62572572000</v>
       </c>
       <c r="F21">
-        <v>15627526000</v>
+        <v>14484370300</v>
       </c>
       <c r="G21">
-        <v>125898000.00000001</v>
+        <v>119904000.00000001</v>
       </c>
       <c r="H21">
         <v>4752900</v>
       </c>
       <c r="I21">
-        <v>80100220000</v>
+        <v>77176846300</v>
       </c>
       <c r="J21" t="str">
         <v>2023-02-02T09:52:00.000Z</v>
       </c>
       <c r="K21">
-        <v>2146954673000</v>
+        <v>1974464835500</v>
       </c>
       <c r="L21">
         <v>128596600</v>
@@ -1443,13 +1443,13 @@
         <v>-2691600</v>
       </c>
       <c r="N21">
-        <v>-48719270000</v>
+        <v>-48088201700</v>
       </c>
       <c r="O21">
         <v>-19432100</v>
       </c>
       <c r="P21">
-        <v>-272514704000</v>
+        <v>-242065883300</v>
       </c>
     </row>
     <row r="22">
@@ -1466,10 +1466,10 @@
         <v>400</v>
       </c>
       <c r="E22">
-        <v>33777424000</v>
+        <v>33334667200</v>
       </c>
       <c r="F22">
-        <v>11417694000</v>
+        <v>11227784100</v>
       </c>
       <c r="G22">
         <v>29160000.000000004</v>
@@ -1478,13 +1478,13 @@
         <v>3157100</v>
       </c>
       <c r="I22">
-        <v>45224278000</v>
+        <v>44591611300</v>
       </c>
       <c r="J22" t="str">
         <v>2023-02-02T09:54:00.000Z</v>
       </c>
       <c r="K22">
-        <v>2192178951000</v>
+        <v>2019056446800</v>
       </c>
       <c r="L22">
         <v>131753700</v>
@@ -1493,13 +1493,13 @@
         <v>-1845900</v>
       </c>
       <c r="N22">
-        <v>-22359730000</v>
+        <v>-22106883100</v>
       </c>
       <c r="O22">
         <v>-21278000</v>
       </c>
       <c r="P22">
-        <v>-294874434000</v>
+        <v>-264172766400</v>
       </c>
     </row>
     <row r="23">
@@ -1516,10 +1516,10 @@
         <v>22200</v>
       </c>
       <c r="E23">
-        <v>41849814000</v>
+        <v>40012253400</v>
       </c>
       <c r="F23">
-        <v>20043104000</v>
+        <v>19478669000</v>
       </c>
       <c r="G23">
         <v>307794000</v>
@@ -1528,13 +1528,13 @@
         <v>4249300</v>
       </c>
       <c r="I23">
-        <v>62200712000</v>
+        <v>59798716400</v>
       </c>
       <c r="J23" t="str">
         <v>2023-02-02T09:56:00.000Z</v>
       </c>
       <c r="K23">
-        <v>2254379663000</v>
+        <v>2078855163200</v>
       </c>
       <c r="L23">
         <v>136003000</v>
@@ -1543,13 +1543,13 @@
         <v>-1785900</v>
       </c>
       <c r="N23">
-        <v>-21806710000</v>
+        <v>-20533584400</v>
       </c>
       <c r="O23">
         <v>-23063900</v>
       </c>
       <c r="P23">
-        <v>-316681144000</v>
+        <v>-284706350800</v>
       </c>
     </row>
     <row r="24">
@@ -1566,10 +1566,10 @@
         <v>39400</v>
       </c>
       <c r="E24">
-        <v>28229687000</v>
+        <v>24421798700</v>
       </c>
       <c r="F24">
-        <v>28762900000</v>
+        <v>27859804000</v>
       </c>
       <c r="G24">
         <v>912775000</v>
@@ -1578,13 +1578,13 @@
         <v>3681100</v>
       </c>
       <c r="I24">
-        <v>57905362000</v>
+        <v>53194377700</v>
       </c>
       <c r="J24" t="str">
         <v>2023-02-02T09:58:00.000Z</v>
       </c>
       <c r="K24">
-        <v>2312285025000</v>
+        <v>2132049540900</v>
       </c>
       <c r="L24">
         <v>139684100</v>
@@ -1593,13 +1593,13 @@
         <v>-482100</v>
       </c>
       <c r="N24">
-        <v>533213000</v>
+        <v>3438005300</v>
       </c>
       <c r="O24">
         <v>-23546000</v>
       </c>
       <c r="P24">
-        <v>-316147931000</v>
+        <v>-281268345500</v>
       </c>
     </row>
     <row r="25">
@@ -1616,10 +1616,10 @@
         <v>2600</v>
       </c>
       <c r="E25">
-        <v>19649256000</v>
+        <v>17176231500</v>
       </c>
       <c r="F25">
-        <v>20811603000</v>
+        <v>20153761500</v>
       </c>
       <c r="G25">
         <v>32471000</v>
@@ -1628,13 +1628,13 @@
         <v>2372500</v>
       </c>
       <c r="I25">
-        <v>40493330000</v>
+        <v>37362464000</v>
       </c>
       <c r="J25" t="str">
         <v>2023-02-02T10:00:00.000Z</v>
       </c>
       <c r="K25">
-        <v>2352778355000</v>
+        <v>2169412004900</v>
       </c>
       <c r="L25">
         <v>142056600</v>
@@ -1643,13 +1643,13 @@
         <v>222100</v>
       </c>
       <c r="N25">
-        <v>1162347000</v>
+        <v>2977530000</v>
       </c>
       <c r="O25">
         <v>-23323900</v>
       </c>
       <c r="P25">
-        <v>-314985584000</v>
+        <v>-278290815500</v>
       </c>
     </row>
     <row r="26">
@@ -1666,10 +1666,10 @@
         <v>75400</v>
       </c>
       <c r="E26">
-        <v>32290452000</v>
+        <v>32054088600</v>
       </c>
       <c r="F26">
-        <v>19623892000</v>
+        <v>18212904400</v>
       </c>
       <c r="G26">
         <v>1031626000</v>
@@ -1678,13 +1678,13 @@
         <v>3386100</v>
       </c>
       <c r="I26">
-        <v>52945970000</v>
+        <v>51298619000</v>
       </c>
       <c r="J26" t="str">
         <v>2023-02-02T10:02:00.000Z</v>
       </c>
       <c r="K26">
-        <v>2405724325000</v>
+        <v>2220710623900</v>
       </c>
       <c r="L26">
         <v>145442700</v>
@@ -1693,13 +1693,13 @@
         <v>-821700</v>
       </c>
       <c r="N26">
-        <v>-12666560000</v>
+        <v>-13841184200</v>
       </c>
       <c r="O26">
         <v>-24145600</v>
       </c>
       <c r="P26">
-        <v>-327652144000</v>
+        <v>-292131999700</v>
       </c>
     </row>
     <row r="27">
@@ -1716,25 +1716,25 @@
         <v>6100</v>
       </c>
       <c r="E27">
-        <v>33249269000</v>
+        <v>32308910300</v>
       </c>
       <c r="F27">
-        <v>15414627000</v>
+        <v>14799542700</v>
       </c>
       <c r="G27">
-        <v>141734000</v>
+        <v>113762000</v>
       </c>
       <c r="H27">
         <v>3239800</v>
       </c>
       <c r="I27">
-        <v>48805630000</v>
+        <v>47222215000</v>
       </c>
       <c r="J27" t="str">
         <v>2023-02-02T10:04:00.000Z</v>
       </c>
       <c r="K27">
-        <v>2454529955000</v>
+        <v>2267932838900</v>
       </c>
       <c r="L27">
         <v>148682500</v>
@@ -1743,13 +1743,13 @@
         <v>-1224700</v>
       </c>
       <c r="N27">
-        <v>-17834642000</v>
+        <v>-17509367600</v>
       </c>
       <c r="O27">
         <v>-25370300</v>
       </c>
       <c r="P27">
-        <v>-345486786000</v>
+        <v>-309641367300</v>
       </c>
     </row>
     <row r="28">
@@ -1766,25 +1766,25 @@
         <v>48200</v>
       </c>
       <c r="E28">
-        <v>28223265000</v>
+        <v>27643645200</v>
       </c>
       <c r="F28">
-        <v>17295424000</v>
+        <v>16682437600</v>
       </c>
       <c r="G28">
-        <v>473380000</v>
+        <v>471781600</v>
       </c>
       <c r="H28">
         <v>2821800</v>
       </c>
       <c r="I28">
-        <v>45992069000</v>
+        <v>44797864400</v>
       </c>
       <c r="J28" t="str">
         <v>2023-02-02T10:06:00.000Z</v>
       </c>
       <c r="K28">
-        <v>2500522024000</v>
+        <v>2312730703300</v>
       </c>
       <c r="L28">
         <v>151504300</v>
@@ -1793,13 +1793,13 @@
         <v>-635200</v>
       </c>
       <c r="N28">
-        <v>-10927841000</v>
+        <v>-10961207600</v>
       </c>
       <c r="O28">
         <v>-26005500</v>
       </c>
       <c r="P28">
-        <v>-356414627000</v>
+        <v>-320602574900</v>
       </c>
     </row>
     <row r="29">
@@ -1816,10 +1816,10 @@
         <v>2500</v>
       </c>
       <c r="E29">
-        <v>40788010000</v>
+        <v>39516183100</v>
       </c>
       <c r="F29">
-        <v>22084346000</v>
+        <v>21404626400</v>
       </c>
       <c r="G29">
         <v>44900000</v>
@@ -1828,13 +1828,13 @@
         <v>3859400</v>
       </c>
       <c r="I29">
-        <v>62917256000</v>
+        <v>60965709500</v>
       </c>
       <c r="J29" t="str">
         <v>2023-02-02T10:08:00.000Z</v>
       </c>
       <c r="K29">
-        <v>2563439280000</v>
+        <v>2373696412800</v>
       </c>
       <c r="L29">
         <v>155363700</v>
@@ -1843,13 +1843,13 @@
         <v>-1270900</v>
       </c>
       <c r="N29">
-        <v>-18703664000</v>
+        <v>-18111556700</v>
       </c>
       <c r="O29">
         <v>-27276400</v>
       </c>
       <c r="P29">
-        <v>-375118291000</v>
+        <v>-338714131600</v>
       </c>
     </row>
     <row r="30">
@@ -1866,10 +1866,10 @@
         <v>89000</v>
       </c>
       <c r="E30">
-        <v>51005600000</v>
+        <v>50168138300</v>
       </c>
       <c r="F30">
-        <v>16223996000</v>
+        <v>16100219900</v>
       </c>
       <c r="G30">
         <v>823865000</v>
@@ -1878,13 +1878,13 @@
         <v>4351700</v>
       </c>
       <c r="I30">
-        <v>68053461000</v>
+        <v>67092223200</v>
       </c>
       <c r="J30" t="str">
         <v>2023-02-02T10:10:00.000Z</v>
       </c>
       <c r="K30">
-        <v>2631492741000</v>
+        <v>2440788636000</v>
       </c>
       <c r="L30">
         <v>159715400</v>
@@ -1893,13 +1893,13 @@
         <v>-2303300</v>
       </c>
       <c r="N30">
-        <v>-34781604000</v>
+        <v>-34067918400</v>
       </c>
       <c r="O30">
         <v>-29579700</v>
       </c>
       <c r="P30">
-        <v>-409899895000</v>
+        <v>-372782050000</v>
       </c>
     </row>
     <row r="31">
@@ -1916,10 +1916,10 @@
         <v>95300</v>
       </c>
       <c r="E31">
-        <v>33336457000</v>
+        <v>31683811300</v>
       </c>
       <c r="F31">
-        <v>21854901000</v>
+        <v>20890566300</v>
       </c>
       <c r="G31">
         <v>1382261000</v>
@@ -1928,13 +1928,13 @@
         <v>3403000</v>
       </c>
       <c r="I31">
-        <v>56573619000</v>
+        <v>53956638600</v>
       </c>
       <c r="J31" t="str">
         <v>2023-02-02T10:12:00.000Z</v>
       </c>
       <c r="K31">
-        <v>2688066360000</v>
+        <v>2494745274600</v>
       </c>
       <c r="L31">
         <v>163118400</v>
@@ -1943,13 +1943,13 @@
         <v>-844900</v>
       </c>
       <c r="N31">
-        <v>-11481556000</v>
+        <v>-10793245000</v>
       </c>
       <c r="O31">
         <v>-30424600</v>
       </c>
       <c r="P31">
-        <v>-421381451000</v>
+        <v>-383575295000</v>
       </c>
     </row>
     <row r="32">
@@ -1966,10 +1966,10 @@
         <v>22900</v>
       </c>
       <c r="E32">
-        <v>42019348000</v>
+        <v>41105063200</v>
       </c>
       <c r="F32">
-        <v>20461341000</v>
+        <v>18372132300</v>
       </c>
       <c r="G32">
         <v>175690000</v>
@@ -1978,13 +1978,13 @@
         <v>3161600</v>
       </c>
       <c r="I32">
-        <v>62656379000</v>
+        <v>59652885500</v>
       </c>
       <c r="J32" t="str">
         <v>2023-02-02T10:14:00.000Z</v>
       </c>
       <c r="K32">
-        <v>2750722739000</v>
+        <v>2554398160100</v>
       </c>
       <c r="L32">
         <v>166280000</v>
@@ -1993,13 +1993,13 @@
         <v>-1045300</v>
       </c>
       <c r="N32">
-        <v>-21558007000</v>
+        <v>-22732930900</v>
       </c>
       <c r="O32">
         <v>-31469900</v>
       </c>
       <c r="P32">
-        <v>-442939458000</v>
+        <v>-406308225900</v>
       </c>
     </row>
     <row r="33">
@@ -2016,10 +2016,10 @@
         <v>15100</v>
       </c>
       <c r="E33">
-        <v>34188747000</v>
+        <v>31934103900</v>
       </c>
       <c r="F33">
-        <v>27978011000</v>
+        <v>27275813900</v>
       </c>
       <c r="G33">
         <v>324544000</v>
@@ -2028,13 +2028,13 @@
         <v>3972000</v>
       </c>
       <c r="I33">
-        <v>62491302000</v>
+        <v>59534461800</v>
       </c>
       <c r="J33" t="str">
         <v>2023-02-02T10:16:00.000Z</v>
       </c>
       <c r="K33">
-        <v>2813214041000</v>
+        <v>2613932621900</v>
       </c>
       <c r="L33">
         <v>170252000</v>
@@ -2043,13 +2043,13 @@
         <v>-680100</v>
       </c>
       <c r="N33">
-        <v>-6210736000</v>
+        <v>-4658290000</v>
       </c>
       <c r="O33">
         <v>-32150000</v>
       </c>
       <c r="P33">
-        <v>-449150194000</v>
+        <v>-410966515900</v>
       </c>
     </row>
     <row r="34">
@@ -2066,10 +2066,10 @@
         <v>3500</v>
       </c>
       <c r="E34">
-        <v>31477911000</v>
+        <v>31162426800</v>
       </c>
       <c r="F34">
-        <v>23105070000</v>
+        <v>22963311900</v>
       </c>
       <c r="G34">
         <v>94878000</v>
@@ -2078,13 +2078,13 @@
         <v>3331800</v>
       </c>
       <c r="I34">
-        <v>54677859000</v>
+        <v>54220616700</v>
       </c>
       <c r="J34" t="str">
         <v>2023-02-02T10:18:00.000Z</v>
       </c>
       <c r="K34">
-        <v>2867891900000</v>
+        <v>2668153238600</v>
       </c>
       <c r="L34">
         <v>173583800</v>
@@ -2093,13 +2093,13 @@
         <v>-783700</v>
       </c>
       <c r="N34">
-        <v>-8372841000</v>
+        <v>-8199114900</v>
       </c>
       <c r="O34">
         <v>-32933700</v>
       </c>
       <c r="P34">
-        <v>-457523035000</v>
+        <v>-419165630800</v>
       </c>
     </row>
     <row r="35">
@@ -2116,25 +2116,25 @@
         <v>30900</v>
       </c>
       <c r="E35">
-        <v>63652627000</v>
+        <v>52137154000</v>
       </c>
       <c r="F35">
-        <v>17682962000</v>
+        <v>17297148200</v>
       </c>
       <c r="G35">
-        <v>321950000</v>
+        <v>271600400</v>
       </c>
       <c r="H35">
         <v>5182800</v>
       </c>
       <c r="I35">
-        <v>81657539000</v>
+        <v>69705902600</v>
       </c>
       <c r="J35" t="str">
         <v>2023-02-02T10:20:00.000Z</v>
       </c>
       <c r="K35">
-        <v>2949549439000</v>
+        <v>2737859141200</v>
       </c>
       <c r="L35">
         <v>178766600</v>
@@ -2143,13 +2143,13 @@
         <v>-3268300</v>
       </c>
       <c r="N35">
-        <v>-45969665000</v>
+        <v>-34840005800</v>
       </c>
       <c r="O35">
         <v>-36202000</v>
       </c>
       <c r="P35">
-        <v>-503492700000</v>
+        <v>-454005636600</v>
       </c>
     </row>
     <row r="36">
@@ -2166,10 +2166,10 @@
         <v>55300</v>
       </c>
       <c r="E36">
-        <v>122935834000</v>
+        <v>104678209900</v>
       </c>
       <c r="F36">
-        <v>13543749000</v>
+        <v>12041153100</v>
       </c>
       <c r="G36">
         <v>988701000</v>
@@ -2178,13 +2178,13 @@
         <v>8445700</v>
       </c>
       <c r="I36">
-        <v>137468284000</v>
+        <v>117708064000</v>
       </c>
       <c r="J36" t="str">
         <v>2023-02-02T10:22:00.000Z</v>
       </c>
       <c r="K36">
-        <v>3087017723000</v>
+        <v>2855567205200</v>
       </c>
       <c r="L36">
         <v>187212300</v>
@@ -2193,13 +2193,13 @@
         <v>-6650000</v>
       </c>
       <c r="N36">
-        <v>-109392085000</v>
+        <v>-92637056800</v>
       </c>
       <c r="O36">
         <v>-42852000</v>
       </c>
       <c r="P36">
-        <v>-612884785000</v>
+        <v>-546642693400</v>
       </c>
     </row>
     <row r="37">
@@ -2216,10 +2216,10 @@
         <v>70700</v>
       </c>
       <c r="E37">
-        <v>151657665000</v>
+        <v>137644692000</v>
       </c>
       <c r="F37">
-        <v>27975623000</v>
+        <v>27626972000</v>
       </c>
       <c r="G37">
         <v>1383683000</v>
@@ -2228,13 +2228,13 @@
         <v>12319900</v>
       </c>
       <c r="I37">
-        <v>181016971000</v>
+        <v>166655347000</v>
       </c>
       <c r="J37" t="str">
         <v>2023-02-02T10:24:00.000Z</v>
       </c>
       <c r="K37">
-        <v>3268034694000</v>
+        <v>3022222552200</v>
       </c>
       <c r="L37">
         <v>199532200</v>
@@ -2243,13 +2243,13 @@
         <v>-8879000</v>
       </c>
       <c r="N37">
-        <v>-123682042000</v>
+        <v>-110017720000</v>
       </c>
       <c r="O37">
         <v>-51731000</v>
       </c>
       <c r="P37">
-        <v>-736566827000</v>
+        <v>-656660413400</v>
       </c>
     </row>
     <row r="38">
@@ -2266,10 +2266,10 @@
         <v>85400</v>
       </c>
       <c r="E38">
-        <v>141039546000</v>
+        <v>125578822200</v>
       </c>
       <c r="F38">
-        <v>23367218000</v>
+        <v>23049735800</v>
       </c>
       <c r="G38">
         <v>704877000</v>
@@ -2278,13 +2278,13 @@
         <v>10683500</v>
       </c>
       <c r="I38">
-        <v>165111641000</v>
+        <v>149333435000</v>
       </c>
       <c r="J38" t="str">
         <v>2023-02-02T10:26:00.000Z</v>
       </c>
       <c r="K38">
-        <v>3433146335000</v>
+        <v>3171555987200</v>
       </c>
       <c r="L38">
         <v>210215700</v>
@@ -2293,13 +2293,13 @@
         <v>-7459900</v>
       </c>
       <c r="N38">
-        <v>-117672328000</v>
+        <v>-102529086400</v>
       </c>
       <c r="O38">
         <v>-59190900</v>
       </c>
       <c r="P38">
-        <v>-854239155000</v>
+        <v>-759189499800</v>
       </c>
     </row>
     <row r="39">
@@ -2316,10 +2316,10 @@
         <v>51600</v>
       </c>
       <c r="E39">
-        <v>70116006000</v>
+        <v>68095828200</v>
       </c>
       <c r="F39">
-        <v>45693988000</v>
+        <v>43372611700</v>
       </c>
       <c r="G39">
         <v>695218000</v>
@@ -2328,13 +2328,13 @@
         <v>7210500</v>
       </c>
       <c r="I39">
-        <v>116505212000</v>
+        <v>112163657900</v>
       </c>
       <c r="J39" t="str">
         <v>2023-02-02T10:28:00.000Z</v>
       </c>
       <c r="K39">
-        <v>3549651547000</v>
+        <v>3283719645100</v>
       </c>
       <c r="L39">
         <v>217426200</v>
@@ -2343,13 +2343,13 @@
         <v>-1915700</v>
       </c>
       <c r="N39">
-        <v>-24422018000</v>
+        <v>-24723216500</v>
       </c>
       <c r="O39">
         <v>-61106600</v>
       </c>
       <c r="P39">
-        <v>-878661173000</v>
+        <v>-783912716300</v>
       </c>
     </row>
     <row r="40">
@@ -2366,10 +2366,10 @@
         <v>33400</v>
       </c>
       <c r="E40">
-        <v>29660083000</v>
+        <v>28577466700</v>
       </c>
       <c r="F40">
-        <v>41748703000</v>
+        <v>36942314200</v>
       </c>
       <c r="G40">
         <v>1474768000</v>
@@ -2378,13 +2378,13 @@
         <v>4348800</v>
       </c>
       <c r="I40">
-        <v>72883554000</v>
+        <v>66994548900</v>
       </c>
       <c r="J40" t="str">
         <v>2023-02-02T10:30:00.000Z</v>
       </c>
       <c r="K40">
-        <v>3622535101000</v>
+        <v>3350714194000</v>
       </c>
       <c r="L40">
         <v>221775000</v>
@@ -2393,13 +2393,13 @@
         <v>666000</v>
       </c>
       <c r="N40">
-        <v>12088620000</v>
+        <v>8364847500</v>
       </c>
       <c r="O40">
         <v>-60440600</v>
       </c>
       <c r="P40">
-        <v>-866572553000</v>
+        <v>-775547868800</v>
       </c>
     </row>
     <row r="41">
@@ -2416,25 +2416,25 @@
         <v>40100</v>
       </c>
       <c r="E41">
-        <v>21606101000</v>
+        <v>18578231900</v>
       </c>
       <c r="F41">
-        <v>52859906000</v>
+        <v>49643425700</v>
       </c>
       <c r="G41">
-        <v>577460000</v>
+        <v>575162300</v>
       </c>
       <c r="H41">
         <v>4361100</v>
       </c>
       <c r="I41">
-        <v>75043467000</v>
+        <v>68796819900</v>
       </c>
       <c r="J41" t="str">
         <v>2023-02-02T10:32:00.000Z</v>
       </c>
       <c r="K41">
-        <v>3697578568000</v>
+        <v>3419511013900</v>
       </c>
       <c r="L41">
         <v>226136100</v>
@@ -2443,13 +2443,13 @@
         <v>1764800</v>
       </c>
       <c r="N41">
-        <v>31253805000</v>
+        <v>31065193800</v>
       </c>
       <c r="O41">
         <v>-58675800</v>
       </c>
       <c r="P41">
-        <v>-835318748000</v>
+        <v>-744482675000</v>
       </c>
     </row>
     <row r="42">
@@ -2466,10 +2466,10 @@
         <v>1300</v>
       </c>
       <c r="E42">
-        <v>16649372000</v>
+        <v>15540482000</v>
       </c>
       <c r="F42">
-        <v>52283260000</v>
+        <v>47938109500</v>
       </c>
       <c r="G42">
         <v>41168000</v>
@@ -2478,13 +2478,13 @@
         <v>4100500</v>
       </c>
       <c r="I42">
-        <v>68973800000</v>
+        <v>63519759500</v>
       </c>
       <c r="J42" t="str">
         <v>2023-02-02T10:34:00.000Z</v>
       </c>
       <c r="K42">
-        <v>3766552368000</v>
+        <v>3483030773400</v>
       </c>
       <c r="L42">
         <v>230236600</v>
@@ -2493,13 +2493,13 @@
         <v>2189800</v>
       </c>
       <c r="N42">
-        <v>35633888000</v>
+        <v>32397627500</v>
       </c>
       <c r="O42">
         <v>-56486000</v>
       </c>
       <c r="P42">
-        <v>-799684860000</v>
+        <v>-712085047500</v>
       </c>
     </row>
     <row r="43">
@@ -2516,10 +2516,10 @@
         <v>1100</v>
       </c>
       <c r="E43">
-        <v>13019626000</v>
+        <v>12296949400</v>
       </c>
       <c r="F43">
-        <v>38888139000</v>
+        <v>36805423800</v>
       </c>
       <c r="G43">
         <v>31545000</v>
@@ -2528,13 +2528,13 @@
         <v>3192400</v>
       </c>
       <c r="I43">
-        <v>51939310000</v>
+        <v>49133918200</v>
       </c>
       <c r="J43" t="str">
         <v>2023-02-02T10:36:00.000Z</v>
       </c>
       <c r="K43">
-        <v>3818491678000</v>
+        <v>3532164691600</v>
       </c>
       <c r="L43">
         <v>233429000</v>
@@ -2543,13 +2543,13 @@
         <v>1655700</v>
       </c>
       <c r="N43">
-        <v>25868513000</v>
+        <v>24508474400</v>
       </c>
       <c r="O43">
         <v>-54830300</v>
       </c>
       <c r="P43">
-        <v>-773816347000</v>
+        <v>-687576573100</v>
       </c>
     </row>
     <row r="44">
@@ -2566,10 +2566,10 @@
         <v>8700</v>
       </c>
       <c r="E44">
-        <v>12008594000</v>
+        <v>11579823200</v>
       </c>
       <c r="F44">
-        <v>57549220000</v>
+        <v>54088783900</v>
       </c>
       <c r="G44">
         <v>185568000</v>
@@ -2578,13 +2578,13 @@
         <v>3924600</v>
       </c>
       <c r="I44">
-        <v>69743382000</v>
+        <v>65854175100</v>
       </c>
       <c r="J44" t="str">
         <v>2023-02-02T10:38:00.000Z</v>
       </c>
       <c r="K44">
-        <v>3888235060000</v>
+        <v>3598018866700</v>
       </c>
       <c r="L44">
         <v>237353600</v>
@@ -2593,13 +2593,13 @@
         <v>2295300</v>
       </c>
       <c r="N44">
-        <v>45540626000</v>
+        <v>42508960700</v>
       </c>
       <c r="O44">
         <v>-52535000</v>
       </c>
       <c r="P44">
-        <v>-728275721000</v>
+        <v>-645067612400</v>
       </c>
     </row>
     <row r="45">
@@ -2616,25 +2616,25 @@
         <v>56700</v>
       </c>
       <c r="E45">
-        <v>17603645000</v>
+        <v>16599550100</v>
       </c>
       <c r="F45">
-        <v>54984657000</v>
+        <v>53448294900</v>
       </c>
       <c r="G45">
-        <v>1185768000</v>
+        <v>1181772000</v>
       </c>
       <c r="H45">
         <v>4328500</v>
       </c>
       <c r="I45">
-        <v>73774070000</v>
+        <v>71229617000</v>
       </c>
       <c r="J45" t="str">
         <v>2023-02-02T10:40:00.000Z</v>
       </c>
       <c r="K45">
-        <v>3962009130000</v>
+        <v>3669248483700</v>
       </c>
       <c r="L45">
         <v>241682100</v>
@@ -2643,13 +2643,13 @@
         <v>2220400</v>
       </c>
       <c r="N45">
-        <v>37381012000</v>
+        <v>36848744800</v>
       </c>
       <c r="O45">
         <v>-50314600</v>
       </c>
       <c r="P45">
-        <v>-690894709000</v>
+        <v>-608218867600</v>
       </c>
     </row>
     <row r="46">
@@ -2666,10 +2666,10 @@
         <v>13000</v>
       </c>
       <c r="E46">
-        <v>10421306000</v>
+        <v>10179847700</v>
       </c>
       <c r="F46">
-        <v>38013550000</v>
+        <v>36098367100</v>
       </c>
       <c r="G46">
         <v>372505000</v>
@@ -2678,13 +2678,13 @@
         <v>2804500</v>
       </c>
       <c r="I46">
-        <v>48807361000</v>
+        <v>46650719800</v>
       </c>
       <c r="J46" t="str">
         <v>2023-02-02T10:42:00.000Z</v>
       </c>
       <c r="K46">
-        <v>4010816491000</v>
+        <v>3715899203500</v>
       </c>
       <c r="L46">
         <v>244486600</v>
@@ -2693,13 +2693,13 @@
         <v>1590500</v>
       </c>
       <c r="N46">
-        <v>27592244000</v>
+        <v>25918519400</v>
       </c>
       <c r="O46">
         <v>-48724100</v>
       </c>
       <c r="P46">
-        <v>-663302465000</v>
+        <v>-582300348200</v>
       </c>
     </row>
     <row r="47">
@@ -2716,10 +2716,10 @@
         <v>17200</v>
       </c>
       <c r="E47">
-        <v>9563396000</v>
+        <v>8727233000</v>
       </c>
       <c r="F47">
-        <v>66203597000</v>
+        <v>56524186100</v>
       </c>
       <c r="G47">
         <v>288605000</v>
@@ -2728,13 +2728,13 @@
         <v>3870600</v>
       </c>
       <c r="I47">
-        <v>76055598000</v>
+        <v>65540024100</v>
       </c>
       <c r="J47" t="str">
         <v>2023-02-02T10:44:00.000Z</v>
       </c>
       <c r="K47">
-        <v>4086872089000</v>
+        <v>3781439227600</v>
       </c>
       <c r="L47">
         <v>248357200</v>
@@ -2743,13 +2743,13 @@
         <v>2655000</v>
       </c>
       <c r="N47">
-        <v>56640201000</v>
+        <v>47796953100</v>
       </c>
       <c r="O47">
         <v>-46069100</v>
       </c>
       <c r="P47">
-        <v>-606662264000</v>
+        <v>-534503395100</v>
       </c>
     </row>
     <row r="48">
@@ -2766,25 +2766,25 @@
         <v>34200</v>
       </c>
       <c r="E48">
-        <v>16296077000</v>
+        <v>14744829800</v>
       </c>
       <c r="F48">
-        <v>41092676000</v>
+        <v>32932244600</v>
       </c>
       <c r="G48">
-        <v>363960000</v>
+        <v>69255000</v>
       </c>
       <c r="H48">
         <v>3383300</v>
       </c>
       <c r="I48">
-        <v>57752713000</v>
+        <v>47746329400</v>
       </c>
       <c r="J48" t="str">
         <v>2023-02-02T10:46:00.000Z</v>
       </c>
       <c r="K48">
-        <v>4144624802000</v>
+        <v>3829185557000</v>
       </c>
       <c r="L48">
         <v>251740500</v>
@@ -2793,13 +2793,13 @@
         <v>1544700</v>
       </c>
       <c r="N48">
-        <v>24796599000</v>
+        <v>18187414800</v>
       </c>
       <c r="O48">
         <v>-44524400</v>
       </c>
       <c r="P48">
-        <v>-581865665000</v>
+        <v>-516315980300</v>
       </c>
     </row>
     <row r="49">
@@ -2816,10 +2816,10 @@
         <v>51900</v>
       </c>
       <c r="E49">
-        <v>14427922000</v>
+        <v>12196056100</v>
       </c>
       <c r="F49">
-        <v>28348955000</v>
+        <v>27591513200</v>
       </c>
       <c r="G49">
         <v>283116000</v>
@@ -2828,13 +2828,13 @@
         <v>2599600</v>
       </c>
       <c r="I49">
-        <v>43059993000</v>
+        <v>40070685300</v>
       </c>
       <c r="J49" t="str">
         <v>2023-02-02T10:48:00.000Z</v>
       </c>
       <c r="K49">
-        <v>4187684795000</v>
+        <v>3869256242300</v>
       </c>
       <c r="L49">
         <v>254340100</v>
@@ -2843,13 +2843,13 @@
         <v>799100</v>
       </c>
       <c r="N49">
-        <v>13921033000</v>
+        <v>15395457100</v>
       </c>
       <c r="O49">
         <v>-43725300</v>
       </c>
       <c r="P49">
-        <v>-567944632000</v>
+        <v>-500920523200</v>
       </c>
     </row>
     <row r="50">
@@ -2866,10 +2866,10 @@
         <v>5300</v>
       </c>
       <c r="E50">
-        <v>13880206000</v>
+        <v>13525660900</v>
       </c>
       <c r="F50">
-        <v>20158842000</v>
+        <v>18873228900</v>
       </c>
       <c r="G50">
         <v>95915000</v>
@@ -2878,13 +2878,13 @@
         <v>1951900</v>
       </c>
       <c r="I50">
-        <v>34134963000</v>
+        <v>32494804800</v>
       </c>
       <c r="J50" t="str">
         <v>2023-02-02T10:50:00.000Z</v>
       </c>
       <c r="K50">
-        <v>4221819758000</v>
+        <v>3901751047100</v>
       </c>
       <c r="L50">
         <v>256292000</v>
@@ -2893,13 +2893,13 @@
         <v>296200</v>
       </c>
       <c r="N50">
-        <v>6278636000</v>
+        <v>5347568000</v>
       </c>
       <c r="O50">
         <v>-43429100</v>
       </c>
       <c r="P50">
-        <v>-561665996000</v>
+        <v>-495572955200</v>
       </c>
     </row>
     <row r="51">
@@ -2916,10 +2916,10 @@
         <v>3700</v>
       </c>
       <c r="E51">
-        <v>14398611000</v>
+        <v>13687922400</v>
       </c>
       <c r="F51">
-        <v>47476936000</v>
+        <v>46218495700</v>
       </c>
       <c r="G51">
         <v>100033000</v>
@@ -2928,13 +2928,13 @@
         <v>3197800</v>
       </c>
       <c r="I51">
-        <v>61975580000</v>
+        <v>60006451100</v>
       </c>
       <c r="J51" t="str">
         <v>2023-02-02T10:52:00.000Z</v>
       </c>
       <c r="K51">
-        <v>4283795338000</v>
+        <v>3961757498200</v>
       </c>
       <c r="L51">
         <v>259489800</v>
@@ -2943,13 +2943,13 @@
         <v>1396900</v>
       </c>
       <c r="N51">
-        <v>33078325000</v>
+        <v>32530573300</v>
       </c>
       <c r="O51">
         <v>-42032200</v>
       </c>
       <c r="P51">
-        <v>-528587671000</v>
+        <v>-463042381900</v>
       </c>
     </row>
     <row r="52">
@@ -2966,10 +2966,10 @@
         <v>57000</v>
       </c>
       <c r="E52">
-        <v>15516219000</v>
+        <v>14736399600</v>
       </c>
       <c r="F52">
-        <v>28755644000</v>
+        <v>26542659200</v>
       </c>
       <c r="G52">
         <v>822750000</v>
@@ -2978,13 +2978,13 @@
         <v>2699300</v>
       </c>
       <c r="I52">
-        <v>45094613000</v>
+        <v>42101808800</v>
       </c>
       <c r="J52" t="str">
         <v>2023-02-02T10:54:00.000Z</v>
       </c>
       <c r="K52">
-        <v>4328889951000</v>
+        <v>4003859307000</v>
       </c>
       <c r="L52">
         <v>262189100</v>
@@ -2993,13 +2993,13 @@
         <v>891300</v>
       </c>
       <c r="N52">
-        <v>13239425000</v>
+        <v>11806259600</v>
       </c>
       <c r="O52">
         <v>-41140900</v>
       </c>
       <c r="P52">
-        <v>-515348246000</v>
+        <v>-451236122300</v>
       </c>
     </row>
     <row r="53">
@@ -3016,25 +3016,25 @@
         <v>20500</v>
       </c>
       <c r="E53">
-        <v>15381796000</v>
+        <v>14705473000</v>
       </c>
       <c r="F53">
-        <v>21367511000</v>
+        <v>19712168000</v>
       </c>
       <c r="G53">
-        <v>193750000</v>
+        <v>191052700</v>
       </c>
       <c r="H53">
         <v>2196900</v>
       </c>
       <c r="I53">
-        <v>36943057000</v>
+        <v>34608693700</v>
       </c>
       <c r="J53" t="str">
         <v>2023-02-02T10:56:00.000Z</v>
       </c>
       <c r="K53">
-        <v>4365833008000</v>
+        <v>4038468000700</v>
       </c>
       <c r="L53">
         <v>264386000</v>
@@ -3043,13 +3043,13 @@
         <v>-50200</v>
       </c>
       <c r="N53">
-        <v>5985715000</v>
+        <v>5006695000</v>
       </c>
       <c r="O53">
         <v>-41191100</v>
       </c>
       <c r="P53">
-        <v>-509362531000</v>
+        <v>-446229427300</v>
       </c>
     </row>
     <row r="54">
@@ -3066,10 +3066,10 @@
         <v>26300</v>
       </c>
       <c r="E54">
-        <v>32839735000</v>
+        <v>28042337200</v>
       </c>
       <c r="F54">
-        <v>16005121000</v>
+        <v>13336991800</v>
       </c>
       <c r="G54">
         <v>443212000</v>
@@ -3078,13 +3078,13 @@
         <v>2889700</v>
       </c>
       <c r="I54">
-        <v>49288068000</v>
+        <v>41822541000</v>
       </c>
       <c r="J54" t="str">
         <v>2023-02-02T10:58:00.000Z</v>
       </c>
       <c r="K54">
-        <v>4415121076000</v>
+        <v>4080290541700</v>
       </c>
       <c r="L54">
         <v>267275700</v>
@@ -3093,13 +3093,13 @@
         <v>-980000</v>
       </c>
       <c r="N54">
-        <v>-16834614000</v>
+        <v>-14705345400</v>
       </c>
       <c r="O54">
         <v>-42171100</v>
       </c>
       <c r="P54">
-        <v>-526197145000</v>
+        <v>-460934772700</v>
       </c>
     </row>
     <row r="55">
@@ -3116,10 +3116,10 @@
         <v>3200</v>
       </c>
       <c r="E55">
-        <v>17688673000</v>
+        <v>16935626800</v>
       </c>
       <c r="F55">
-        <v>15779883000</v>
+        <v>13397767500</v>
       </c>
       <c r="G55">
         <v>80190000</v>
@@ -3128,13 +3128,13 @@
         <v>1837200</v>
       </c>
       <c r="I55">
-        <v>33548746000</v>
+        <v>30413584300</v>
       </c>
       <c r="J55" t="str">
         <v>2023-02-02T11:00:00.000Z</v>
       </c>
       <c r="K55">
-        <v>4448669822000</v>
+        <v>4110704126000</v>
       </c>
       <c r="L55">
         <v>269112900</v>
@@ -3143,13 +3143,13 @@
         <v>-285600</v>
       </c>
       <c r="N55">
-        <v>-1908790000</v>
+        <v>-3537859300</v>
       </c>
       <c r="O55">
         <v>-42456700</v>
       </c>
       <c r="P55">
-        <v>-528105935000</v>
+        <v>-464472632000</v>
       </c>
     </row>
     <row r="56">
@@ -3166,10 +3166,10 @@
         <v>21600</v>
       </c>
       <c r="E56">
-        <v>18635409000</v>
+        <v>17474970600</v>
       </c>
       <c r="F56">
-        <v>10977927000</v>
+        <v>9042664200</v>
       </c>
       <c r="G56">
         <v>352200000</v>
@@ -3178,13 +3178,13 @@
         <v>1751100</v>
       </c>
       <c r="I56">
-        <v>29965536000</v>
+        <v>26869834800</v>
       </c>
       <c r="J56" t="str">
         <v>2023-02-02T11:02:00.000Z</v>
       </c>
       <c r="K56">
-        <v>4478635358000</v>
+        <v>4137573960800</v>
       </c>
       <c r="L56">
         <v>270864000</v>
@@ -3193,13 +3193,13 @@
         <v>-461700</v>
       </c>
       <c r="N56">
-        <v>-7657482000</v>
+        <v>-8432306400</v>
       </c>
       <c r="O56">
         <v>-42918400</v>
       </c>
       <c r="P56">
-        <v>-535763417000</v>
+        <v>-472904938400</v>
       </c>
     </row>
     <row r="57">
@@ -3216,10 +3216,10 @@
         <v>9200</v>
       </c>
       <c r="E57">
-        <v>29308459000</v>
+        <v>27976292500</v>
       </c>
       <c r="F57">
-        <v>13959013000</v>
+        <v>12837735400</v>
       </c>
       <c r="G57">
         <v>199437000</v>
@@ -3228,13 +3228,13 @@
         <v>2492000</v>
       </c>
       <c r="I57">
-        <v>43466909000</v>
+        <v>41013464900</v>
       </c>
       <c r="J57" t="str">
         <v>2023-02-02T11:04:00.000Z</v>
       </c>
       <c r="K57">
-        <v>4522102267000</v>
+        <v>4178587425700</v>
       </c>
       <c r="L57">
         <v>273356000</v>
@@ -3243,13 +3243,13 @@
         <v>-1334800</v>
       </c>
       <c r="N57">
-        <v>-15349446000</v>
+        <v>-15138557100</v>
       </c>
       <c r="O57">
         <v>-44253200</v>
       </c>
       <c r="P57">
-        <v>-551112863000</v>
+        <v>-488043495500</v>
       </c>
     </row>
     <row r="58">
@@ -3266,10 +3266,10 @@
         <v>800</v>
       </c>
       <c r="E58">
-        <v>17364228000</v>
+        <v>16455537600</v>
       </c>
       <c r="F58">
-        <v>11583387000</v>
+        <v>11383986600</v>
       </c>
       <c r="G58">
         <v>19985000</v>
@@ -3278,13 +3278,13 @@
         <v>1864400</v>
       </c>
       <c r="I58">
-        <v>28967600000</v>
+        <v>27859509200</v>
       </c>
       <c r="J58" t="str">
         <v>2023-02-02T11:06:00.000Z</v>
       </c>
       <c r="K58">
-        <v>4551069867000</v>
+        <v>4206446934900</v>
       </c>
       <c r="L58">
         <v>275220400</v>
@@ -3293,13 +3293,13 @@
         <v>-376400</v>
       </c>
       <c r="N58">
-        <v>-5780841000</v>
+        <v>-5071551000</v>
       </c>
       <c r="O58">
         <v>-44629600</v>
       </c>
       <c r="P58">
-        <v>-556893704000</v>
+        <v>-493115046500</v>
       </c>
     </row>
     <row r="59">
@@ -3316,10 +3316,10 @@
         <v>200</v>
       </c>
       <c r="E59">
-        <v>15616951000</v>
+        <v>14802666100</v>
       </c>
       <c r="F59">
-        <v>10646003000</v>
+        <v>9857592200</v>
       </c>
       <c r="G59">
         <v>8660000</v>
@@ -3328,13 +3328,13 @@
         <v>1494100</v>
       </c>
       <c r="I59">
-        <v>26271614000</v>
+        <v>24668918300</v>
       </c>
       <c r="J59" t="str">
         <v>2023-02-02T11:08:00.000Z</v>
       </c>
       <c r="K59">
-        <v>4577341481000</v>
+        <v>4231115853200</v>
       </c>
       <c r="L59">
         <v>276714500</v>
@@ -3343,13 +3343,13 @@
         <v>-399700</v>
       </c>
       <c r="N59">
-        <v>-4970948000</v>
+        <v>-4945073900</v>
       </c>
       <c r="O59">
         <v>-45029300</v>
       </c>
       <c r="P59">
-        <v>-561864652000</v>
+        <v>-498060120400</v>
       </c>
     </row>
     <row r="60">
@@ -3366,10 +3366,10 @@
         <v>0</v>
       </c>
       <c r="E60">
-        <v>12096509000</v>
+        <v>11767538300</v>
       </c>
       <c r="F60">
-        <v>20688502000</v>
+        <v>19240451500</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -3378,13 +3378,13 @@
         <v>1538200</v>
       </c>
       <c r="I60">
-        <v>32785011000</v>
+        <v>31007989800</v>
       </c>
       <c r="J60" t="str">
         <v>2023-02-02T11:10:00.000Z</v>
       </c>
       <c r="K60">
-        <v>4610126492000</v>
+        <v>4262123843000</v>
       </c>
       <c r="L60">
         <v>278252700</v>
@@ -3393,13 +3393,13 @@
         <v>274400</v>
       </c>
       <c r="N60">
-        <v>8591993000</v>
+        <v>7472913200</v>
       </c>
       <c r="O60">
         <v>-44754900</v>
       </c>
       <c r="P60">
-        <v>-553272659000</v>
+        <v>-490587207200</v>
       </c>
     </row>
     <row r="61">
@@ -3416,10 +3416,10 @@
         <v>4700</v>
       </c>
       <c r="E61">
-        <v>11774273000</v>
+        <v>11492055500</v>
       </c>
       <c r="F61">
-        <v>9807346000</v>
+        <v>9423030700</v>
       </c>
       <c r="G61">
         <v>70420000</v>
@@ -3428,13 +3428,13 @@
         <v>1379600</v>
       </c>
       <c r="I61">
-        <v>21652039000</v>
+        <v>20985506200</v>
       </c>
       <c r="J61" t="str">
         <v>2023-02-02T11:12:00.000Z</v>
       </c>
       <c r="K61">
-        <v>4631778531000</v>
+        <v>4283109349200</v>
       </c>
       <c r="L61">
         <v>279632300</v>
@@ -3443,13 +3443,13 @@
         <v>-22700</v>
       </c>
       <c r="N61">
-        <v>-1966927000</v>
+        <v>-2069024800</v>
       </c>
       <c r="O61">
         <v>-44777600</v>
       </c>
       <c r="P61">
-        <v>-555239586000</v>
+        <v>-492656232000</v>
       </c>
     </row>
     <row r="62">
@@ -3466,25 +3466,25 @@
         <v>5900</v>
       </c>
       <c r="E62">
-        <v>11641895000</v>
+        <v>11248488800</v>
       </c>
       <c r="F62">
-        <v>57923420000</v>
+        <v>52243505600</v>
       </c>
       <c r="G62">
-        <v>157605000</v>
+        <v>136426200</v>
       </c>
       <c r="H62">
         <v>2907200</v>
       </c>
       <c r="I62">
-        <v>69722920000</v>
+        <v>63628420600</v>
       </c>
       <c r="J62" t="str">
         <v>2023-02-02T11:14:00.000Z</v>
       </c>
       <c r="K62">
-        <v>4701501451000</v>
+        <v>4346737769800</v>
       </c>
       <c r="L62">
         <v>282539500</v>
@@ -3493,13 +3493,13 @@
         <v>1619700</v>
       </c>
       <c r="N62">
-        <v>46281525000</v>
+        <v>40995016800</v>
       </c>
       <c r="O62">
         <v>-43157900</v>
       </c>
       <c r="P62">
-        <v>-508958061000</v>
+        <v>-451661215200</v>
       </c>
     </row>
     <row r="63">
@@ -3516,25 +3516,25 @@
         <v>13700</v>
       </c>
       <c r="E63">
-        <v>8167234000</v>
+        <v>8041659700</v>
       </c>
       <c r="F63">
-        <v>29214981000</v>
+        <v>27070327800</v>
       </c>
       <c r="G63">
-        <v>359874000</v>
+        <v>186048000</v>
       </c>
       <c r="H63">
         <v>1910900</v>
       </c>
       <c r="I63">
-        <v>37742089000</v>
+        <v>35298035500</v>
       </c>
       <c r="J63" t="str">
         <v>2023-02-02T11:16:00.000Z</v>
       </c>
       <c r="K63">
-        <v>4739243540000</v>
+        <v>4382035805300</v>
       </c>
       <c r="L63">
         <v>284450400</v>
@@ -3543,13 +3543,13 @@
         <v>949000</v>
       </c>
       <c r="N63">
-        <v>21047747000</v>
+        <v>19028668100</v>
       </c>
       <c r="O63">
         <v>-42208900</v>
       </c>
       <c r="P63">
-        <v>-487910314000</v>
+        <v>-432632547100</v>
       </c>
     </row>
     <row r="64">
@@ -3566,25 +3566,25 @@
         <v>42100</v>
       </c>
       <c r="E64">
-        <v>9802918000</v>
+        <v>9675945100</v>
       </c>
       <c r="F64">
-        <v>31324700000</v>
+        <v>27458070500</v>
       </c>
       <c r="G64">
-        <v>565054000</v>
+        <v>557561500</v>
       </c>
       <c r="H64">
         <v>2203100</v>
       </c>
       <c r="I64">
-        <v>41692672000</v>
+        <v>37691577100</v>
       </c>
       <c r="J64" t="str">
         <v>2023-02-02T11:18:00.000Z</v>
       </c>
       <c r="K64">
-        <v>4780936212000</v>
+        <v>4419727382400</v>
       </c>
       <c r="L64">
         <v>286653500</v>
@@ -3593,13 +3593,13 @@
         <v>993400</v>
       </c>
       <c r="N64">
-        <v>21521782000</v>
+        <v>17782125400</v>
       </c>
       <c r="O64">
         <v>-41215500</v>
       </c>
       <c r="P64">
-        <v>-466388532000</v>
+        <v>-414850421700</v>
       </c>
     </row>
     <row r="65">
@@ -3616,10 +3616,10 @@
         <v>6300</v>
       </c>
       <c r="E65">
-        <v>9769226000</v>
+        <v>9642452900</v>
       </c>
       <c r="F65">
-        <v>19437439000</v>
+        <v>17729948200</v>
       </c>
       <c r="G65">
         <v>101885000</v>
@@ -3628,13 +3628,13 @@
         <v>1544300</v>
       </c>
       <c r="I65">
-        <v>29308550000</v>
+        <v>27474286100</v>
       </c>
       <c r="J65" t="str">
         <v>2023-02-02T11:20:00.000Z</v>
       </c>
       <c r="K65">
-        <v>4810244762000</v>
+        <v>4447201668500</v>
       </c>
       <c r="L65">
         <v>288197800</v>
@@ -3643,13 +3643,13 @@
         <v>388400</v>
       </c>
       <c r="N65">
-        <v>9668213000</v>
+        <v>8087495300</v>
       </c>
       <c r="O65">
         <v>-40827100</v>
       </c>
       <c r="P65">
-        <v>-456720319000</v>
+        <v>-406762926400</v>
       </c>
     </row>
     <row r="66">
@@ -3666,10 +3666,10 @@
         <v>1800</v>
       </c>
       <c r="E66">
-        <v>6506945000</v>
+        <v>6470981000</v>
       </c>
       <c r="F66">
-        <v>21035846000</v>
+        <v>19996186700</v>
       </c>
       <c r="G66">
         <v>21435000</v>
@@ -3678,13 +3678,13 @@
         <v>1460800</v>
       </c>
       <c r="I66">
-        <v>27564226000</v>
+        <v>26488602700</v>
       </c>
       <c r="J66" t="str">
         <v>2023-02-02T11:22:00.000Z</v>
       </c>
       <c r="K66">
-        <v>4837808988000</v>
+        <v>4473690271200</v>
       </c>
       <c r="L66">
         <v>289658600</v>
@@ -3693,13 +3693,13 @@
         <v>801200</v>
       </c>
       <c r="N66">
-        <v>14528901000</v>
+        <v>13525205700</v>
       </c>
       <c r="O66">
         <v>-40025900</v>
       </c>
       <c r="P66">
-        <v>-442191418000</v>
+        <v>-393237720700</v>
       </c>
     </row>
     <row r="67">
@@ -3716,10 +3716,10 @@
         <v>10500</v>
       </c>
       <c r="E67">
-        <v>7901637000</v>
+        <v>7845293400</v>
       </c>
       <c r="F67">
-        <v>17909680000</v>
+        <v>17407982200</v>
       </c>
       <c r="G67">
         <v>231615000</v>
@@ -3728,13 +3728,13 @@
         <v>1448100</v>
       </c>
       <c r="I67">
-        <v>26042932000</v>
+        <v>25484890600</v>
       </c>
       <c r="J67" t="str">
         <v>2023-02-02T11:24:00.000Z</v>
       </c>
       <c r="K67">
-        <v>4863851920000</v>
+        <v>4499175161800</v>
       </c>
       <c r="L67">
         <v>291106700</v>
@@ -3743,13 +3743,13 @@
         <v>476200</v>
       </c>
       <c r="N67">
-        <v>10008043000</v>
+        <v>9562688800</v>
       </c>
       <c r="O67">
         <v>-39549700</v>
       </c>
       <c r="P67">
-        <v>-432183375000</v>
+        <v>-383675031900</v>
       </c>
     </row>
     <row r="68">
@@ -3766,10 +3766,10 @@
         <v>0</v>
       </c>
       <c r="E68">
-        <v>16666711000</v>
+        <v>16601676100</v>
       </c>
       <c r="F68">
-        <v>16294063000</v>
+        <v>15319039000</v>
       </c>
       <c r="G68">
         <v>0</v>
@@ -3778,13 +3778,13 @@
         <v>2055900</v>
       </c>
       <c r="I68">
-        <v>32960774000</v>
+        <v>31920715100</v>
       </c>
       <c r="J68" t="str">
         <v>2023-02-02T11:26:00.000Z</v>
       </c>
       <c r="K68">
-        <v>4896812694000</v>
+        <v>4531095876900</v>
       </c>
       <c r="L68">
         <v>293162600</v>
@@ -3793,13 +3793,13 @@
         <v>23900</v>
       </c>
       <c r="N68">
-        <v>-372648000</v>
+        <v>-1282637100</v>
       </c>
       <c r="O68">
         <v>-39525800</v>
       </c>
       <c r="P68">
-        <v>-432556023000</v>
+        <v>-384957669000</v>
       </c>
     </row>
     <row r="69">
@@ -3816,10 +3816,10 @@
         <v>12800</v>
       </c>
       <c r="E69">
-        <v>23847661000</v>
+        <v>23429379700</v>
       </c>
       <c r="F69">
-        <v>11923965000</v>
+        <v>11706382800</v>
       </c>
       <c r="G69">
         <v>445247000</v>
@@ -3828,13 +3828,13 @@
         <v>2061400</v>
       </c>
       <c r="I69">
-        <v>36216873000</v>
+        <v>35581009500</v>
       </c>
       <c r="J69" t="str">
         <v>2023-02-02T11:28:00.000Z</v>
       </c>
       <c r="K69">
-        <v>4933029567000</v>
+        <v>4566676886400</v>
       </c>
       <c r="L69">
         <v>295224000</v>
@@ -3843,13 +3843,13 @@
         <v>-906000</v>
       </c>
       <c r="N69">
-        <v>-11923696000</v>
+        <v>-11722996900</v>
       </c>
       <c r="O69">
         <v>-40431800</v>
       </c>
       <c r="P69">
-        <v>-444479719000</v>
+        <v>-396680665900</v>
       </c>
     </row>
     <row r="70">
@@ -3866,25 +3866,25 @@
         <v>314900</v>
       </c>
       <c r="E70">
-        <v>79559529000</v>
+        <v>70701895500</v>
       </c>
       <c r="F70">
-        <v>46734685000</v>
+        <v>42482041900</v>
       </c>
       <c r="G70">
-        <v>3981471000</v>
+        <v>3921730800</v>
       </c>
       <c r="H70">
         <v>7246500</v>
       </c>
       <c r="I70">
-        <v>130275685000</v>
+        <v>117105668200</v>
       </c>
       <c r="J70" t="str">
         <v>2023-02-02T13:00:00.000Z</v>
       </c>
       <c r="K70">
-        <v>5063305252000</v>
+        <v>4683782554600</v>
       </c>
       <c r="L70">
         <v>302470500</v>
@@ -3893,13 +3893,13 @@
         <v>-1880200</v>
       </c>
       <c r="N70">
-        <v>-32824844000</v>
+        <v>-28219853600</v>
       </c>
       <c r="O70">
         <v>-42312000</v>
       </c>
       <c r="P70">
-        <v>-477304563000</v>
+        <v>-424900519500</v>
       </c>
     </row>
     <row r="71">
@@ -3916,10 +3916,10 @@
         <v>50300</v>
       </c>
       <c r="E71">
-        <v>37169763000</v>
+        <v>36101732100</v>
       </c>
       <c r="F71">
-        <v>26450429000</v>
+        <v>25280400200</v>
       </c>
       <c r="G71">
         <v>866236000</v>
@@ -3928,13 +3928,13 @@
         <v>3431300</v>
       </c>
       <c r="I71">
-        <v>64486428000</v>
+        <v>62248368300</v>
       </c>
       <c r="J71" t="str">
         <v>2023-02-02T13:02:00.000Z</v>
       </c>
       <c r="K71">
-        <v>5127791680000</v>
+        <v>4746030922900</v>
       </c>
       <c r="L71">
         <v>305901800</v>
@@ -3943,13 +3943,13 @@
         <v>-1156400</v>
       </c>
       <c r="N71">
-        <v>-10719334000</v>
+        <v>-10821331900</v>
       </c>
       <c r="O71">
         <v>-43468400</v>
       </c>
       <c r="P71">
-        <v>-488023897000</v>
+        <v>-435721851400</v>
       </c>
     </row>
     <row r="72">
@@ -3966,10 +3966,10 @@
         <v>4100</v>
       </c>
       <c r="E72">
-        <v>37091332000</v>
+        <v>34135091200</v>
       </c>
       <c r="F72">
-        <v>20870976000</v>
+        <v>20268079500</v>
       </c>
       <c r="G72">
         <v>43153000</v>
@@ -3978,13 +3978,13 @@
         <v>3526200</v>
       </c>
       <c r="I72">
-        <v>58005461000</v>
+        <v>54446323700</v>
       </c>
       <c r="J72" t="str">
         <v>2023-02-02T13:04:00.000Z</v>
       </c>
       <c r="K72">
-        <v>5185797141000</v>
+        <v>4800477246600</v>
       </c>
       <c r="L72">
         <v>309428000</v>
@@ -3993,13 +3993,13 @@
         <v>-1128300</v>
       </c>
       <c r="N72">
-        <v>-16220356000</v>
+        <v>-13867011700</v>
       </c>
       <c r="O72">
         <v>-44596700</v>
       </c>
       <c r="P72">
-        <v>-504244253000</v>
+        <v>-449588863100</v>
       </c>
     </row>
     <row r="73">
@@ -4016,10 +4016,10 @@
         <v>17800</v>
       </c>
       <c r="E73">
-        <v>45735601000</v>
+        <v>44439298600</v>
       </c>
       <c r="F73">
-        <v>28898768000</v>
+        <v>27978089600</v>
       </c>
       <c r="G73">
         <v>536188000</v>
@@ -4028,13 +4028,13 @@
         <v>4158000</v>
       </c>
       <c r="I73">
-        <v>75170557000</v>
+        <v>72953576200</v>
       </c>
       <c r="J73" t="str">
         <v>2023-02-02T13:06:00.000Z</v>
       </c>
       <c r="K73">
-        <v>5260967698000</v>
+        <v>4873430822800</v>
       </c>
       <c r="L73">
         <v>313586000</v>
@@ -4043,13 +4043,13 @@
         <v>-1650600</v>
       </c>
       <c r="N73">
-        <v>-16836833000</v>
+        <v>-16461209000</v>
       </c>
       <c r="O73">
         <v>-46247300</v>
       </c>
       <c r="P73">
-        <v>-521081086000</v>
+        <v>-466050072100</v>
       </c>
     </row>
     <row r="74">
@@ -4066,10 +4066,10 @@
         <v>25900</v>
       </c>
       <c r="E74">
-        <v>38485451000</v>
+        <v>37497639800</v>
       </c>
       <c r="F74">
-        <v>25878773000</v>
+        <v>25099652900</v>
       </c>
       <c r="G74">
         <v>461743000</v>
@@ -4078,13 +4078,13 @@
         <v>3768300</v>
       </c>
       <c r="I74">
-        <v>64825967000</v>
+        <v>63059035700</v>
       </c>
       <c r="J74" t="str">
         <v>2023-02-02T13:08:00.000Z</v>
       </c>
       <c r="K74">
-        <v>5325793665000</v>
+        <v>4936489858500</v>
       </c>
       <c r="L74">
         <v>317354300</v>
@@ -4093,13 +4093,13 @@
         <v>-1241400</v>
       </c>
       <c r="N74">
-        <v>-12606678000</v>
+        <v>-12397986900</v>
       </c>
       <c r="O74">
         <v>-47488700</v>
       </c>
       <c r="P74">
-        <v>-533687764000</v>
+        <v>-478448059000</v>
       </c>
     </row>
     <row r="75">
@@ -4116,10 +4116,10 @@
         <v>12800</v>
       </c>
       <c r="E75">
-        <v>25942845000</v>
+        <v>25624463700</v>
       </c>
       <c r="F75">
-        <v>35523101000</v>
+        <v>34763761100</v>
       </c>
       <c r="G75">
         <v>280230000</v>
@@ -4128,13 +4128,13 @@
         <v>3521100</v>
       </c>
       <c r="I75">
-        <v>61746176000</v>
+        <v>60668454800</v>
       </c>
       <c r="J75" t="str">
         <v>2023-02-02T13:10:00.000Z</v>
       </c>
       <c r="K75">
-        <v>5387539841000</v>
+        <v>4997158313300</v>
       </c>
       <c r="L75">
         <v>320875400</v>
@@ -4143,13 +4143,13 @@
         <v>96500</v>
       </c>
       <c r="N75">
-        <v>9580256000</v>
+        <v>9139297400</v>
       </c>
       <c r="O75">
         <v>-47392200</v>
       </c>
       <c r="P75">
-        <v>-524107508000</v>
+        <v>-469308761600</v>
       </c>
     </row>
     <row r="76">
@@ -4166,25 +4166,25 @@
         <v>13000</v>
       </c>
       <c r="E76">
-        <v>39436637000</v>
+        <v>37989785300</v>
       </c>
       <c r="F76">
-        <v>26754153000</v>
+        <v>24927781200</v>
       </c>
       <c r="G76">
-        <v>820187000</v>
+        <v>658349000</v>
       </c>
       <c r="H76">
         <v>3398500</v>
       </c>
       <c r="I76">
-        <v>67010977000</v>
+        <v>63575915500</v>
       </c>
       <c r="J76" t="str">
         <v>2023-02-02T13:12:00.000Z</v>
       </c>
       <c r="K76">
-        <v>5454550818000</v>
+        <v>5060734228800</v>
       </c>
       <c r="L76">
         <v>324273900</v>
@@ -4193,13 +4193,13 @@
         <v>-969100</v>
       </c>
       <c r="N76">
-        <v>-12682484000</v>
+        <v>-13062004100</v>
       </c>
       <c r="O76">
         <v>-48361300</v>
       </c>
       <c r="P76">
-        <v>-536789992000</v>
+        <v>-482370765700</v>
       </c>
     </row>
     <row r="77">
@@ -4216,10 +4216,10 @@
         <v>64500</v>
       </c>
       <c r="E77">
-        <v>66459895000</v>
+        <v>63092865400</v>
       </c>
       <c r="F77">
-        <v>15253788000</v>
+        <v>14364078600</v>
       </c>
       <c r="G77">
         <v>805702000</v>
@@ -4228,13 +4228,13 @@
         <v>4820600</v>
       </c>
       <c r="I77">
-        <v>82519385000</v>
+        <v>78262646000</v>
       </c>
       <c r="J77" t="str">
         <v>2023-02-02T13:14:00.000Z</v>
       </c>
       <c r="K77">
-        <v>5537070203000</v>
+        <v>5138996874800</v>
       </c>
       <c r="L77">
         <v>329094500</v>
@@ -4243,13 +4243,13 @@
         <v>-2716900</v>
       </c>
       <c r="N77">
-        <v>-51206107000</v>
+        <v>-48728786800</v>
       </c>
       <c r="O77">
         <v>-51078200</v>
       </c>
       <c r="P77">
-        <v>-587996099000</v>
+        <v>-531099552500</v>
       </c>
     </row>
     <row r="78">
@@ -4266,25 +4266,25 @@
         <v>7500</v>
       </c>
       <c r="E78">
-        <v>94992993000</v>
+        <v>86237657100</v>
       </c>
       <c r="F78">
-        <v>15781003000</v>
+        <v>14454830500</v>
       </c>
       <c r="G78">
-        <v>146789000</v>
+        <v>77258600</v>
       </c>
       <c r="H78">
         <v>6486500</v>
       </c>
       <c r="I78">
-        <v>110920785000</v>
+        <v>100769746200</v>
       </c>
       <c r="J78" t="str">
         <v>2023-02-02T13:16:00.000Z</v>
       </c>
       <c r="K78">
-        <v>5647990988000</v>
+        <v>5239766621000</v>
       </c>
       <c r="L78">
         <v>335581000</v>
@@ -4293,13 +4293,13 @@
         <v>-4718000</v>
       </c>
       <c r="N78">
-        <v>-79211990000</v>
+        <v>-71782826600</v>
       </c>
       <c r="O78">
         <v>-55796200</v>
       </c>
       <c r="P78">
-        <v>-667208089000</v>
+        <v>-602882379100</v>
       </c>
     </row>
     <row r="79">
@@ -4316,25 +4316,25 @@
         <v>23700</v>
       </c>
       <c r="E79">
-        <v>122879823000</v>
+        <v>103350671700</v>
       </c>
       <c r="F79">
-        <v>22319737000</v>
+        <v>21153504400</v>
       </c>
       <c r="G79">
-        <v>441412000</v>
+        <v>425527900</v>
       </c>
       <c r="H79">
         <v>8787700</v>
       </c>
       <c r="I79">
-        <v>145640972000</v>
+        <v>124929704000</v>
       </c>
       <c r="J79" t="str">
         <v>2023-02-02T13:18:00.000Z</v>
       </c>
       <c r="K79">
-        <v>5793631960000</v>
+        <v>5364696325000</v>
       </c>
       <c r="L79">
         <v>344368700</v>
@@ -4343,13 +4343,13 @@
         <v>-6187600</v>
       </c>
       <c r="N79">
-        <v>-100560086000</v>
+        <v>-82197167300</v>
       </c>
       <c r="O79">
         <v>-61983800</v>
       </c>
       <c r="P79">
-        <v>-767768175000</v>
+        <v>-685079546400</v>
       </c>
     </row>
     <row r="80">
@@ -4366,10 +4366,10 @@
         <v>114200</v>
       </c>
       <c r="E80">
-        <v>37937322000</v>
+        <v>31171894200</v>
       </c>
       <c r="F80">
-        <v>54195856000</v>
+        <v>49062094900</v>
       </c>
       <c r="G80">
         <v>1803582000</v>
@@ -4378,13 +4378,13 @@
         <v>5534600</v>
       </c>
       <c r="I80">
-        <v>93936760000</v>
+        <v>82037571100</v>
       </c>
       <c r="J80" t="str">
         <v>2023-02-02T13:20:00.000Z</v>
       </c>
       <c r="K80">
-        <v>5887568720000</v>
+        <v>5446733896100</v>
       </c>
       <c r="L80">
         <v>349903300</v>
@@ -4393,13 +4393,13 @@
         <v>390200</v>
       </c>
       <c r="N80">
-        <v>16258534000</v>
+        <v>17890200700</v>
       </c>
       <c r="O80">
         <v>-61593600</v>
       </c>
       <c r="P80">
-        <v>-751509641000</v>
+        <v>-667189345700</v>
       </c>
     </row>
     <row r="81">
@@ -4416,25 +4416,25 @@
         <v>8400</v>
       </c>
       <c r="E81">
-        <v>26855249000</v>
+        <v>26120784200</v>
       </c>
       <c r="F81">
-        <v>25867418000</v>
+        <v>24044243000</v>
       </c>
       <c r="G81">
-        <v>197609000</v>
+        <v>172434200</v>
       </c>
       <c r="H81">
         <v>3254100</v>
       </c>
       <c r="I81">
-        <v>52920276000</v>
+        <v>50337461400</v>
       </c>
       <c r="J81" t="str">
         <v>2023-02-02T13:22:00.000Z</v>
       </c>
       <c r="K81">
-        <v>5940488996000</v>
+        <v>5497071357500</v>
       </c>
       <c r="L81">
         <v>353157400</v>
@@ -4443,13 +4443,13 @@
         <v>27900</v>
       </c>
       <c r="N81">
-        <v>-987831000</v>
+        <v>-2076541200</v>
       </c>
       <c r="O81">
         <v>-61565700</v>
       </c>
       <c r="P81">
-        <v>-752497472000</v>
+        <v>-669265886900</v>
       </c>
     </row>
     <row r="82">
@@ -4466,10 +4466,10 @@
         <v>1400</v>
       </c>
       <c r="E82">
-        <v>26285137000</v>
+        <v>22594731100</v>
       </c>
       <c r="F82">
-        <v>19502756000</v>
+        <v>18685274300</v>
       </c>
       <c r="G82">
         <v>65145000</v>
@@ -4478,13 +4478,13 @@
         <v>2616300</v>
       </c>
       <c r="I82">
-        <v>45853038000</v>
+        <v>41345150400</v>
       </c>
       <c r="J82" t="str">
         <v>2023-02-02T13:24:00.000Z</v>
       </c>
       <c r="K82">
-        <v>5986342034000</v>
+        <v>5538416507900</v>
       </c>
       <c r="L82">
         <v>355773700</v>
@@ -4493,13 +4493,13 @@
         <v>-206700</v>
       </c>
       <c r="N82">
-        <v>-6782381000</v>
+        <v>-3909456800</v>
       </c>
       <c r="O82">
         <v>-61772400</v>
       </c>
       <c r="P82">
-        <v>-759279853000</v>
+        <v>-673175343700</v>
       </c>
     </row>
     <row r="83">
@@ -4516,25 +4516,25 @@
         <v>40100</v>
       </c>
       <c r="E83">
-        <v>25852922000</v>
+        <v>23951025800</v>
       </c>
       <c r="F83">
-        <v>39462168000</v>
+        <v>36001831800</v>
       </c>
       <c r="G83">
-        <v>636620000</v>
+        <v>632224400</v>
       </c>
       <c r="H83">
         <v>3314800</v>
       </c>
       <c r="I83">
-        <v>65951710000</v>
+        <v>60585082000</v>
       </c>
       <c r="J83" t="str">
         <v>2023-02-02T13:26:00.000Z</v>
       </c>
       <c r="K83">
-        <v>6052293744000</v>
+        <v>5599001589900</v>
       </c>
       <c r="L83">
         <v>359088500</v>
@@ -4543,13 +4543,13 @@
         <v>579700</v>
       </c>
       <c r="N83">
-        <v>13609246000</v>
+        <v>12050806000</v>
       </c>
       <c r="O83">
         <v>-61192700</v>
       </c>
       <c r="P83">
-        <v>-745670607000</v>
+        <v>-661124537700</v>
       </c>
     </row>
     <row r="84">
@@ -4566,25 +4566,25 @@
         <v>4400</v>
       </c>
       <c r="E84">
-        <v>19324093000</v>
+        <v>17843275300</v>
       </c>
       <c r="F84">
-        <v>27641475000</v>
+        <v>26445372300</v>
       </c>
       <c r="G84">
-        <v>161880000</v>
+        <v>6036000</v>
       </c>
       <c r="H84">
         <v>2400800</v>
       </c>
       <c r="I84">
-        <v>47127448000</v>
+        <v>44294683600</v>
       </c>
       <c r="J84" t="str">
         <v>2023-02-02T13:28:00.000Z</v>
       </c>
       <c r="K84">
-        <v>6099421192000</v>
+        <v>5643296273500</v>
       </c>
       <c r="L84">
         <v>361489300</v>
@@ -4593,13 +4593,13 @@
         <v>545200</v>
       </c>
       <c r="N84">
-        <v>8317382000</v>
+        <v>8602097000</v>
       </c>
       <c r="O84">
         <v>-60647500</v>
       </c>
       <c r="P84">
-        <v>-737353225000</v>
+        <v>-652522440700</v>
       </c>
     </row>
     <row r="85">
@@ -4616,25 +4616,25 @@
         <v>16400</v>
       </c>
       <c r="E85">
-        <v>18424597000</v>
+        <v>17652769600</v>
       </c>
       <c r="F85">
-        <v>49426250000</v>
+        <v>46378800500</v>
       </c>
       <c r="G85">
-        <v>446581000</v>
+        <v>435392200</v>
       </c>
       <c r="H85">
         <v>3573900</v>
       </c>
       <c r="I85">
-        <v>68297428000</v>
+        <v>64466962300</v>
       </c>
       <c r="J85" t="str">
         <v>2023-02-02T13:30:00.000Z</v>
       </c>
       <c r="K85">
-        <v>6167718620000</v>
+        <v>5707763235800</v>
       </c>
       <c r="L85">
         <v>365063200</v>
@@ -4643,13 +4643,13 @@
         <v>1304700</v>
       </c>
       <c r="N85">
-        <v>31001653000</v>
+        <v>28726030900</v>
       </c>
       <c r="O85">
         <v>-59342800</v>
       </c>
       <c r="P85">
-        <v>-706351572000</v>
+        <v>-623796409800</v>
       </c>
     </row>
     <row r="86">
@@ -4666,25 +4666,25 @@
         <v>13600</v>
       </c>
       <c r="E86">
-        <v>19201689000</v>
+        <v>16667425800</v>
       </c>
       <c r="F86">
-        <v>72184058000</v>
+        <v>65216232800</v>
       </c>
       <c r="G86">
-        <v>311562000</v>
+        <v>306966600</v>
       </c>
       <c r="H86">
         <v>4771400</v>
       </c>
       <c r="I86">
-        <v>91697309000</v>
+        <v>82190625200</v>
       </c>
       <c r="J86" t="str">
         <v>2023-02-02T13:32:00.000Z</v>
       </c>
       <c r="K86">
-        <v>6259415929000</v>
+        <v>5789953861000</v>
       </c>
       <c r="L86">
         <v>369834600</v>
@@ -4693,13 +4693,13 @@
         <v>2384600</v>
       </c>
       <c r="N86">
-        <v>52982369000</v>
+        <v>48548807000</v>
       </c>
       <c r="O86">
         <v>-56958200</v>
       </c>
       <c r="P86">
-        <v>-653369203000</v>
+        <v>-575247602800</v>
       </c>
     </row>
     <row r="87">
@@ -4716,10 +4716,10 @@
         <v>4000</v>
       </c>
       <c r="E87">
-        <v>15028854000</v>
+        <v>13830353700</v>
       </c>
       <c r="F87">
-        <v>72308663000</v>
+        <v>63170210600</v>
       </c>
       <c r="G87">
         <v>40064000</v>
@@ -4728,13 +4728,13 @@
         <v>4662100</v>
       </c>
       <c r="I87">
-        <v>87377581000</v>
+        <v>77040628300</v>
       </c>
       <c r="J87" t="str">
         <v>2023-02-02T13:34:00.000Z</v>
       </c>
       <c r="K87">
-        <v>6346793510000</v>
+        <v>5866994489300</v>
       </c>
       <c r="L87">
         <v>374496700</v>
@@ -4743,13 +4743,13 @@
         <v>3181100</v>
       </c>
       <c r="N87">
-        <v>57279809000</v>
+        <v>49339856900</v>
       </c>
       <c r="O87">
         <v>-53777100</v>
       </c>
       <c r="P87">
-        <v>-596089394000</v>
+        <v>-525907745900</v>
       </c>
     </row>
     <row r="88">
@@ -4766,10 +4766,10 @@
         <v>9800</v>
       </c>
       <c r="E88">
-        <v>36994629000</v>
+        <v>34899426300</v>
       </c>
       <c r="F88">
-        <v>33573127000</v>
+        <v>31590311800</v>
       </c>
       <c r="G88">
         <v>71605000</v>
@@ -4778,13 +4778,13 @@
         <v>4038900</v>
       </c>
       <c r="I88">
-        <v>70639361000</v>
+        <v>66561343100</v>
       </c>
       <c r="J88" t="str">
         <v>2023-02-02T13:36:00.000Z</v>
       </c>
       <c r="K88">
-        <v>6417432871000</v>
+        <v>5933555832400</v>
       </c>
       <c r="L88">
         <v>378535600</v>
@@ -4793,13 +4793,13 @@
         <v>-373300</v>
       </c>
       <c r="N88">
-        <v>-3421502000</v>
+        <v>-3309114500</v>
       </c>
       <c r="O88">
         <v>-54150400</v>
       </c>
       <c r="P88">
-        <v>-599510896000</v>
+        <v>-529216860400</v>
       </c>
     </row>
     <row r="89">
@@ -4816,25 +4816,25 @@
         <v>70000</v>
       </c>
       <c r="E89">
-        <v>35708456000</v>
+        <v>34477787900</v>
       </c>
       <c r="F89">
-        <v>43382772000</v>
+        <v>37317443400</v>
       </c>
       <c r="G89">
-        <v>637261000</v>
+        <v>609289000</v>
       </c>
       <c r="H89">
         <v>4237800</v>
       </c>
       <c r="I89">
-        <v>79728489000</v>
+        <v>72404520300</v>
       </c>
       <c r="J89" t="str">
         <v>2023-02-02T13:38:00.000Z</v>
       </c>
       <c r="K89">
-        <v>6497161360000</v>
+        <v>6005960352700</v>
       </c>
       <c r="L89">
         <v>382773400</v>
@@ -4843,13 +4843,13 @@
         <v>-352000</v>
       </c>
       <c r="N89">
-        <v>7674316000</v>
+        <v>2839655500</v>
       </c>
       <c r="O89">
         <v>-54502400</v>
       </c>
       <c r="P89">
-        <v>-591836580000</v>
+        <v>-526377204900</v>
       </c>
     </row>
     <row r="90">
@@ -4866,25 +4866,25 @@
         <v>13500</v>
       </c>
       <c r="E90">
-        <v>35254828000</v>
+        <v>32102583400</v>
       </c>
       <c r="F90">
-        <v>23357166000</v>
+        <v>20634491400</v>
       </c>
       <c r="G90">
-        <v>271460000</v>
+        <v>264067400</v>
       </c>
       <c r="H90">
         <v>3351900</v>
       </c>
       <c r="I90">
-        <v>58883454000</v>
+        <v>53001142200</v>
       </c>
       <c r="J90" t="str">
         <v>2023-02-02T13:40:00.000Z</v>
       </c>
       <c r="K90">
-        <v>6556044814000</v>
+        <v>6058961494900</v>
       </c>
       <c r="L90">
         <v>386125300</v>
@@ -4893,13 +4893,13 @@
         <v>-894600</v>
       </c>
       <c r="N90">
-        <v>-11897662000</v>
+        <v>-11468092000</v>
       </c>
       <c r="O90">
         <v>-55397000</v>
       </c>
       <c r="P90">
-        <v>-603734242000</v>
+        <v>-537845296900</v>
       </c>
     </row>
     <row r="91">
@@ -4916,25 +4916,25 @@
         <v>24000</v>
       </c>
       <c r="E91">
-        <v>101452517000</v>
+        <v>93017760200</v>
       </c>
       <c r="F91">
-        <v>18292169000</v>
+        <v>16202760500</v>
       </c>
       <c r="G91">
-        <v>411747000</v>
+        <v>401757000</v>
       </c>
       <c r="H91">
         <v>6261700</v>
       </c>
       <c r="I91">
-        <v>120156433000</v>
+        <v>109622277700</v>
       </c>
       <c r="J91" t="str">
         <v>2023-02-02T13:42:00.000Z</v>
       </c>
       <c r="K91">
-        <v>6676201247000</v>
+        <v>6168583772600</v>
       </c>
       <c r="L91">
         <v>392387000</v>
@@ -4943,13 +4943,13 @@
         <v>-4310700</v>
       </c>
       <c r="N91">
-        <v>-83160348000</v>
+        <v>-76814999700</v>
       </c>
       <c r="O91">
         <v>-59707700</v>
       </c>
       <c r="P91">
-        <v>-686894590000</v>
+        <v>-614660296600</v>
       </c>
     </row>
     <row r="92">
@@ -4966,10 +4966,10 @@
         <v>44400</v>
       </c>
       <c r="E92">
-        <v>83834722000</v>
+        <v>79004057500</v>
       </c>
       <c r="F92">
-        <v>23567796000</v>
+        <v>20905960500</v>
       </c>
       <c r="G92">
         <v>592822000</v>
@@ -4978,13 +4978,13 @@
         <v>6184500</v>
       </c>
       <c r="I92">
-        <v>107995340000</v>
+        <v>100502840000</v>
       </c>
       <c r="J92" t="str">
         <v>2023-02-02T13:44:00.000Z</v>
       </c>
       <c r="K92">
-        <v>6784196587000</v>
+        <v>6269086612600</v>
       </c>
       <c r="L92">
         <v>398571500</v>
@@ -4993,13 +4993,13 @@
         <v>-3677700</v>
       </c>
       <c r="N92">
-        <v>-60266926000</v>
+        <v>-58098097000</v>
       </c>
       <c r="O92">
         <v>-63385400</v>
       </c>
       <c r="P92">
-        <v>-747161516000</v>
+        <v>-672758393600</v>
       </c>
     </row>
     <row r="93">
@@ -5016,10 +5016,10 @@
         <v>4800</v>
       </c>
       <c r="E93">
-        <v>58862689000</v>
+        <v>51527631400</v>
       </c>
       <c r="F93">
-        <v>32583895000</v>
+        <v>28705876900</v>
       </c>
       <c r="G93">
         <v>89034000</v>
@@ -5028,13 +5028,13 @@
         <v>4911600</v>
       </c>
       <c r="I93">
-        <v>91535618000</v>
+        <v>80322542300</v>
       </c>
       <c r="J93" t="str">
         <v>2023-02-02T13:46:00.000Z</v>
       </c>
       <c r="K93">
-        <v>6875732205000</v>
+        <v>6349409154900</v>
       </c>
       <c r="L93">
         <v>403483100</v>
@@ -5043,13 +5043,13 @@
         <v>-1883200</v>
       </c>
       <c r="N93">
-        <v>-26278794000</v>
+        <v>-22821754500</v>
       </c>
       <c r="O93">
         <v>-65268600</v>
       </c>
       <c r="P93">
-        <v>-773440310000</v>
+        <v>-695580148100</v>
       </c>
     </row>
     <row r="94">
@@ -5066,25 +5066,25 @@
         <v>25400</v>
       </c>
       <c r="E94">
-        <v>21343737000</v>
+        <v>18455727900</v>
       </c>
       <c r="F94">
-        <v>42447536000</v>
+        <v>32281012700</v>
       </c>
       <c r="G94">
-        <v>263683000</v>
+        <v>254692000</v>
       </c>
       <c r="H94">
         <v>3599700</v>
       </c>
       <c r="I94">
-        <v>64054956000</v>
+        <v>50991432600</v>
       </c>
       <c r="J94" t="str">
         <v>2023-02-02T13:48:00.000Z</v>
       </c>
       <c r="K94">
-        <v>6939787161000</v>
+        <v>6400400587500</v>
       </c>
       <c r="L94">
         <v>407082800</v>
@@ -5093,13 +5093,13 @@
         <v>899300</v>
       </c>
       <c r="N94">
-        <v>21103799000</v>
+        <v>13825284800</v>
       </c>
       <c r="O94">
         <v>-64369300</v>
       </c>
       <c r="P94">
-        <v>-752336511000</v>
+        <v>-681754863300</v>
       </c>
     </row>
     <row r="95">
@@ -5116,10 +5116,10 @@
         <v>11600</v>
       </c>
       <c r="E95">
-        <v>18650099000</v>
+        <v>16876674200</v>
       </c>
       <c r="F95">
-        <v>30844290000</v>
+        <v>26229809100</v>
       </c>
       <c r="G95">
         <v>109861000</v>
@@ -5128,13 +5128,13 @@
         <v>2469300</v>
       </c>
       <c r="I95">
-        <v>49604250000</v>
+        <v>43216344300</v>
       </c>
       <c r="J95" t="str">
         <v>2023-02-02T13:50:00.000Z</v>
       </c>
       <c r="K95">
-        <v>6989391411000</v>
+        <v>6443616931800</v>
       </c>
       <c r="L95">
         <v>409552100</v>
@@ -5143,13 +5143,13 @@
         <v>488100</v>
       </c>
       <c r="N95">
-        <v>12194191000</v>
+        <v>9353134900</v>
       </c>
       <c r="O95">
         <v>-63881200</v>
       </c>
       <c r="P95">
-        <v>-740142320000</v>
+        <v>-672401728400</v>
       </c>
     </row>
     <row r="96">
@@ -5166,10 +5166,10 @@
         <v>3600</v>
       </c>
       <c r="E96">
-        <v>18913169000</v>
+        <v>15280105700</v>
       </c>
       <c r="F96">
-        <v>95788877000</v>
+        <v>88109763800</v>
       </c>
       <c r="G96">
         <v>155759000</v>
@@ -5178,13 +5178,13 @@
         <v>5835100</v>
       </c>
       <c r="I96">
-        <v>114857805000</v>
+        <v>103545628500</v>
       </c>
       <c r="J96" t="str">
         <v>2023-02-02T13:52:00.000Z</v>
       </c>
       <c r="K96">
-        <v>7104249216000</v>
+        <v>6547162560300</v>
       </c>
       <c r="L96">
         <v>415387200</v>
@@ -5193,13 +5193,13 @@
         <v>3570300</v>
       </c>
       <c r="N96">
-        <v>76875708000</v>
+        <v>72829658100</v>
       </c>
       <c r="O96">
         <v>-60310900</v>
       </c>
       <c r="P96">
-        <v>-663266612000</v>
+        <v>-599572070300</v>
       </c>
     </row>
     <row r="97">
@@ -5216,10 +5216,10 @@
         <v>44100</v>
       </c>
       <c r="E97">
-        <v>21407752000</v>
+        <v>18928034200</v>
       </c>
       <c r="F97">
-        <v>160418993000</v>
+        <v>153769549100</v>
       </c>
       <c r="G97">
         <v>1571606000</v>
@@ -5228,13 +5228,13 @@
         <v>9023100</v>
       </c>
       <c r="I97">
-        <v>183398351000</v>
+        <v>174269189300</v>
       </c>
       <c r="J97" t="str">
         <v>2023-02-02T13:54:00.000Z</v>
       </c>
       <c r="K97">
-        <v>7287647567000</v>
+        <v>6721431749600</v>
       </c>
       <c r="L97">
         <v>424410300</v>
@@ -5243,13 +5243,13 @@
         <v>7039600</v>
       </c>
       <c r="N97">
-        <v>139011241000</v>
+        <v>134841514900</v>
       </c>
       <c r="O97">
         <v>-53271300</v>
       </c>
       <c r="P97">
-        <v>-524255371000</v>
+        <v>-464730555400</v>
       </c>
     </row>
     <row r="98">
@@ -5266,10 +5266,10 @@
         <v>27700</v>
       </c>
       <c r="E98">
-        <v>40312835000</v>
+        <v>38668780700</v>
       </c>
       <c r="F98">
-        <v>122078179000</v>
+        <v>113191374700</v>
       </c>
       <c r="G98">
         <v>680473000</v>
@@ -5278,13 +5278,13 @@
         <v>8835000</v>
       </c>
       <c r="I98">
-        <v>163071487000</v>
+        <v>152540628400</v>
       </c>
       <c r="J98" t="str">
         <v>2023-02-02T13:56:00.000Z</v>
       </c>
       <c r="K98">
-        <v>7450719054000</v>
+        <v>6873972378000</v>
       </c>
       <c r="L98">
         <v>433245300</v>
@@ -5293,13 +5293,13 @@
         <v>5230700</v>
       </c>
       <c r="N98">
-        <v>81765344000</v>
+        <v>74522594000</v>
       </c>
       <c r="O98">
         <v>-48040600</v>
       </c>
       <c r="P98">
-        <v>-442490027000</v>
+        <v>-390207961400</v>
       </c>
     </row>
     <row r="99">
@@ -5316,25 +5316,25 @@
         <v>20700</v>
       </c>
       <c r="E99">
-        <v>70382840000</v>
+        <v>68365559300</v>
       </c>
       <c r="F99">
-        <v>54179025000</v>
+        <v>51162144900</v>
       </c>
       <c r="G99">
-        <v>501691000</v>
+        <v>497495200</v>
       </c>
       <c r="H99">
         <v>7257300</v>
       </c>
       <c r="I99">
-        <v>125063556000</v>
+        <v>120025199400</v>
       </c>
       <c r="J99" t="str">
         <v>2023-02-02T13:58:00.000Z</v>
       </c>
       <c r="K99">
-        <v>7575782610000</v>
+        <v>6993997577400</v>
       </c>
       <c r="L99">
         <v>440502600</v>
@@ -5343,13 +5343,13 @@
         <v>-823200</v>
       </c>
       <c r="N99">
-        <v>-16203815000</v>
+        <v>-17203414400</v>
       </c>
       <c r="O99">
         <v>-48863800</v>
       </c>
       <c r="P99">
-        <v>-458693842000</v>
+        <v>-407411375800</v>
       </c>
     </row>
     <row r="100">
@@ -5366,25 +5366,25 @@
         <v>87400</v>
       </c>
       <c r="E100">
-        <v>52566269000</v>
+        <v>43093451300</v>
       </c>
       <c r="F100">
-        <v>33061340000</v>
+        <v>32032170200</v>
       </c>
       <c r="G100">
-        <v>726248000</v>
+        <v>425549000</v>
       </c>
       <c r="H100">
         <v>4631600</v>
       </c>
       <c r="I100">
-        <v>86353857000</v>
+        <v>75551170500</v>
       </c>
       <c r="J100" t="str">
         <v>2023-02-02T14:00:00.000Z</v>
       </c>
       <c r="K100">
-        <v>7662136467000</v>
+        <v>7069548747900</v>
       </c>
       <c r="L100">
         <v>445134200</v>
@@ -5393,13 +5393,13 @@
         <v>-1464000</v>
       </c>
       <c r="N100">
-        <v>-19504929000</v>
+        <v>-11061281100</v>
       </c>
       <c r="O100">
         <v>-50327800</v>
       </c>
       <c r="P100">
-        <v>-478198771000</v>
+        <v>-418472656900</v>
       </c>
     </row>
     <row r="101">
@@ -5416,25 +5416,25 @@
         <v>16900</v>
       </c>
       <c r="E101">
-        <v>31802627000</v>
+        <v>30504326600</v>
       </c>
       <c r="F101">
-        <v>39407315000</v>
+        <v>38704118900</v>
       </c>
       <c r="G101">
-        <v>640925000</v>
+        <v>598667300</v>
       </c>
       <c r="H101">
         <v>3754800</v>
       </c>
       <c r="I101">
-        <v>71850867000</v>
+        <v>69807112800</v>
       </c>
       <c r="J101" t="str">
         <v>2023-02-02T14:02:00.000Z</v>
       </c>
       <c r="K101">
-        <v>7733987334000</v>
+        <v>7139355860700</v>
       </c>
       <c r="L101">
         <v>448889000</v>
@@ -5443,13 +5443,13 @@
         <v>326500</v>
       </c>
       <c r="N101">
-        <v>7604688000</v>
+        <v>8199792300</v>
       </c>
       <c r="O101">
         <v>-50001300</v>
       </c>
       <c r="P101">
-        <v>-470594083000</v>
+        <v>-410272864600</v>
       </c>
     </row>
     <row r="102">
@@ -5466,10 +5466,10 @@
         <v>7300</v>
       </c>
       <c r="E102">
-        <v>76168024000</v>
+        <v>71510086600</v>
       </c>
       <c r="F102">
-        <v>22017105000</v>
+        <v>19569754800</v>
       </c>
       <c r="G102">
         <v>282805000</v>
@@ -5478,13 +5478,13 @@
         <v>4144000</v>
       </c>
       <c r="I102">
-        <v>98467934000</v>
+        <v>91362646400</v>
       </c>
       <c r="J102" t="str">
         <v>2023-02-02T14:04:00.000Z</v>
       </c>
       <c r="K102">
-        <v>7832455268000</v>
+        <v>7230718507100</v>
       </c>
       <c r="L102">
         <v>453033000</v>
@@ -5493,13 +5493,13 @@
         <v>-1716500</v>
       </c>
       <c r="N102">
-        <v>-54150919000</v>
+        <v>-51940331800</v>
       </c>
       <c r="O102">
         <v>-51717800</v>
       </c>
       <c r="P102">
-        <v>-524745002000</v>
+        <v>-462213196400</v>
       </c>
     </row>
     <row r="103">
@@ -5516,25 +5516,25 @@
         <v>134000</v>
       </c>
       <c r="E103">
-        <v>75883583000</v>
+        <v>72541128800</v>
       </c>
       <c r="F103">
-        <v>31405056000</v>
+        <v>29213949300</v>
       </c>
       <c r="G103">
-        <v>2339351000</v>
+        <v>2149541000</v>
       </c>
       <c r="H103">
         <v>5842700</v>
       </c>
       <c r="I103">
-        <v>109627990000</v>
+        <v>103904619100</v>
       </c>
       <c r="J103" t="str">
         <v>2023-02-02T14:06:00.000Z</v>
       </c>
       <c r="K103">
-        <v>7942083258000</v>
+        <v>7334623126200</v>
       </c>
       <c r="L103">
         <v>458875700</v>
@@ -5543,13 +5543,13 @@
         <v>-2926100</v>
       </c>
       <c r="N103">
-        <v>-44478527000</v>
+        <v>-43327179500</v>
       </c>
       <c r="O103">
         <v>-54643900</v>
       </c>
       <c r="P103">
-        <v>-569223529000</v>
+        <v>-505540375900</v>
       </c>
     </row>
     <row r="104">
@@ -5566,10 +5566,10 @@
         <v>13000</v>
       </c>
       <c r="E104">
-        <v>21996021000</v>
+        <v>19569849600</v>
       </c>
       <c r="F104">
-        <v>41850879000</v>
+        <v>40828702200</v>
       </c>
       <c r="G104">
         <v>114925000</v>
@@ -5578,13 +5578,13 @@
         <v>3400400</v>
       </c>
       <c r="I104">
-        <v>63961825000</v>
+        <v>60513476800</v>
       </c>
       <c r="J104" t="str">
         <v>2023-02-02T14:08:00.000Z</v>
       </c>
       <c r="K104">
-        <v>8006045083000</v>
+        <v>7395136603000</v>
       </c>
       <c r="L104">
         <v>462276100</v>
@@ -5593,13 +5593,13 @@
         <v>1019000</v>
       </c>
       <c r="N104">
-        <v>19854858000</v>
+        <v>21258852600</v>
       </c>
       <c r="O104">
         <v>-53624900</v>
       </c>
       <c r="P104">
-        <v>-549368671000</v>
+        <v>-484281523300</v>
       </c>
     </row>
     <row r="105">
@@ -5616,10 +5616,10 @@
         <v>22100</v>
       </c>
       <c r="E105">
-        <v>47744913000</v>
+        <v>41908755000</v>
       </c>
       <c r="F105">
-        <v>20101931000</v>
+        <v>19321712000</v>
       </c>
       <c r="G105">
         <v>226934000</v>
@@ -5628,13 +5628,13 @@
         <v>3388800</v>
       </c>
       <c r="I105">
-        <v>68073778000</v>
+        <v>61457401000</v>
       </c>
       <c r="J105" t="str">
         <v>2023-02-02T14:10:00.000Z</v>
       </c>
       <c r="K105">
-        <v>8074118861000</v>
+        <v>7456594004000</v>
       </c>
       <c r="L105">
         <v>465664900</v>
@@ -5643,13 +5643,13 @@
         <v>-1266700</v>
       </c>
       <c r="N105">
-        <v>-27642982000</v>
+        <v>-22587043000</v>
       </c>
       <c r="O105">
         <v>-54891600</v>
       </c>
       <c r="P105">
-        <v>-577011653000</v>
+        <v>-506868566300</v>
       </c>
     </row>
     <row r="106">
@@ -5666,10 +5666,10 @@
         <v>54400</v>
       </c>
       <c r="E106">
-        <v>68275917000</v>
+        <v>63214583400</v>
       </c>
       <c r="F106">
-        <v>18213790000</v>
+        <v>17626877500</v>
       </c>
       <c r="G106">
         <v>735498000</v>
@@ -5678,13 +5678,13 @@
         <v>5226800</v>
       </c>
       <c r="I106">
-        <v>87225205000</v>
+        <v>81576958900</v>
       </c>
       <c r="J106" t="str">
         <v>2023-02-02T14:12:00.000Z</v>
       </c>
       <c r="K106">
-        <v>8161344066000</v>
+        <v>7538170962900</v>
       </c>
       <c r="L106">
         <v>470891700</v>
@@ -5693,13 +5693,13 @@
         <v>-2865200</v>
       </c>
       <c r="N106">
-        <v>-50062127000</v>
+        <v>-45587705900</v>
       </c>
       <c r="O106">
         <v>-57756800</v>
       </c>
       <c r="P106">
-        <v>-627073780000</v>
+        <v>-552456272200</v>
       </c>
     </row>
     <row r="107">
@@ -5716,10 +5716,10 @@
         <v>18500</v>
       </c>
       <c r="E107">
-        <v>78943377000</v>
+        <v>73123103100</v>
       </c>
       <c r="F107">
-        <v>19599884000</v>
+        <v>18192193100</v>
       </c>
       <c r="G107">
         <v>411564000</v>
@@ -5728,13 +5728,13 @@
         <v>5733000</v>
       </c>
       <c r="I107">
-        <v>98954825000</v>
+        <v>91726860200</v>
       </c>
       <c r="J107" t="str">
         <v>2023-02-02T14:14:00.000Z</v>
       </c>
       <c r="K107">
-        <v>8260298891000</v>
+        <v>7629897823100</v>
       </c>
       <c r="L107">
         <v>476624700</v>
@@ -5743,13 +5743,13 @@
         <v>-3606700</v>
       </c>
       <c r="N107">
-        <v>-59343493000</v>
+        <v>-54930910000</v>
       </c>
       <c r="O107">
         <v>-61363500</v>
       </c>
       <c r="P107">
-        <v>-686417273000</v>
+        <v>-607387182200</v>
       </c>
     </row>
     <row r="108">
@@ -5766,25 +5766,25 @@
         <v>170400</v>
       </c>
       <c r="E108">
-        <v>263332602000</v>
+        <v>228836932200</v>
       </c>
       <c r="F108">
-        <v>32881639000</v>
+        <v>29995528000</v>
       </c>
       <c r="G108">
-        <v>2352181000</v>
+        <v>2344988200</v>
       </c>
       <c r="H108">
         <v>17753800</v>
       </c>
       <c r="I108">
-        <v>298566422000</v>
+        <v>261177448400</v>
       </c>
       <c r="J108" t="str">
         <v>2023-02-02T14:16:00.000Z</v>
       </c>
       <c r="K108">
-        <v>8558865313000</v>
+        <v>7891075271500</v>
       </c>
       <c r="L108">
         <v>494378500</v>
@@ -5793,13 +5793,13 @@
         <v>-14199000</v>
       </c>
       <c r="N108">
-        <v>-230450963000</v>
+        <v>-198841404200</v>
       </c>
       <c r="O108">
         <v>-75562500</v>
       </c>
       <c r="P108">
-        <v>-916868236000</v>
+        <v>-806228586400</v>
       </c>
     </row>
     <row r="109">
@@ -5816,25 +5816,25 @@
         <v>165700</v>
       </c>
       <c r="E109">
-        <v>131592427000</v>
+        <v>114796639600</v>
       </c>
       <c r="F109">
-        <v>60552742000</v>
+        <v>49032174100</v>
       </c>
       <c r="G109">
-        <v>2349656000</v>
+        <v>2071534400</v>
       </c>
       <c r="H109">
         <v>12393200</v>
       </c>
       <c r="I109">
-        <v>194494825000</v>
+        <v>165900348100</v>
       </c>
       <c r="J109" t="str">
         <v>2023-02-02T14:18:00.000Z</v>
       </c>
       <c r="K109">
-        <v>8753360138000</v>
+        <v>8056975619600</v>
       </c>
       <c r="L109">
         <v>506771700</v>
@@ -5843,13 +5843,13 @@
         <v>-5649100</v>
       </c>
       <c r="N109">
-        <v>-71039685000</v>
+        <v>-65764465500</v>
       </c>
       <c r="O109">
         <v>-81211600</v>
       </c>
       <c r="P109">
-        <v>-987907921000</v>
+        <v>-871993051900</v>
       </c>
     </row>
     <row r="110">
@@ -5866,10 +5866,10 @@
         <v>24400</v>
       </c>
       <c r="E110">
-        <v>43403492000</v>
+        <v>37702498700</v>
       </c>
       <c r="F110">
-        <v>77681265000</v>
+        <v>65513045400</v>
       </c>
       <c r="G110">
         <v>1060055000</v>
@@ -5878,13 +5878,13 @@
         <v>7374600</v>
       </c>
       <c r="I110">
-        <v>122144812000</v>
+        <v>104275599100</v>
       </c>
       <c r="J110" t="str">
         <v>2023-02-02T14:20:00.000Z</v>
       </c>
       <c r="K110">
-        <v>8875504950000</v>
+        <v>8161251218700</v>
       </c>
       <c r="L110">
         <v>514146300</v>
@@ -5893,13 +5893,13 @@
         <v>1533000</v>
       </c>
       <c r="N110">
-        <v>34277773000</v>
+        <v>27810546700</v>
       </c>
       <c r="O110">
         <v>-79678600</v>
       </c>
       <c r="P110">
-        <v>-953630148000</v>
+        <v>-844182505200</v>
       </c>
     </row>
     <row r="111">
@@ -5916,10 +5916,10 @@
         <v>15300</v>
       </c>
       <c r="E111">
-        <v>24594045000</v>
+        <v>23207233200</v>
       </c>
       <c r="F111">
-        <v>82450013000</v>
+        <v>73705766000</v>
       </c>
       <c r="G111">
         <v>505165000</v>
@@ -5928,13 +5928,13 @@
         <v>5971800</v>
       </c>
       <c r="I111">
-        <v>107549223000</v>
+        <v>97418164200</v>
       </c>
       <c r="J111" t="str">
         <v>2023-02-02T14:22:00.000Z</v>
       </c>
       <c r="K111">
-        <v>8983054173000</v>
+        <v>8258669382900</v>
       </c>
       <c r="L111">
         <v>520118100</v>
@@ -5943,13 +5943,13 @@
         <v>2860700</v>
       </c>
       <c r="N111">
-        <v>57855968000</v>
+        <v>50498532800</v>
       </c>
       <c r="O111">
         <v>-76817900</v>
       </c>
       <c r="P111">
-        <v>-895774180000</v>
+        <v>-793683972400</v>
       </c>
     </row>
     <row r="112">
@@ -5966,10 +5966,10 @@
         <v>55900</v>
       </c>
       <c r="E112">
-        <v>49392905000</v>
+        <v>45699901700</v>
       </c>
       <c r="F112">
-        <v>41131996000</v>
+        <v>34818815500</v>
       </c>
       <c r="G112">
         <v>1313870000</v>
@@ -5978,13 +5978,13 @@
         <v>5207600</v>
       </c>
       <c r="I112">
-        <v>91838771000</v>
+        <v>81832587200</v>
       </c>
       <c r="J112" t="str">
         <v>2023-02-02T14:24:00.000Z</v>
       </c>
       <c r="K112">
-        <v>9074892944000</v>
+        <v>8340501970100</v>
       </c>
       <c r="L112">
         <v>525325700</v>
@@ -5993,13 +5993,13 @@
         <v>-535100</v>
       </c>
       <c r="N112">
-        <v>-8260909000</v>
+        <v>-10881086200</v>
       </c>
       <c r="O112">
         <v>-77353000</v>
       </c>
       <c r="P112">
-        <v>-904035089000</v>
+        <v>-804565058600</v>
       </c>
     </row>
     <row r="113">
@@ -6016,10 +6016,10 @@
         <v>1500</v>
       </c>
       <c r="E113">
-        <v>52070650000</v>
+        <v>46868857000</v>
       </c>
       <c r="F113">
-        <v>30823659000</v>
+        <v>26569317600</v>
       </c>
       <c r="G113">
         <v>29022000</v>
@@ -6028,13 +6028,13 @@
         <v>4978100</v>
       </c>
       <c r="I113">
-        <v>82923331000</v>
+        <v>73467196600</v>
       </c>
       <c r="J113" t="str">
         <v>2023-02-02T14:26:00.000Z</v>
       </c>
       <c r="K113">
-        <v>9157816275000</v>
+        <v>8413969166700</v>
       </c>
       <c r="L113">
         <v>530303800</v>
@@ -6043,13 +6043,13 @@
         <v>-1565400</v>
       </c>
       <c r="N113">
-        <v>-21246991000</v>
+        <v>-20299539400</v>
       </c>
       <c r="O113">
         <v>-78918400</v>
       </c>
       <c r="P113">
-        <v>-925282080000</v>
+        <v>-824864598000</v>
       </c>
     </row>
     <row r="114">
@@ -6066,25 +6066,25 @@
         <v>53000</v>
       </c>
       <c r="E114">
-        <v>63314395000</v>
+        <v>52888731100</v>
       </c>
       <c r="F114">
-        <v>54065457000</v>
+        <v>50640785100</v>
       </c>
       <c r="G114">
-        <v>825541000</v>
+        <v>817249300</v>
       </c>
       <c r="H114">
         <v>7359600</v>
       </c>
       <c r="I114">
-        <v>118205393000</v>
+        <v>104346765500</v>
       </c>
       <c r="J114" t="str">
         <v>2023-02-02T14:28:00.000Z</v>
       </c>
       <c r="K114">
-        <v>9276021668000</v>
+        <v>8518315932200</v>
       </c>
       <c r="L114">
         <v>537663400</v>
@@ -6093,13 +6093,13 @@
         <v>-552400</v>
       </c>
       <c r="N114">
-        <v>-9248938000</v>
+        <v>-2247946000</v>
       </c>
       <c r="O114">
         <v>-79470800</v>
       </c>
       <c r="P114">
-        <v>-934531018000</v>
+        <v>-827112544000</v>
       </c>
     </row>
     <row r="115">
@@ -6134,7 +6134,7 @@
         <v>2023-02-02T14:30:00.000Z</v>
       </c>
       <c r="K115">
-        <v>9276121178000</v>
+        <v>8518415442200</v>
       </c>
       <c r="L115">
         <v>537669500</v>
@@ -6149,7 +6149,7 @@
         <v>-79467900</v>
       </c>
       <c r="P115">
-        <v>-934505028000</v>
+        <v>-827086554000</v>
       </c>
     </row>
     <row r="116">
@@ -6166,25 +6166,25 @@
         <v>25632000</v>
       </c>
       <c r="E116">
-        <v>13025175000</v>
+        <v>8389914900</v>
       </c>
       <c r="F116">
-        <v>15919493000</v>
+        <v>13396618400</v>
       </c>
       <c r="G116">
-        <v>553963797000</v>
+        <v>485904924000</v>
       </c>
       <c r="H116">
         <v>27406500</v>
       </c>
       <c r="I116">
-        <v>582908465000</v>
+        <v>507691457300</v>
       </c>
       <c r="J116" t="str">
         <v>2023-02-02T14:44:00.000Z</v>
       </c>
       <c r="K116">
-        <v>9859029643000</v>
+        <v>9026106899500</v>
       </c>
       <c r="L116">
         <v>565076000</v>
@@ -6193,13 +6193,13 @@
         <v>68700</v>
       </c>
       <c r="N116">
-        <v>2894318000</v>
+        <v>5006703500</v>
       </c>
       <c r="O116">
         <v>-79399200</v>
       </c>
       <c r="P116">
-        <v>-931610710000</v>
+        <v>-822079850500</v>
       </c>
     </row>
   </sheetData>

--- a/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
+++ b/name/vnindex/20230202/VNINDEX_HOSE_5p_20230202.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P116"/>
+  <dimension ref="A1:AC116"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +451,45 @@
       <c r="P1" t="str">
         <v>acum_busd_val</v>
       </c>
+      <c r="Q1" t="str">
+        <v>acum_val_bu</v>
+      </c>
+      <c r="R1" t="str">
+        <v>acum_val_sd</v>
+      </c>
+      <c r="S1" t="str">
+        <v>accum_bu</v>
+      </c>
+      <c r="T1" t="str">
+        <v>accum_sd</v>
+      </c>
+      <c r="U1" t="str">
+        <v>avg_val_bu</v>
+      </c>
+      <c r="V1" t="str">
+        <v>avg_val_sd</v>
+      </c>
+      <c r="W1" t="str">
+        <v>avg_val</v>
+      </c>
+      <c r="X1" t="str">
+        <v>avg_vol</v>
+      </c>
+      <c r="Y1" t="str">
+        <v>avg_bu</v>
+      </c>
+      <c r="Z1" t="str">
+        <v>avg_sd</v>
+      </c>
+      <c r="AA1" t="str">
+        <v>avg_busd</v>
+      </c>
+      <c r="AB1" t="str">
+        <v>avg_busd_val</v>
+      </c>
+      <c r="AC1" t="str">
+        <v>rbusd</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -501,6 +540,45 @@
       <c r="P2">
         <v>-28044381000</v>
       </c>
+      <c r="Q2">
+        <v>80029162400</v>
+      </c>
+      <c r="R2">
+        <v>108073543400</v>
+      </c>
+      <c r="S2">
+        <v>5005600</v>
+      </c>
+      <c r="T2">
+        <v>6933500</v>
+      </c>
+      <c r="U2">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V2">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W2">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X2">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y2">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z2">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA2">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB2">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC2">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -551,6 +629,45 @@
       <c r="P3">
         <v>3395937100</v>
       </c>
+      <c r="Q3">
+        <v>165399900200</v>
+      </c>
+      <c r="R3">
+        <v>162003963100</v>
+      </c>
+      <c r="S3">
+        <v>10618900</v>
+      </c>
+      <c r="T3">
+        <v>10453900</v>
+      </c>
+      <c r="U3">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V3">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W3">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X3">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y3">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z3">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA3">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB3">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC3">
+        <v>4.4</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -601,6 +718,45 @@
       <c r="P4">
         <v>4629337400</v>
       </c>
+      <c r="Q4">
+        <v>233345604000</v>
+      </c>
+      <c r="R4">
+        <v>228716266600</v>
+      </c>
+      <c r="S4">
+        <v>14888800</v>
+      </c>
+      <c r="T4">
+        <v>15442900</v>
+      </c>
+      <c r="U4">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V4">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W4">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X4">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y4">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z4">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA4">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB4">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC4">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -651,6 +807,45 @@
       <c r="P5">
         <v>-94735170900</v>
       </c>
+      <c r="Q5">
+        <v>276432399000</v>
+      </c>
+      <c r="R5">
+        <v>371167569900</v>
+      </c>
+      <c r="S5">
+        <v>17590700</v>
+      </c>
+      <c r="T5">
+        <v>25160000</v>
+      </c>
+      <c r="U5">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V5">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W5">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X5">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y5">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z5">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA5">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB5">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC5">
+        <v>13.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -701,6 +896,45 @@
       <c r="P6">
         <v>-201641160800</v>
       </c>
+      <c r="Q6">
+        <v>310807000900</v>
+      </c>
+      <c r="R6">
+        <v>512448161700</v>
+      </c>
+      <c r="S6">
+        <v>19902200</v>
+      </c>
+      <c r="T6">
+        <v>34610500</v>
+      </c>
+      <c r="U6">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V6">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W6">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X6">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y6">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z6">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA6">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB6">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC6">
+        <v>15</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -751,6 +985,45 @@
       <c r="P7">
         <v>-250813451200</v>
       </c>
+      <c r="Q7">
+        <v>374773150700</v>
+      </c>
+      <c r="R7">
+        <v>625586601900</v>
+      </c>
+      <c r="S7">
+        <v>23578800</v>
+      </c>
+      <c r="T7">
+        <v>41746900</v>
+      </c>
+      <c r="U7">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V7">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W7">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X7">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y7">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z7">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA7">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB7">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC7">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -801,6 +1074,45 @@
       <c r="P8">
         <v>-221130004000</v>
       </c>
+      <c r="Q8">
+        <v>440161212600</v>
+      </c>
+      <c r="R8">
+        <v>661291216600</v>
+      </c>
+      <c r="S8">
+        <v>27757800</v>
+      </c>
+      <c r="T8">
+        <v>44096800</v>
+      </c>
+      <c r="U8">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V8">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W8">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X8">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y8">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z8">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA8">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB8">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC8">
+        <v>4.2</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -851,6 +1163,45 @@
       <c r="P9">
         <v>-195774269100</v>
       </c>
+      <c r="Q9">
+        <v>492325101000</v>
+      </c>
+      <c r="R9">
+        <v>688099370100</v>
+      </c>
+      <c r="S9">
+        <v>31027800</v>
+      </c>
+      <c r="T9">
+        <v>45914000</v>
+      </c>
+      <c r="U9">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V9">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W9">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X9">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y9">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z9">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA9">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB9">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC9">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -901,6 +1252,45 @@
       <c r="P10">
         <v>-149213990300</v>
       </c>
+      <c r="Q10">
+        <v>560549018200</v>
+      </c>
+      <c r="R10">
+        <v>709763008500</v>
+      </c>
+      <c r="S10">
+        <v>35145200</v>
+      </c>
+      <c r="T10">
+        <v>47411600</v>
+      </c>
+      <c r="U10">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V10">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W10">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X10">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y10">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z10">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA10">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB10">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC10">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -951,6 +1341,45 @@
       <c r="P11">
         <v>-116793971500</v>
       </c>
+      <c r="Q11">
+        <v>616000032700</v>
+      </c>
+      <c r="R11">
+        <v>732794004200</v>
+      </c>
+      <c r="S11">
+        <v>38654300</v>
+      </c>
+      <c r="T11">
+        <v>48820100</v>
+      </c>
+      <c r="U11">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V11">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W11">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X11">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y11">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z11">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA11">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB11">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC11">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1001,6 +1430,45 @@
       <c r="P12">
         <v>-110912249400</v>
       </c>
+      <c r="Q12">
+        <v>649337132500</v>
+      </c>
+      <c r="R12">
+        <v>760249381900</v>
+      </c>
+      <c r="S12">
+        <v>40939400</v>
+      </c>
+      <c r="T12">
+        <v>50816700</v>
+      </c>
+      <c r="U12">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V12">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W12">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X12">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y12">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z12">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA12">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB12">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC12">
+        <v>0.8</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1051,6 +1519,45 @@
       <c r="P13">
         <v>-132179684700</v>
       </c>
+      <c r="Q13">
+        <v>670296800200</v>
+      </c>
+      <c r="R13">
+        <v>802476484900</v>
+      </c>
+      <c r="S13">
+        <v>42421000</v>
+      </c>
+      <c r="T13">
+        <v>53575900</v>
+      </c>
+      <c r="U13">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V13">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W13">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X13">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y13">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z13">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA13">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB13">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC13">
+        <v>3</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1101,6 +1608,45 @@
       <c r="P14">
         <v>-172746916800</v>
       </c>
+      <c r="Q14">
+        <v>688025785100</v>
+      </c>
+      <c r="R14">
+        <v>860772701900</v>
+      </c>
+      <c r="S14">
+        <v>43622600</v>
+      </c>
+      <c r="T14">
+        <v>57555400</v>
+      </c>
+      <c r="U14">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V14">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W14">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X14">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y14">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z14">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA14">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB14">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC14">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1151,6 +1697,45 @@
       <c r="P15">
         <v>-198236849500</v>
       </c>
+      <c r="Q15">
+        <v>704476986300</v>
+      </c>
+      <c r="R15">
+        <v>902713835800</v>
+      </c>
+      <c r="S15">
+        <v>44747800</v>
+      </c>
+      <c r="T15">
+        <v>60300500</v>
+      </c>
+      <c r="U15">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V15">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W15">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X15">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y15">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z15">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA15">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB15">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC15">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1201,6 +1786,45 @@
       <c r="P16">
         <v>-209306339700</v>
       </c>
+      <c r="Q16">
+        <v>726490299500</v>
+      </c>
+      <c r="R16">
+        <v>935796639200</v>
+      </c>
+      <c r="S16">
+        <v>46091400</v>
+      </c>
+      <c r="T16">
+        <v>62673600</v>
+      </c>
+      <c r="U16">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V16">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W16">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X16">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y16">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z16">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA16">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB16">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC16">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -1251,6 +1875,45 @@
       <c r="P17">
         <v>-204645590200</v>
       </c>
+      <c r="Q17">
+        <v>764108883400</v>
+      </c>
+      <c r="R17">
+        <v>968754473600</v>
+      </c>
+      <c r="S17">
+        <v>48072000</v>
+      </c>
+      <c r="T17">
+        <v>65012700</v>
+      </c>
+      <c r="U17">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V17">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W17">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X17">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y17">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z17">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA17">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB17">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC17">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -1301,6 +1964,45 @@
       <c r="P18">
         <v>-190711881200</v>
       </c>
+      <c r="Q18">
+        <v>794235826900</v>
+      </c>
+      <c r="R18">
+        <v>984947708100</v>
+      </c>
+      <c r="S18">
+        <v>49858500</v>
+      </c>
+      <c r="T18">
+        <v>66125100</v>
+      </c>
+      <c r="U18">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V18">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W18">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X18">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y18">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z18">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA18">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB18">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -1351,6 +2053,45 @@
       <c r="P19">
         <v>-174832798700</v>
       </c>
+      <c r="Q19">
+        <v>822437309000</v>
+      </c>
+      <c r="R19">
+        <v>997270107700</v>
+      </c>
+      <c r="S19">
+        <v>51593400</v>
+      </c>
+      <c r="T19">
+        <v>67054000</v>
+      </c>
+      <c r="U19">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V19">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W19">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X19">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y19">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z19">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA19">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB19">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC19">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -1401,6 +2142,45 @@
       <c r="P20">
         <v>-193977681600</v>
       </c>
+      <c r="Q20">
+        <v>838102070300</v>
+      </c>
+      <c r="R20">
+        <v>1032079751900</v>
+      </c>
+      <c r="S20">
+        <v>52590800</v>
+      </c>
+      <c r="T20">
+        <v>69331300</v>
+      </c>
+      <c r="U20">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V20">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W20">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X20">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y20">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z20">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA20">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB20">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC20">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -1451,6 +2231,45 @@
       <c r="P21">
         <v>-242065883300</v>
       </c>
+      <c r="Q21">
+        <v>852586440600</v>
+      </c>
+      <c r="R21">
+        <v>1094652323900</v>
+      </c>
+      <c r="S21">
+        <v>53619400</v>
+      </c>
+      <c r="T21">
+        <v>73051500</v>
+      </c>
+      <c r="U21">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V21">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W21">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X21">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y21">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z21">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA21">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB21">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC21">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -1501,6 +2320,45 @@
       <c r="P22">
         <v>-264172766400</v>
       </c>
+      <c r="Q22">
+        <v>863814224700</v>
+      </c>
+      <c r="R22">
+        <v>1127986991100</v>
+      </c>
+      <c r="S22">
+        <v>54274800</v>
+      </c>
+      <c r="T22">
+        <v>75552800</v>
+      </c>
+      <c r="U22">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V22">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W22">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X22">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y22">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z22">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA22">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB22">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC22">
+        <v>3.1</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -1551,6 +2409,45 @@
       <c r="P23">
         <v>-284706350800</v>
       </c>
+      <c r="Q23">
+        <v>883292893700</v>
+      </c>
+      <c r="R23">
+        <v>1167999244500</v>
+      </c>
+      <c r="S23">
+        <v>55495400</v>
+      </c>
+      <c r="T23">
+        <v>78559300</v>
+      </c>
+      <c r="U23">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V23">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W23">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X23">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y23">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z23">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA23">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB23">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC23">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -1601,6 +2498,45 @@
       <c r="P24">
         <v>-281268345500</v>
       </c>
+      <c r="Q24">
+        <v>911152697700</v>
+      </c>
+      <c r="R24">
+        <v>1192421043200</v>
+      </c>
+      <c r="S24">
+        <v>57075200</v>
+      </c>
+      <c r="T24">
+        <v>80621200</v>
+      </c>
+      <c r="U24">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V24">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W24">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X24">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y24">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z24">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA24">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB24">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC24">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -1651,6 +2587,45 @@
       <c r="P25">
         <v>-278290815500</v>
       </c>
+      <c r="Q25">
+        <v>931306459200</v>
+      </c>
+      <c r="R25">
+        <v>1209597274700</v>
+      </c>
+      <c r="S25">
+        <v>58371200</v>
+      </c>
+      <c r="T25">
+        <v>81695100</v>
+      </c>
+      <c r="U25">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V25">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W25">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X25">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y25">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z25">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA25">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB25">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC25">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -1701,6 +2676,45 @@
       <c r="P26">
         <v>-292131999700</v>
       </c>
+      <c r="Q26">
+        <v>949519363600</v>
+      </c>
+      <c r="R26">
+        <v>1241651363300</v>
+      </c>
+      <c r="S26">
+        <v>59615700</v>
+      </c>
+      <c r="T26">
+        <v>83761300</v>
+      </c>
+      <c r="U26">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V26">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W26">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X26">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y26">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z26">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA26">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB26">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -1751,6 +2765,45 @@
       <c r="P27">
         <v>-309641367300</v>
       </c>
+      <c r="Q27">
+        <v>964318906300</v>
+      </c>
+      <c r="R27">
+        <v>1273960273600</v>
+      </c>
+      <c r="S27">
+        <v>60620200</v>
+      </c>
+      <c r="T27">
+        <v>85990500</v>
+      </c>
+      <c r="U27">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V27">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W27">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X27">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y27">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z27">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA27">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB27">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC27">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -1801,6 +2854,45 @@
       <c r="P28">
         <v>-320602574900</v>
       </c>
+      <c r="Q28">
+        <v>981001343900</v>
+      </c>
+      <c r="R28">
+        <v>1301603918800</v>
+      </c>
+      <c r="S28">
+        <v>61689400</v>
+      </c>
+      <c r="T28">
+        <v>87694900</v>
+      </c>
+      <c r="U28">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V28">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W28">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X28">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y28">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z28">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA28">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB28">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC28">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -1851,6 +2943,45 @@
       <c r="P29">
         <v>-338714131600</v>
       </c>
+      <c r="Q29">
+        <v>1002405970300</v>
+      </c>
+      <c r="R29">
+        <v>1341120101900</v>
+      </c>
+      <c r="S29">
+        <v>62982400</v>
+      </c>
+      <c r="T29">
+        <v>90258800</v>
+      </c>
+      <c r="U29">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V29">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W29">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X29">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y29">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z29">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA29">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB29">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC29">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -1901,6 +3032,45 @@
       <c r="P30">
         <v>-372782050000</v>
       </c>
+      <c r="Q30">
+        <v>1018506190200</v>
+      </c>
+      <c r="R30">
+        <v>1391288240200</v>
+      </c>
+      <c r="S30">
+        <v>63962100</v>
+      </c>
+      <c r="T30">
+        <v>93541800</v>
+      </c>
+      <c r="U30">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V30">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W30">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X30">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y30">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z30">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA30">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB30">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC30">
+        <v>4.8</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -1951,6 +3121,45 @@
       <c r="P31">
         <v>-383575295000</v>
       </c>
+      <c r="Q31">
+        <v>1039396756500</v>
+      </c>
+      <c r="R31">
+        <v>1422972051500</v>
+      </c>
+      <c r="S31">
+        <v>65193500</v>
+      </c>
+      <c r="T31">
+        <v>95618100</v>
+      </c>
+      <c r="U31">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V31">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W31">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X31">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y31">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z31">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA31">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB31">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC31">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -2001,6 +3210,45 @@
       <c r="P32">
         <v>-406308225900</v>
       </c>
+      <c r="Q32">
+        <v>1057768888800</v>
+      </c>
+      <c r="R32">
+        <v>1464077114700</v>
+      </c>
+      <c r="S32">
+        <v>66240200</v>
+      </c>
+      <c r="T32">
+        <v>97710100</v>
+      </c>
+      <c r="U32">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V32">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W32">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X32">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y32">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z32">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA32">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB32">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC32">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -2051,6 +3299,45 @@
       <c r="P33">
         <v>-410966515900</v>
       </c>
+      <c r="Q33">
+        <v>1085044702700</v>
+      </c>
+      <c r="R33">
+        <v>1496011218600</v>
+      </c>
+      <c r="S33">
+        <v>67878600</v>
+      </c>
+      <c r="T33">
+        <v>100028600</v>
+      </c>
+      <c r="U33">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V33">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W33">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X33">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y33">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z33">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA33">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB33">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC33">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -2101,6 +3388,45 @@
       <c r="P34">
         <v>-419165630800</v>
       </c>
+      <c r="Q34">
+        <v>1108008014600</v>
+      </c>
+      <c r="R34">
+        <v>1527173645400</v>
+      </c>
+      <c r="S34">
+        <v>69150900</v>
+      </c>
+      <c r="T34">
+        <v>102084600</v>
+      </c>
+      <c r="U34">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V34">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W34">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X34">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y34">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z34">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA34">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB34">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC34">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -2151,6 +3477,45 @@
       <c r="P35">
         <v>-454005636600</v>
       </c>
+      <c r="Q35">
+        <v>1125305162800</v>
+      </c>
+      <c r="R35">
+        <v>1579310799400</v>
+      </c>
+      <c r="S35">
+        <v>70092700</v>
+      </c>
+      <c r="T35">
+        <v>106294700</v>
+      </c>
+      <c r="U35">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V35">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W35">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X35">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y35">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z35">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA35">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB35">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC35">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -2201,6 +3566,45 @@
       <c r="P36">
         <v>-546642693400</v>
       </c>
+      <c r="Q36">
+        <v>1137346315900</v>
+      </c>
+      <c r="R36">
+        <v>1683989009300</v>
+      </c>
+      <c r="S36">
+        <v>70962900</v>
+      </c>
+      <c r="T36">
+        <v>113814900</v>
+      </c>
+      <c r="U36">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V36">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W36">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X36">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y36">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z36">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA36">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB36">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC36">
+        <v>13</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -2251,6 +3655,45 @@
       <c r="P37">
         <v>-656660413400</v>
       </c>
+      <c r="Q37">
+        <v>1164973287900</v>
+      </c>
+      <c r="R37">
+        <v>1821633701300</v>
+      </c>
+      <c r="S37">
+        <v>72648000</v>
+      </c>
+      <c r="T37">
+        <v>124379000</v>
+      </c>
+      <c r="U37">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V37">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W37">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X37">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y37">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z37">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA37">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB37">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC37">
+        <v>15.4</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -2301,6 +3744,45 @@
       <c r="P38">
         <v>-759189499800</v>
       </c>
+      <c r="Q38">
+        <v>1188023023700</v>
+      </c>
+      <c r="R38">
+        <v>1947212523500</v>
+      </c>
+      <c r="S38">
+        <v>74217100</v>
+      </c>
+      <c r="T38">
+        <v>133408000</v>
+      </c>
+      <c r="U38">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V38">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W38">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X38">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y38">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z38">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA38">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB38">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC38">
+        <v>14.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -2351,6 +3833,45 @@
       <c r="P39">
         <v>-783912716300</v>
       </c>
+      <c r="Q39">
+        <v>1231395635400</v>
+      </c>
+      <c r="R39">
+        <v>2015308351700</v>
+      </c>
+      <c r="S39">
+        <v>76838700</v>
+      </c>
+      <c r="T39">
+        <v>137945300</v>
+      </c>
+      <c r="U39">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V39">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W39">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X39">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y39">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z39">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA39">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB39">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC39">
+        <v>3.5</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -2401,6 +3922,45 @@
       <c r="P40">
         <v>-775547868800</v>
       </c>
+      <c r="Q40">
+        <v>1268337949600</v>
+      </c>
+      <c r="R40">
+        <v>2043885818400</v>
+      </c>
+      <c r="S40">
+        <v>79329400</v>
+      </c>
+      <c r="T40">
+        <v>139770000</v>
+      </c>
+      <c r="U40">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V40">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W40">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X40">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y40">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z40">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA40">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB40">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC40">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -2451,6 +4011,45 @@
       <c r="P41">
         <v>-744482675000</v>
       </c>
+      <c r="Q41">
+        <v>1317981375300</v>
+      </c>
+      <c r="R41">
+        <v>2062464050300</v>
+      </c>
+      <c r="S41">
+        <v>82372300</v>
+      </c>
+      <c r="T41">
+        <v>141048100</v>
+      </c>
+      <c r="U41">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V41">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W41">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X41">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y41">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z41">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA41">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB41">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC41">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -2501,6 +4100,45 @@
       <c r="P42">
         <v>-712085047500</v>
       </c>
+      <c r="Q42">
+        <v>1365919484800</v>
+      </c>
+      <c r="R42">
+        <v>2078004532300</v>
+      </c>
+      <c r="S42">
+        <v>85516800</v>
+      </c>
+      <c r="T42">
+        <v>142002800</v>
+      </c>
+      <c r="U42">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V42">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W42">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X42">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y42">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z42">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA42">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB42">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC42">
+        <v>4.5</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -2551,6 +4189,45 @@
       <c r="P43">
         <v>-687576573100</v>
       </c>
+      <c r="Q43">
+        <v>1402724908600</v>
+      </c>
+      <c r="R43">
+        <v>2090301481700</v>
+      </c>
+      <c r="S43">
+        <v>87940300</v>
+      </c>
+      <c r="T43">
+        <v>142770600</v>
+      </c>
+      <c r="U43">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V43">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W43">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X43">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y43">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z43">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA43">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB43">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC43">
+        <v>3.4</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -2601,6 +4278,45 @@
       <c r="P44">
         <v>-645067612400</v>
       </c>
+      <c r="Q44">
+        <v>1456813692500</v>
+      </c>
+      <c r="R44">
+        <v>2101881304900</v>
+      </c>
+      <c r="S44">
+        <v>91045900</v>
+      </c>
+      <c r="T44">
+        <v>143580900</v>
+      </c>
+      <c r="U44">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V44">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W44">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X44">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y44">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z44">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA44">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB44">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC44">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -2651,6 +4367,45 @@
       <c r="P45">
         <v>-608218867600</v>
       </c>
+      <c r="Q45">
+        <v>1510261987400</v>
+      </c>
+      <c r="R45">
+        <v>2118480855000</v>
+      </c>
+      <c r="S45">
+        <v>94292000</v>
+      </c>
+      <c r="T45">
+        <v>144606600</v>
+      </c>
+      <c r="U45">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V45">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W45">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X45">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y45">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z45">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA45">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB45">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC45">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -2701,6 +4456,45 @@
       <c r="P46">
         <v>-582300348200</v>
       </c>
+      <c r="Q46">
+        <v>1546360354500</v>
+      </c>
+      <c r="R46">
+        <v>2128660702700</v>
+      </c>
+      <c r="S46">
+        <v>96483000</v>
+      </c>
+      <c r="T46">
+        <v>145207100</v>
+      </c>
+      <c r="U46">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V46">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W46">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X46">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y46">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z46">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA46">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB46">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC46">
+        <v>3.6</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -2751,6 +4545,45 @@
       <c r="P47">
         <v>-534503395100</v>
       </c>
+      <c r="Q47">
+        <v>1602884540600</v>
+      </c>
+      <c r="R47">
+        <v>2137387935700</v>
+      </c>
+      <c r="S47">
+        <v>99737200</v>
+      </c>
+      <c r="T47">
+        <v>145806300</v>
+      </c>
+      <c r="U47">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V47">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W47">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X47">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y47">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z47">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA47">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB47">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC47">
+        <v>6.7</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -2801,6 +4634,45 @@
       <c r="P48">
         <v>-516315980300</v>
       </c>
+      <c r="Q48">
+        <v>1635816785200</v>
+      </c>
+      <c r="R48">
+        <v>2152132765500</v>
+      </c>
+      <c r="S48">
+        <v>102184100</v>
+      </c>
+      <c r="T48">
+        <v>146708500</v>
+      </c>
+      <c r="U48">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V48">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W48">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X48">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y48">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z48">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA48">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB48">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC48">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -2851,6 +4723,45 @@
       <c r="P49">
         <v>-500920523200</v>
       </c>
+      <c r="Q49">
+        <v>1663408298400</v>
+      </c>
+      <c r="R49">
+        <v>2164328821600</v>
+      </c>
+      <c r="S49">
+        <v>103857500</v>
+      </c>
+      <c r="T49">
+        <v>147582800</v>
+      </c>
+      <c r="U49">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V49">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W49">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X49">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y49">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z49">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA49">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB49">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC49">
+        <v>2.2</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -2901,6 +4812,45 @@
       <c r="P50">
         <v>-495572955200</v>
       </c>
+      <c r="Q50">
+        <v>1682281527300</v>
+      </c>
+      <c r="R50">
+        <v>2177854482500</v>
+      </c>
+      <c r="S50">
+        <v>104978900</v>
+      </c>
+      <c r="T50">
+        <v>148408000</v>
+      </c>
+      <c r="U50">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V50">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W50">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X50">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y50">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z50">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA50">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB50">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC50">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -2951,6 +4901,45 @@
       <c r="P51">
         <v>-463042381900</v>
       </c>
+      <c r="Q51">
+        <v>1728500023000</v>
+      </c>
+      <c r="R51">
+        <v>2191542404900</v>
+      </c>
+      <c r="S51">
+        <v>107274400</v>
+      </c>
+      <c r="T51">
+        <v>149306600</v>
+      </c>
+      <c r="U51">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V51">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W51">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X51">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y51">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z51">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA51">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB51">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC51">
+        <v>4.6</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -3001,6 +4990,45 @@
       <c r="P52">
         <v>-451236122300</v>
       </c>
+      <c r="Q52">
+        <v>1755042682200</v>
+      </c>
+      <c r="R52">
+        <v>2206278804500</v>
+      </c>
+      <c r="S52">
+        <v>109041200</v>
+      </c>
+      <c r="T52">
+        <v>150182100</v>
+      </c>
+      <c r="U52">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V52">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W52">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X52">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y52">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z52">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA52">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB52">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC52">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -3051,6 +5079,45 @@
       <c r="P53">
         <v>-446229427300</v>
       </c>
+      <c r="Q53">
+        <v>1774754850200</v>
+      </c>
+      <c r="R53">
+        <v>2220984277500</v>
+      </c>
+      <c r="S53">
+        <v>110104300</v>
+      </c>
+      <c r="T53">
+        <v>151295400</v>
+      </c>
+      <c r="U53">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V53">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W53">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X53">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y53">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z53">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA53">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB53">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC53">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -3101,6 +5168,45 @@
       <c r="P54">
         <v>-460934772700</v>
       </c>
+      <c r="Q54">
+        <v>1788091842000</v>
+      </c>
+      <c r="R54">
+        <v>2249026614700</v>
+      </c>
+      <c r="S54">
+        <v>111046000</v>
+      </c>
+      <c r="T54">
+        <v>153217100</v>
+      </c>
+      <c r="U54">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V54">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W54">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X54">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y54">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z54">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA54">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB54">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC54">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -3151,6 +5257,45 @@
       <c r="P55">
         <v>-464472632000</v>
       </c>
+      <c r="Q55">
+        <v>1801489609500</v>
+      </c>
+      <c r="R55">
+        <v>2265962241500</v>
+      </c>
+      <c r="S55">
+        <v>111820200</v>
+      </c>
+      <c r="T55">
+        <v>154276900</v>
+      </c>
+      <c r="U55">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V55">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W55">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X55">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y55">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z55">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA55">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB55">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC55">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -3201,6 +5346,45 @@
       <c r="P56">
         <v>-472904938400</v>
       </c>
+      <c r="Q56">
+        <v>1810532273700</v>
+      </c>
+      <c r="R56">
+        <v>2283437212100</v>
+      </c>
+      <c r="S56">
+        <v>112454100</v>
+      </c>
+      <c r="T56">
+        <v>155372500</v>
+      </c>
+      <c r="U56">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V56">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W56">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X56">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y56">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z56">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA56">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB56">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC56">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -3251,6 +5435,45 @@
       <c r="P57">
         <v>-488043495500</v>
       </c>
+      <c r="Q57">
+        <v>1823370009100</v>
+      </c>
+      <c r="R57">
+        <v>2311413504600</v>
+      </c>
+      <c r="S57">
+        <v>113028100</v>
+      </c>
+      <c r="T57">
+        <v>157281300</v>
+      </c>
+      <c r="U57">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V57">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W57">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X57">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y57">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z57">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA57">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB57">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC57">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -3301,6 +5524,45 @@
       <c r="P58">
         <v>-493115046500</v>
       </c>
+      <c r="Q58">
+        <v>1834753995700</v>
+      </c>
+      <c r="R58">
+        <v>2327869042200</v>
+      </c>
+      <c r="S58">
+        <v>113771700</v>
+      </c>
+      <c r="T58">
+        <v>158401300</v>
+      </c>
+      <c r="U58">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V58">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W58">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X58">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y58">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z58">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA58">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB58">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC58">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -3351,6 +5613,45 @@
       <c r="P59">
         <v>-498060120400</v>
       </c>
+      <c r="Q59">
+        <v>1844611587900</v>
+      </c>
+      <c r="R59">
+        <v>2342671708300</v>
+      </c>
+      <c r="S59">
+        <v>114318800</v>
+      </c>
+      <c r="T59">
+        <v>159348100</v>
+      </c>
+      <c r="U59">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V59">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W59">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X59">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y59">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z59">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA59">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB59">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC59">
+        <v>0.7</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -3401,6 +5702,45 @@
       <c r="P60">
         <v>-490587207200</v>
       </c>
+      <c r="Q60">
+        <v>1863852039400</v>
+      </c>
+      <c r="R60">
+        <v>2354439246600</v>
+      </c>
+      <c r="S60">
+        <v>115225100</v>
+      </c>
+      <c r="T60">
+        <v>159980000</v>
+      </c>
+      <c r="U60">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V60">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W60">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X60">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y60">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z60">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA60">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB60">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC60">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -3451,6 +5791,45 @@
       <c r="P61">
         <v>-492656232000</v>
       </c>
+      <c r="Q61">
+        <v>1873275070100</v>
+      </c>
+      <c r="R61">
+        <v>2365931302100</v>
+      </c>
+      <c r="S61">
+        <v>115901200</v>
+      </c>
+      <c r="T61">
+        <v>160678800</v>
+      </c>
+      <c r="U61">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V61">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W61">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X61">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y61">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z61">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA61">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB61">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC61">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -3501,6 +5880,45 @@
       <c r="P62">
         <v>-451661215200</v>
       </c>
+      <c r="Q62">
+        <v>1925518575700</v>
+      </c>
+      <c r="R62">
+        <v>2377179790900</v>
+      </c>
+      <c r="S62">
+        <v>118161700</v>
+      </c>
+      <c r="T62">
+        <v>161319600</v>
+      </c>
+      <c r="U62">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V62">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W62">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X62">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y62">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z62">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA62">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB62">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC62">
+        <v>5.7</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -3551,6 +5969,45 @@
       <c r="P63">
         <v>-432632547100</v>
       </c>
+      <c r="Q63">
+        <v>1952588903500</v>
+      </c>
+      <c r="R63">
+        <v>2385221450600</v>
+      </c>
+      <c r="S63">
+        <v>119584800</v>
+      </c>
+      <c r="T63">
+        <v>161793700</v>
+      </c>
+      <c r="U63">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V63">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W63">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X63">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y63">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z63">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA63">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB63">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC63">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -3601,6 +6058,45 @@
       <c r="P64">
         <v>-414850421700</v>
       </c>
+      <c r="Q64">
+        <v>1980046974000</v>
+      </c>
+      <c r="R64">
+        <v>2394897395700</v>
+      </c>
+      <c r="S64">
+        <v>121162000</v>
+      </c>
+      <c r="T64">
+        <v>162377500</v>
+      </c>
+      <c r="U64">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V64">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W64">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X64">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y64">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z64">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA64">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB64">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC64">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -3651,6 +6147,45 @@
       <c r="P65">
         <v>-406762926400</v>
       </c>
+      <c r="Q65">
+        <v>1997776922200</v>
+      </c>
+      <c r="R65">
+        <v>2404539848600</v>
+      </c>
+      <c r="S65">
+        <v>122125200</v>
+      </c>
+      <c r="T65">
+        <v>162952300</v>
+      </c>
+      <c r="U65">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V65">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W65">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X65">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y65">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z65">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA65">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB65">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC65">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -3701,6 +6236,45 @@
       <c r="P66">
         <v>-393237720700</v>
       </c>
+      <c r="Q66">
+        <v>2017773108900</v>
+      </c>
+      <c r="R66">
+        <v>2411010829600</v>
+      </c>
+      <c r="S66">
+        <v>123255300</v>
+      </c>
+      <c r="T66">
+        <v>163281200</v>
+      </c>
+      <c r="U66">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V66">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W66">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X66">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y66">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z66">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA66">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB66">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC66">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -3751,6 +6325,45 @@
       <c r="P67">
         <v>-383675031900</v>
       </c>
+      <c r="Q67">
+        <v>2035181091100</v>
+      </c>
+      <c r="R67">
+        <v>2418856123000</v>
+      </c>
+      <c r="S67">
+        <v>124212200</v>
+      </c>
+      <c r="T67">
+        <v>163761900</v>
+      </c>
+      <c r="U67">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V67">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W67">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X67">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y67">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z67">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA67">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB67">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC67">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -3801,6 +6414,45 @@
       <c r="P68">
         <v>-384957669000</v>
       </c>
+      <c r="Q68">
+        <v>2050500130100</v>
+      </c>
+      <c r="R68">
+        <v>2435457799100</v>
+      </c>
+      <c r="S68">
+        <v>125252100</v>
+      </c>
+      <c r="T68">
+        <v>164777900</v>
+      </c>
+      <c r="U68">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V68">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W68">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X68">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y68">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z68">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA68">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB68">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC68">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -3851,6 +6503,45 @@
       <c r="P69">
         <v>-396680665900</v>
       </c>
+      <c r="Q69">
+        <v>2062206512900</v>
+      </c>
+      <c r="R69">
+        <v>2458887178800</v>
+      </c>
+      <c r="S69">
+        <v>125823400</v>
+      </c>
+      <c r="T69">
+        <v>166255200</v>
+      </c>
+      <c r="U69">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V69">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W69">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X69">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y69">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z69">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA69">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB69">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC69">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -3901,6 +6592,45 @@
       <c r="P70">
         <v>-424900519500</v>
       </c>
+      <c r="Q70">
+        <v>2104688554800</v>
+      </c>
+      <c r="R70">
+        <v>2529589074300</v>
+      </c>
+      <c r="S70">
+        <v>128349100</v>
+      </c>
+      <c r="T70">
+        <v>170661100</v>
+      </c>
+      <c r="U70">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V70">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W70">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X70">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y70">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z70">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA70">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB70">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC70">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -3951,6 +6681,45 @@
       <c r="P71">
         <v>-435721851400</v>
       </c>
+      <c r="Q71">
+        <v>2129968955000</v>
+      </c>
+      <c r="R71">
+        <v>2565690806400</v>
+      </c>
+      <c r="S71">
+        <v>129461400</v>
+      </c>
+      <c r="T71">
+        <v>172929800</v>
+      </c>
+      <c r="U71">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V71">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W71">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X71">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y71">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z71">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA71">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB71">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC71">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -4001,6 +6770,45 @@
       <c r="P72">
         <v>-449588863100</v>
       </c>
+      <c r="Q72">
+        <v>2150237034500</v>
+      </c>
+      <c r="R72">
+        <v>2599825897600</v>
+      </c>
+      <c r="S72">
+        <v>130658300</v>
+      </c>
+      <c r="T72">
+        <v>175255000</v>
+      </c>
+      <c r="U72">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V72">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W72">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X72">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y72">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z72">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA72">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB72">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC72">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -4051,6 +6859,45 @@
       <c r="P73">
         <v>-466050072100</v>
       </c>
+      <c r="Q73">
+        <v>2178215124100</v>
+      </c>
+      <c r="R73">
+        <v>2644265196200</v>
+      </c>
+      <c r="S73">
+        <v>131903100</v>
+      </c>
+      <c r="T73">
+        <v>178150400</v>
+      </c>
+      <c r="U73">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V73">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W73">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X73">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y73">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z73">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA73">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB73">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC73">
+        <v>2.3</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -4101,6 +6948,45 @@
       <c r="P74">
         <v>-478448059000</v>
       </c>
+      <c r="Q74">
+        <v>2203314777000</v>
+      </c>
+      <c r="R74">
+        <v>2681762836000</v>
+      </c>
+      <c r="S74">
+        <v>133153600</v>
+      </c>
+      <c r="T74">
+        <v>180642300</v>
+      </c>
+      <c r="U74">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V74">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W74">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X74">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y74">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z74">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA74">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB74">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC74">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -4151,6 +7037,45 @@
       <c r="P75">
         <v>-469308761600</v>
       </c>
+      <c r="Q75">
+        <v>2238078538100</v>
+      </c>
+      <c r="R75">
+        <v>2707387299700</v>
+      </c>
+      <c r="S75">
+        <v>134956000</v>
+      </c>
+      <c r="T75">
+        <v>182348200</v>
+      </c>
+      <c r="U75">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V75">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W75">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X75">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y75">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z75">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA75">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB75">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC75">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -4201,6 +7126,45 @@
       <c r="P76">
         <v>-482370765700</v>
       </c>
+      <c r="Q76">
+        <v>2263006319300</v>
+      </c>
+      <c r="R76">
+        <v>2745377085000</v>
+      </c>
+      <c r="S76">
+        <v>136164200</v>
+      </c>
+      <c r="T76">
+        <v>184525500</v>
+      </c>
+      <c r="U76">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V76">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W76">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X76">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y76">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z76">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA76">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB76">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC76">
+        <v>1.8</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -4251,6 +7215,45 @@
       <c r="P77">
         <v>-531099552500</v>
       </c>
+      <c r="Q77">
+        <v>2277370397900</v>
+      </c>
+      <c r="R77">
+        <v>2808469950400</v>
+      </c>
+      <c r="S77">
+        <v>137183800</v>
+      </c>
+      <c r="T77">
+        <v>188262000</v>
+      </c>
+      <c r="U77">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V77">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W77">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X77">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y77">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z77">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA77">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB77">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC77">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -4301,6 +7304,45 @@
       <c r="P78">
         <v>-602882379100</v>
       </c>
+      <c r="Q78">
+        <v>2291825228400</v>
+      </c>
+      <c r="R78">
+        <v>2894707607500</v>
+      </c>
+      <c r="S78">
+        <v>138064300</v>
+      </c>
+      <c r="T78">
+        <v>193860500</v>
+      </c>
+      <c r="U78">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V78">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W78">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X78">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y78">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z78">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA78">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB78">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC78">
+        <v>10</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79">
@@ -4351,6 +7393,45 @@
       <c r="P79">
         <v>-685079546400</v>
       </c>
+      <c r="Q79">
+        <v>2312978732800</v>
+      </c>
+      <c r="R79">
+        <v>2998058279200</v>
+      </c>
+      <c r="S79">
+        <v>139352500</v>
+      </c>
+      <c r="T79">
+        <v>201336300</v>
+      </c>
+      <c r="U79">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V79">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W79">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X79">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y79">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z79">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA79">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB79">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC79">
+        <v>11.5</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80">
@@ -4401,6 +7482,45 @@
       <c r="P80">
         <v>-667189345700</v>
       </c>
+      <c r="Q80">
+        <v>2362040827700</v>
+      </c>
+      <c r="R80">
+        <v>3029230173400</v>
+      </c>
+      <c r="S80">
+        <v>142257800</v>
+      </c>
+      <c r="T80">
+        <v>203851400</v>
+      </c>
+      <c r="U80">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V80">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W80">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X80">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y80">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z80">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA80">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB80">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC80">
+        <v>2.5</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81">
@@ -4451,6 +7571,45 @@
       <c r="P81">
         <v>-669265886900</v>
       </c>
+      <c r="Q81">
+        <v>2386085070700</v>
+      </c>
+      <c r="R81">
+        <v>3055350957600</v>
+      </c>
+      <c r="S81">
+        <v>143894600</v>
+      </c>
+      <c r="T81">
+        <v>205460300</v>
+      </c>
+      <c r="U81">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V81">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W81">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X81">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y81">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z81">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA81">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB81">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC81">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82">
@@ -4501,6 +7660,45 @@
       <c r="P82">
         <v>-673175343700</v>
       </c>
+      <c r="Q82">
+        <v>2404770345000</v>
+      </c>
+      <c r="R82">
+        <v>3077945688700</v>
+      </c>
+      <c r="S82">
+        <v>145098700</v>
+      </c>
+      <c r="T82">
+        <v>206871100</v>
+      </c>
+      <c r="U82">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V82">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W82">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X82">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y82">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z82">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA82">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB82">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC82">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83">
@@ -4551,6 +7749,45 @@
       <c r="P83">
         <v>-661124537700</v>
       </c>
+      <c r="Q83">
+        <v>2440772176800</v>
+      </c>
+      <c r="R83">
+        <v>3101896714500</v>
+      </c>
+      <c r="S83">
+        <v>147025900</v>
+      </c>
+      <c r="T83">
+        <v>208218600</v>
+      </c>
+      <c r="U83">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V83">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W83">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X83">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y83">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z83">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA83">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB83">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC83">
+        <v>1.7</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84">
@@ -4601,6 +7838,45 @@
       <c r="P84">
         <v>-652522440700</v>
       </c>
+      <c r="Q84">
+        <v>2467217549100</v>
+      </c>
+      <c r="R84">
+        <v>3119739989800</v>
+      </c>
+      <c r="S84">
+        <v>148496700</v>
+      </c>
+      <c r="T84">
+        <v>209144200</v>
+      </c>
+      <c r="U84">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V84">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W84">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X84">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y84">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z84">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA84">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB84">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC84">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85">
@@ -4651,6 +7927,45 @@
       <c r="P85">
         <v>-623796409800</v>
       </c>
+      <c r="Q85">
+        <v>2513596349600</v>
+      </c>
+      <c r="R85">
+        <v>3137392759400</v>
+      </c>
+      <c r="S85">
+        <v>150927800</v>
+      </c>
+      <c r="T85">
+        <v>210270600</v>
+      </c>
+      <c r="U85">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V85">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W85">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X85">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y85">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z85">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA85">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB85">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC85">
+        <v>4</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86">
@@ -4701,6 +8016,45 @@
       <c r="P86">
         <v>-575247602800</v>
       </c>
+      <c r="Q86">
+        <v>2578812582400</v>
+      </c>
+      <c r="R86">
+        <v>3154060185200</v>
+      </c>
+      <c r="S86">
+        <v>154499000</v>
+      </c>
+      <c r="T86">
+        <v>211457200</v>
+      </c>
+      <c r="U86">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V86">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W86">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X86">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y86">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z86">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA86">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB86">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC86">
+        <v>6.8</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87">
@@ -4751,6 +8105,45 @@
       <c r="P87">
         <v>-525907745900</v>
       </c>
+      <c r="Q87">
+        <v>2641982793000</v>
+      </c>
+      <c r="R87">
+        <v>3167890538900</v>
+      </c>
+      <c r="S87">
+        <v>158418600</v>
+      </c>
+      <c r="T87">
+        <v>212195700</v>
+      </c>
+      <c r="U87">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V87">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W87">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X87">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y87">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z87">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA87">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB87">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC87">
+        <v>6.9</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88">
@@ -4801,6 +8194,45 @@
       <c r="P88">
         <v>-529216860400</v>
       </c>
+      <c r="Q88">
+        <v>2673573104800</v>
+      </c>
+      <c r="R88">
+        <v>3202789965200</v>
+      </c>
+      <c r="S88">
+        <v>160246500</v>
+      </c>
+      <c r="T88">
+        <v>214396900</v>
+      </c>
+      <c r="U88">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V88">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W88">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X88">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y88">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z88">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA88">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB88">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC88">
+        <v>0.5</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89">
@@ -4851,6 +8283,45 @@
       <c r="P89">
         <v>-526377204900</v>
       </c>
+      <c r="Q89">
+        <v>2710890548200</v>
+      </c>
+      <c r="R89">
+        <v>3237267753100</v>
+      </c>
+      <c r="S89">
+        <v>162154400</v>
+      </c>
+      <c r="T89">
+        <v>216656800</v>
+      </c>
+      <c r="U89">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V89">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W89">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X89">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y89">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z89">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA89">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB89">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC89">
+        <v>0.4</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90">
@@ -4901,6 +8372,45 @@
       <c r="P90">
         <v>-537845296900</v>
       </c>
+      <c r="Q90">
+        <v>2731525039600</v>
+      </c>
+      <c r="R90">
+        <v>3269370336500</v>
+      </c>
+      <c r="S90">
+        <v>163376300</v>
+      </c>
+      <c r="T90">
+        <v>218773300</v>
+      </c>
+      <c r="U90">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V90">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W90">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X90">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y90">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z90">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA90">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB90">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC90">
+        <v>1.6</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91">
@@ -4951,6 +8461,45 @@
       <c r="P91">
         <v>-614660296600</v>
       </c>
+      <c r="Q91">
+        <v>2747727800100</v>
+      </c>
+      <c r="R91">
+        <v>3362388096700</v>
+      </c>
+      <c r="S91">
+        <v>164339800</v>
+      </c>
+      <c r="T91">
+        <v>224047500</v>
+      </c>
+      <c r="U91">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V91">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W91">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X91">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y91">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z91">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA91">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB91">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC91">
+        <v>10.7</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92">
@@ -5001,6 +8550,45 @@
       <c r="P92">
         <v>-672758393600</v>
       </c>
+      <c r="Q92">
+        <v>2768633760600</v>
+      </c>
+      <c r="R92">
+        <v>3441392154200</v>
+      </c>
+      <c r="S92">
+        <v>165571000</v>
+      </c>
+      <c r="T92">
+        <v>228956400</v>
+      </c>
+      <c r="U92">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V92">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W92">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X92">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y92">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z92">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA92">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB92">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC92">
+        <v>8.1</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93">
@@ -5051,6 +8639,45 @@
       <c r="P93">
         <v>-695580148100</v>
       </c>
+      <c r="Q93">
+        <v>2797339637500</v>
+      </c>
+      <c r="R93">
+        <v>3492919785600</v>
+      </c>
+      <c r="S93">
+        <v>167082800</v>
+      </c>
+      <c r="T93">
+        <v>232351400</v>
+      </c>
+      <c r="U93">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V93">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W93">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X93">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y93">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z93">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA93">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB93">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC93">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94">
@@ -5101,6 +8728,45 @@
       <c r="P94">
         <v>-681754863300</v>
       </c>
+      <c r="Q94">
+        <v>2829620650200</v>
+      </c>
+      <c r="R94">
+        <v>3511375513500</v>
+      </c>
+      <c r="S94">
+        <v>169319600</v>
+      </c>
+      <c r="T94">
+        <v>233688900</v>
+      </c>
+      <c r="U94">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V94">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W94">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X94">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y94">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z94">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA94">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB94">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC94">
+        <v>1.9</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95">
@@ -5151,6 +8817,45 @@
       <c r="P95">
         <v>-672401728400</v>
       </c>
+      <c r="Q95">
+        <v>2855850459300</v>
+      </c>
+      <c r="R95">
+        <v>3528252187700</v>
+      </c>
+      <c r="S95">
+        <v>170792500</v>
+      </c>
+      <c r="T95">
+        <v>234673700</v>
+      </c>
+      <c r="U95">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V95">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W95">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X95">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y95">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z95">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA95">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB95">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC95">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96">
@@ -5201,6 +8906,45 @@
       <c r="P96">
         <v>-599572070300</v>
       </c>
+      <c r="Q96">
+        <v>2943960223100</v>
+      </c>
+      <c r="R96">
+        <v>3543532293400</v>
+      </c>
+      <c r="S96">
+        <v>175493400</v>
+      </c>
+      <c r="T96">
+        <v>235804300</v>
+      </c>
+      <c r="U96">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V96">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W96">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X96">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y96">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z96">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA96">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB96">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC96">
+        <v>10.2</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97">
@@ -5251,6 +8995,45 @@
       <c r="P97">
         <v>-464730555400</v>
       </c>
+      <c r="Q97">
+        <v>3097729772200</v>
+      </c>
+      <c r="R97">
+        <v>3562460327600</v>
+      </c>
+      <c r="S97">
+        <v>183502700</v>
+      </c>
+      <c r="T97">
+        <v>236774000</v>
+      </c>
+      <c r="U97">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V97">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W97">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X97">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y97">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z97">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA97">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB97">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC97">
+        <v>18.9</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98">
@@ -5301,6 +9084,45 @@
       <c r="P98">
         <v>-390207961400</v>
       </c>
+      <c r="Q98">
+        <v>3210921146900</v>
+      </c>
+      <c r="R98">
+        <v>3601129108300</v>
+      </c>
+      <c r="S98">
+        <v>190521700</v>
+      </c>
+      <c r="T98">
+        <v>238562300</v>
+      </c>
+      <c r="U98">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V98">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W98">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X98">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y98">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z98">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA98">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB98">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC98">
+        <v>10.4</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99">
@@ -5351,6 +9173,45 @@
       <c r="P99">
         <v>-407411375800</v>
       </c>
+      <c r="Q99">
+        <v>3262083291800</v>
+      </c>
+      <c r="R99">
+        <v>3669494667600</v>
+      </c>
+      <c r="S99">
+        <v>193728400</v>
+      </c>
+      <c r="T99">
+        <v>242592200</v>
+      </c>
+      <c r="U99">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V99">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W99">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X99">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y99">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z99">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA99">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB99">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC99">
+        <v>2.4</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100">
@@ -5401,6 +9262,45 @@
       <c r="P100">
         <v>-418472656900</v>
       </c>
+      <c r="Q100">
+        <v>3294115462000</v>
+      </c>
+      <c r="R100">
+        <v>3712588118900</v>
+      </c>
+      <c r="S100">
+        <v>195268500</v>
+      </c>
+      <c r="T100">
+        <v>245596300</v>
+      </c>
+      <c r="U100">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V100">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W100">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X100">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y100">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z100">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA100">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB100">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC100">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101">
@@ -5451,6 +9351,45 @@
       <c r="P101">
         <v>-410272864600</v>
       </c>
+      <c r="Q101">
+        <v>3332819580900</v>
+      </c>
+      <c r="R101">
+        <v>3743092445500</v>
+      </c>
+      <c r="S101">
+        <v>197300700</v>
+      </c>
+      <c r="T101">
+        <v>247302000</v>
+      </c>
+      <c r="U101">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V101">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W101">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X101">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y101">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z101">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA101">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB101">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC101">
+        <v>1.1</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102">
@@ -5501,6 +9440,45 @@
       <c r="P102">
         <v>-462213196400</v>
       </c>
+      <c r="Q102">
+        <v>3352389335700</v>
+      </c>
+      <c r="R102">
+        <v>3814602532100</v>
+      </c>
+      <c r="S102">
+        <v>198510800</v>
+      </c>
+      <c r="T102">
+        <v>250228600</v>
+      </c>
+      <c r="U102">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V102">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W102">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X102">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y102">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z102">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA102">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB102">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC102">
+        <v>7.3</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103">
@@ -5551,6 +9529,45 @@
       <c r="P103">
         <v>-505540375900</v>
       </c>
+      <c r="Q103">
+        <v>3381603285000</v>
+      </c>
+      <c r="R103">
+        <v>3887143660900</v>
+      </c>
+      <c r="S103">
+        <v>199902100</v>
+      </c>
+      <c r="T103">
+        <v>254546000</v>
+      </c>
+      <c r="U103">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V103">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W103">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X103">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y103">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z103">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA103">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB103">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC103">
+        <v>6.1</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104">
@@ -5601,6 +9618,45 @@
       <c r="P104">
         <v>-484281523300</v>
       </c>
+      <c r="Q104">
+        <v>3422431987200</v>
+      </c>
+      <c r="R104">
+        <v>3906713510500</v>
+      </c>
+      <c r="S104">
+        <v>202105300</v>
+      </c>
+      <c r="T104">
+        <v>255730200</v>
+      </c>
+      <c r="U104">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V104">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W104">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X104">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y104">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z104">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA104">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB104">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC104">
+        <v>3</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105">
@@ -5651,6 +9707,45 @@
       <c r="P105">
         <v>-506868566300</v>
       </c>
+      <c r="Q105">
+        <v>3441753699200</v>
+      </c>
+      <c r="R105">
+        <v>3948622265500</v>
+      </c>
+      <c r="S105">
+        <v>203155300</v>
+      </c>
+      <c r="T105">
+        <v>258046900</v>
+      </c>
+      <c r="U105">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V105">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W105">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X105">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y105">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z105">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA105">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB105">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC105">
+        <v>3.2</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106">
@@ -5701,6 +9796,45 @@
       <c r="P106">
         <v>-552456272200</v>
       </c>
+      <c r="Q106">
+        <v>3459380576700</v>
+      </c>
+      <c r="R106">
+        <v>4011836848900</v>
+      </c>
+      <c r="S106">
+        <v>204308900</v>
+      </c>
+      <c r="T106">
+        <v>262065700</v>
+      </c>
+      <c r="U106">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V106">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W106">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X106">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y106">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z106">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA106">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB106">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC106">
+        <v>6.4</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107">
@@ -5751,6 +9885,45 @@
       <c r="P107">
         <v>-607387182200</v>
       </c>
+      <c r="Q107">
+        <v>3477572769800</v>
+      </c>
+      <c r="R107">
+        <v>4084959952000</v>
+      </c>
+      <c r="S107">
+        <v>205362800</v>
+      </c>
+      <c r="T107">
+        <v>266726300</v>
+      </c>
+      <c r="U107">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V107">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W107">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X107">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y107">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z107">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA107">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB107">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC107">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108">
@@ -5801,6 +9974,45 @@
       <c r="P108">
         <v>-806228586400</v>
       </c>
+      <c r="Q108">
+        <v>3507568297800</v>
+      </c>
+      <c r="R108">
+        <v>4313796884200</v>
+      </c>
+      <c r="S108">
+        <v>207055000</v>
+      </c>
+      <c r="T108">
+        <v>282617500</v>
+      </c>
+      <c r="U108">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V108">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W108">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X108">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y108">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z108">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA108">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB108">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC108">
+        <v>27.8</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109">
@@ -5851,6 +10063,45 @@
       <c r="P109">
         <v>-871993051900</v>
       </c>
+      <c r="Q109">
+        <v>3556600471900</v>
+      </c>
+      <c r="R109">
+        <v>4428593523800</v>
+      </c>
+      <c r="S109">
+        <v>210344200</v>
+      </c>
+      <c r="T109">
+        <v>291555800</v>
+      </c>
+      <c r="U109">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V109">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W109">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X109">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y109">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z109">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA109">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB109">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC109">
+        <v>9.2</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110">
@@ -5901,6 +10152,45 @@
       <c r="P110">
         <v>-844182505200</v>
       </c>
+      <c r="Q110">
+        <v>3622113517300</v>
+      </c>
+      <c r="R110">
+        <v>4466296022500</v>
+      </c>
+      <c r="S110">
+        <v>214785800</v>
+      </c>
+      <c r="T110">
+        <v>294464400</v>
+      </c>
+      <c r="U110">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V110">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W110">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X110">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y110">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z110">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA110">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB110">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC110">
+        <v>3.9</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111">
@@ -5951,6 +10241,45 @@
       <c r="P111">
         <v>-793683972400</v>
       </c>
+      <c r="Q111">
+        <v>3695819283300</v>
+      </c>
+      <c r="R111">
+        <v>4489503255700</v>
+      </c>
+      <c r="S111">
+        <v>219194400</v>
+      </c>
+      <c r="T111">
+        <v>296012300</v>
+      </c>
+      <c r="U111">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V111">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W111">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X111">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y111">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z111">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA111">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB111">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC111">
+        <v>7.1</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112">
@@ -6001,6 +10330,45 @@
       <c r="P112">
         <v>-804565058600</v>
       </c>
+      <c r="Q112">
+        <v>3730638098800</v>
+      </c>
+      <c r="R112">
+        <v>4535203157400</v>
+      </c>
+      <c r="S112">
+        <v>221502700</v>
+      </c>
+      <c r="T112">
+        <v>298855700</v>
+      </c>
+      <c r="U112">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V112">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W112">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X112">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y112">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z112">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA112">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB112">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC112">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113">
@@ -6051,6 +10419,45 @@
       <c r="P113">
         <v>-824864598000</v>
       </c>
+      <c r="Q113">
+        <v>3757207416400</v>
+      </c>
+      <c r="R113">
+        <v>4582072014400</v>
+      </c>
+      <c r="S113">
+        <v>223208300</v>
+      </c>
+      <c r="T113">
+        <v>302126700</v>
+      </c>
+      <c r="U113">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V113">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W113">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X113">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y113">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z113">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA113">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB113">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC113">
+        <v>2.8</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114">
@@ -6101,6 +10508,45 @@
       <c r="P114">
         <v>-827112544000</v>
       </c>
+      <c r="Q114">
+        <v>3807848201500</v>
+      </c>
+      <c r="R114">
+        <v>4634960745500</v>
+      </c>
+      <c r="S114">
+        <v>226585400</v>
+      </c>
+      <c r="T114">
+        <v>306056200</v>
+      </c>
+      <c r="U114">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V114">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W114">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X114">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y114">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z114">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA114">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB114">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC114">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115">
@@ -6151,6 +10597,45 @@
       <c r="P115">
         <v>-827086554000</v>
       </c>
+      <c r="Q115">
+        <v>3807910951500</v>
+      </c>
+      <c r="R115">
+        <v>4634997505500</v>
+      </c>
+      <c r="S115">
+        <v>226589900</v>
+      </c>
+      <c r="T115">
+        <v>306057800</v>
+      </c>
+      <c r="U115">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V115">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W115">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X115">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y115">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z115">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA115">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB115">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC115">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116">
@@ -6201,10 +10686,49 @@
       <c r="P116">
         <v>-822079850500</v>
       </c>
+      <c r="Q116">
+        <v>3821307569900</v>
+      </c>
+      <c r="R116">
+        <v>4643387420400</v>
+      </c>
+      <c r="S116">
+        <v>227511500</v>
+      </c>
+      <c r="T116">
+        <v>306910700</v>
+      </c>
+      <c r="U116">
+        <v>33228761477.4</v>
+      </c>
+      <c r="V116">
+        <v>40377281916.5</v>
+      </c>
+      <c r="W116">
+        <v>78487886082.6</v>
+      </c>
+      <c r="X116">
+        <v>4913704.3</v>
+      </c>
+      <c r="Y116">
+        <v>1978360.9</v>
+      </c>
+      <c r="Z116">
+        <v>2668788.7</v>
+      </c>
+      <c r="AA116">
+        <v>-690427.8</v>
+      </c>
+      <c r="AB116">
+        <v>-7148520439.1</v>
+      </c>
+      <c r="AC116">
+        <v>0.7</v>
+      </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:P116"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:AC116"/>
   </ignoredErrors>
 </worksheet>
 </file>